--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB41C69-A92D-4B96-8D5E-DAD5E7F36B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842B16FC-635B-46C8-BD16-AF7287E96FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29640" yWindow="795" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12169,7 +12169,7 @@
   <dimension ref="C1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842B16FC-635B-46C8-BD16-AF7287E96FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68CC64B-7518-486A-A0E8-D1DCEA8B4203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29640" yWindow="795" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -483,9 +483,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>瞬移闪击: 眩晕效果延长至2秒       爆焰燃烧:效果延长时间增加4秒        治愈之境:恢复效果由1%提升至2%</t>
-  </si>
-  <si>
     <t>BuffPropertyAdd;90001021;1;1@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;5;4@BuffPropertyAdd;92032001;1;0.01</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -562,6 +559,10 @@
   </si>
   <si>
     <t>SkillIdAdd;62000109</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬移闪击: 眩晕效果延长至2秒       爆焰燃烧:效果延长时间增加4秒        治愈之境:恢复效果由1.5%提升至2.5%</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -12168,8 +12169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12818,10 +12819,10 @@
         <v>32</v>
       </c>
       <c r="G34" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12829,7 +12830,7 @@
         <v>20033</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E35" s="7">
         <v>20033</v>
@@ -12838,10 +12839,10 @@
         <v>32</v>
       </c>
       <c r="G35" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12849,7 +12850,7 @@
         <v>20041</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="7">
         <v>20041</v>
@@ -12858,10 +12859,10 @@
         <v>38</v>
       </c>
       <c r="G36" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12878,10 +12879,10 @@
         <v>38</v>
       </c>
       <c r="G37" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12889,7 +12890,7 @@
         <v>20043</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" s="7">
         <v>20043</v>
@@ -12898,10 +12899,10 @@
         <v>38</v>
       </c>
       <c r="G38" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12909,7 +12910,7 @@
         <v>20051</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E39" s="7">
         <v>20051</v>
@@ -12918,10 +12919,10 @@
         <v>42</v>
       </c>
       <c r="G39" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12938,10 +12939,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12949,7 +12950,7 @@
         <v>20053</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41" s="7">
         <v>20053</v>
@@ -12958,10 +12959,10 @@
         <v>42</v>
       </c>
       <c r="G41" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68CC64B-7518-486A-A0E8-D1DCEA8B4203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5D0547-A185-480E-AFA7-3CF15574E92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,14 +453,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>魔法护盾: 护盾效果提升50%       精灵之击:伤害提升50%        治愈之术:伤害提升50%</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffPropertyAdd;92011001,92011002,92011003,92011004,92011005;1;0.2@SkillPropertyAdd;62022102,62022103,62022104,62022105,62022106;2;0.5@SkillPropertyAdd;62023102,62023103,62023104,62023105,62023106;2;0.5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>意念之勇</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -563,6 +555,14 @@
   </si>
   <si>
     <t>瞬移闪击: 眩晕效果延长至2秒       爆焰燃烧:效果延长时间增加4秒        治愈之境:恢复效果由1.5%提升至2.5%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62021202,62021203,62021204,62021205,62021206;2;0.5@SkillPropertyAdd;62022102,62022103,62022104,62022105,62022106;2;0.5@BuffPropertyAdd;92011001,92011002,92011003,92011004,92011005;1;0.2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击波:伤害提升50%       精灵之击:伤害提升50%        魔法护盾: 护盾效果提升50%</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -12170,7 +12170,7 @@
   <dimension ref="C1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12759,10 +12759,10 @@
         <v>28</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12770,7 +12770,7 @@
         <v>20023</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" s="7">
         <v>20023</v>
@@ -12779,10 +12779,10 @@
         <v>28</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12790,7 +12790,7 @@
         <v>20031</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E33" s="7">
         <v>20031</v>
@@ -12799,10 +12799,10 @@
         <v>32</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12819,10 +12819,10 @@
         <v>32</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12830,7 +12830,7 @@
         <v>20033</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E35" s="7">
         <v>20033</v>
@@ -12839,10 +12839,10 @@
         <v>32</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12850,7 +12850,7 @@
         <v>20041</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E36" s="7">
         <v>20041</v>
@@ -12859,10 +12859,10 @@
         <v>38</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12879,10 +12879,10 @@
         <v>38</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12890,7 +12890,7 @@
         <v>20043</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E38" s="7">
         <v>20043</v>
@@ -12899,10 +12899,10 @@
         <v>38</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12910,7 +12910,7 @@
         <v>20051</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E39" s="7">
         <v>20051</v>
@@ -12919,10 +12919,10 @@
         <v>42</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12939,10 +12939,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12950,7 +12950,7 @@
         <v>20053</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E41" s="7">
         <v>20053</v>
@@ -12959,10 +12959,10 @@
         <v>42</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5D0547-A185-480E-AFA7-3CF15574E92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301B9233-63C3-410E-9345-66FD45C2E188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>附加(暂时无视此字段)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillIdAdd;80000013</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -563,6 +559,10 @@
   </si>
   <si>
     <t>冲击波:伤害提升50%       精灵之击:伤害提升50%        魔法护盾: 护盾效果提升50%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -12169,8 +12169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12204,7 +12204,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12224,7 +12224,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12252,7 +12252,7 @@
         <v>10001</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="7">
         <v>10001</v>
@@ -12261,10 +12261,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12272,7 +12272,7 @@
         <v>10002</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="7">
         <v>10002</v>
@@ -12281,10 +12281,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12292,7 +12292,7 @@
         <v>10003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="7">
         <v>10003</v>
@@ -12301,10 +12301,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12312,7 +12312,7 @@
         <v>10011</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7">
         <v>10011</v>
@@ -12321,10 +12321,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12332,7 +12332,7 @@
         <v>10012</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="7">
         <v>10012</v>
@@ -12341,10 +12341,10 @@
         <v>22</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12352,7 +12352,7 @@
         <v>10013</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="7">
         <v>10013</v>
@@ -12361,10 +12361,10 @@
         <v>22</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12372,7 +12372,7 @@
         <v>10021</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="7">
         <v>10021</v>
@@ -12381,10 +12381,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12392,7 +12392,7 @@
         <v>10022</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="7">
         <v>10022</v>
@@ -12401,7 +12401,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="14"/>
     </row>
@@ -12410,7 +12410,7 @@
         <v>10023</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="7">
         <v>10023</v>
@@ -12419,10 +12419,10 @@
         <v>28</v>
       </c>
       <c r="G14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12430,7 +12430,7 @@
         <v>10031</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="7">
         <v>10031</v>
@@ -12439,10 +12439,10 @@
         <v>32</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12450,7 +12450,7 @@
         <v>10032</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="7">
         <v>10032</v>
@@ -12459,10 +12459,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12470,7 +12470,7 @@
         <v>10033</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="7">
         <v>10033</v>
@@ -12479,10 +12479,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12490,7 +12490,7 @@
         <v>10041</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="7">
         <v>10041</v>
@@ -12499,10 +12499,10 @@
         <v>38</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12510,7 +12510,7 @@
         <v>10042</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="7">
         <v>10042</v>
@@ -12519,10 +12519,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12530,7 +12530,7 @@
         <v>10043</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="7">
         <v>10043</v>
@@ -12539,10 +12539,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12550,7 +12550,7 @@
         <v>10051</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="7">
         <v>10051</v>
@@ -12559,10 +12559,10 @@
         <v>42</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12570,7 +12570,7 @@
         <v>10052</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="7">
         <v>10052</v>
@@ -12579,10 +12579,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12590,7 +12590,7 @@
         <v>10053</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="7">
         <v>10053</v>
@@ -12599,10 +12599,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12610,7 +12610,7 @@
         <v>20001</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="7">
         <v>20001</v>
@@ -12619,10 +12619,10 @@
         <v>15</v>
       </c>
       <c r="G24" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12630,7 +12630,7 @@
         <v>20002</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="7">
         <v>20002</v>
@@ -12639,10 +12639,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12650,7 +12650,7 @@
         <v>20003</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="7">
         <v>20003</v>
@@ -12659,10 +12659,10 @@
         <v>15</v>
       </c>
       <c r="G26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12670,7 +12670,7 @@
         <v>20011</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="7">
         <v>20011</v>
@@ -12679,10 +12679,10 @@
         <v>22</v>
       </c>
       <c r="G27" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12690,7 +12690,7 @@
         <v>20012</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" s="7">
         <v>20012</v>
@@ -12699,10 +12699,10 @@
         <v>22</v>
       </c>
       <c r="G28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12710,7 +12710,7 @@
         <v>20013</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="7">
         <v>20013</v>
@@ -12719,10 +12719,10 @@
         <v>22</v>
       </c>
       <c r="G29" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12730,7 +12730,7 @@
         <v>20021</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="7">
         <v>20021</v>
@@ -12739,10 +12739,10 @@
         <v>28</v>
       </c>
       <c r="G30" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12750,7 +12750,7 @@
         <v>20022</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" s="7">
         <v>20022</v>
@@ -12759,10 +12759,10 @@
         <v>28</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12770,7 +12770,7 @@
         <v>20023</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E32" s="7">
         <v>20023</v>
@@ -12779,10 +12779,10 @@
         <v>28</v>
       </c>
       <c r="G32" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12790,7 +12790,7 @@
         <v>20031</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" s="7">
         <v>20031</v>
@@ -12799,10 +12799,10 @@
         <v>32</v>
       </c>
       <c r="G33" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12810,7 +12810,7 @@
         <v>20032</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E34" s="7">
         <v>20032</v>
@@ -12819,10 +12819,10 @@
         <v>32</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12830,7 +12830,7 @@
         <v>20033</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E35" s="7">
         <v>20033</v>
@@ -12839,10 +12839,10 @@
         <v>32</v>
       </c>
       <c r="G35" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12850,7 +12850,7 @@
         <v>20041</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36" s="7">
         <v>20041</v>
@@ -12859,10 +12859,10 @@
         <v>38</v>
       </c>
       <c r="G36" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12870,7 +12870,7 @@
         <v>20042</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E37" s="7">
         <v>20042</v>
@@ -12879,10 +12879,10 @@
         <v>38</v>
       </c>
       <c r="G37" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12890,7 +12890,7 @@
         <v>20043</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" s="7">
         <v>20043</v>
@@ -12899,10 +12899,10 @@
         <v>38</v>
       </c>
       <c r="G38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12910,7 +12910,7 @@
         <v>20051</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39" s="7">
         <v>20051</v>
@@ -12919,10 +12919,10 @@
         <v>42</v>
       </c>
       <c r="G39" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12930,7 +12930,7 @@
         <v>20052</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="7">
         <v>20052</v>
@@ -12939,10 +12939,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12950,7 +12950,7 @@
         <v>20053</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E41" s="7">
         <v>20053</v>
@@ -12959,10 +12959,10 @@
         <v>42</v>
       </c>
       <c r="G41" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12970,7 +12970,7 @@
         <v>90001</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="7">
         <v>60010100</v>
@@ -12982,7 +12982,7 @@
         <v>7</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12990,7 +12990,7 @@
         <v>90002</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" s="7">
         <v>60010200</v>
@@ -13002,7 +13002,7 @@
         <v>8</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13010,7 +13010,7 @@
         <v>90003</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="7">
         <v>60010300</v>
@@ -13022,7 +13022,7 @@
         <v>11</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13030,7 +13030,7 @@
         <v>90004</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" s="7">
         <v>60010400</v>
@@ -13042,7 +13042,7 @@
         <v>9</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13050,7 +13050,7 @@
         <v>90005</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46" s="7">
         <v>60010500</v>
@@ -13062,7 +13062,7 @@
         <v>10</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13070,7 +13070,7 @@
         <v>90006</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47" s="7">
         <v>60010600</v>
@@ -13082,7 +13082,7 @@
         <v>12</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301B9233-63C3-410E-9345-66FD45C2E188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25A3D1E-D1CD-4D93-96D8-38AFC98A73CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
   <si>
     <t>天赋名称</t>
   </si>
@@ -563,6 +563,46 @@
   </si>
   <si>
     <t>附加</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;4;2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62011102,62011103,62011104,62011105,62011106;2;0.5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;61011102,61011103,61011104,61011105,61011106;69000046</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;2;0.5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;62012302,62012303,62012304,62012305,62012306;69000047</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;51011302,51011303,51011304,51011305,51011306;69000076</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62012202,62012203,62012204,62012205,62012206;4;2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61011302,61011303,61011304,61011305,61011306;4;2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012302,61012303,61012304,61012305,61012306;2;0.5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62011202,62011203,62011204,62011205,62011206;2;0.5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +610,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,8 +888,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="48">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1119,8 +1172,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1274,6 +1333,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="12"/>
+      </left>
+      <right style="hair">
+        <color indexed="12"/>
+      </right>
+      <top style="hair">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2643">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9120,7 +9194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9159,6 +9233,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12167,10 +12244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H47"/>
+  <dimension ref="C1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13085,6 +13162,175 @@
         <v>29</v>
       </c>
     </row>
+    <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="7">
+        <v>100001</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="7">
+        <v>100002</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="7">
+        <v>100003</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="7">
+        <v>100004</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="7">
+        <v>100005</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="7">
+        <v>100006</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="7">
+        <v>100007</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="7">
+        <v>100008</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>1</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="7">
+        <v>100009</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="7">
+        <v>100010</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>1</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="7"/>
+    </row>
+    <row r="59" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="7"/>
+    </row>
+    <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25A3D1E-D1CD-4D93-96D8-38AFC98A73CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68FBE39-9604-49A8-999A-E56A3E0F22B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="840" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -12246,8 +12246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68FBE39-9604-49A8-999A-E56A3E0F22B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60351AB6-9AE3-4959-A5C3-4823276DEF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="840" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="147">
   <si>
     <t>天赋名称</t>
   </si>
@@ -222,9 +222,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>职业专属被动技能效果提升至5%</t>
-  </si>
-  <si>
     <t>当生命低于30%时,自动获得一个护盾,可以抵抗相当于自身100%生命的伤害,30秒冷却时间</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -603,6 +600,18 @@
   </si>
   <si>
     <t>SkillPropertyAdd;62011202,62011203,62011204,62011205,62011206;2;0.5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命专精</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限永久提升5%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;100202;0.05</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -12246,8 +12255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12281,7 +12290,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12301,7 +12310,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12338,10 +12347,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12358,10 +12367,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12381,7 +12390,7 @@
         <v>44</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12398,10 +12407,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12418,10 +12427,10 @@
         <v>22</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12438,10 +12447,10 @@
         <v>22</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12458,10 +12467,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12469,7 +12478,7 @@
         <v>10022</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="E13" s="7">
         <v>10022</v>
@@ -12478,9 +12487,11 @@
         <v>28</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="14"/>
+        <v>145</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="14" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="7">
@@ -12496,10 +12507,10 @@
         <v>28</v>
       </c>
       <c r="G14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12507,7 +12518,7 @@
         <v>10031</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="7">
         <v>10031</v>
@@ -12516,10 +12527,10 @@
         <v>32</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12536,10 +12547,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12556,10 +12567,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12576,10 +12587,10 @@
         <v>38</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12587,7 +12598,7 @@
         <v>10042</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="7">
         <v>10042</v>
@@ -12596,10 +12607,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12616,10 +12627,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12627,7 +12638,7 @@
         <v>10051</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="7">
         <v>10051</v>
@@ -12636,10 +12647,10 @@
         <v>42</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12656,10 +12667,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12676,10 +12687,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12687,7 +12698,7 @@
         <v>20001</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="7">
         <v>20001</v>
@@ -12696,10 +12707,10 @@
         <v>15</v>
       </c>
       <c r="G24" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12707,7 +12718,7 @@
         <v>20002</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="7">
         <v>20002</v>
@@ -12716,10 +12727,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12727,7 +12738,7 @@
         <v>20003</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E26" s="7">
         <v>20003</v>
@@ -12736,10 +12747,10 @@
         <v>15</v>
       </c>
       <c r="G26" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12747,7 +12758,7 @@
         <v>20011</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="7">
         <v>20011</v>
@@ -12756,10 +12767,10 @@
         <v>22</v>
       </c>
       <c r="G27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12767,7 +12778,7 @@
         <v>20012</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="7">
         <v>20012</v>
@@ -12776,10 +12787,10 @@
         <v>22</v>
       </c>
       <c r="G28" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12787,7 +12798,7 @@
         <v>20013</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" s="7">
         <v>20013</v>
@@ -12796,10 +12807,10 @@
         <v>22</v>
       </c>
       <c r="G29" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12807,7 +12818,7 @@
         <v>20021</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30" s="7">
         <v>20021</v>
@@ -12816,10 +12827,10 @@
         <v>28</v>
       </c>
       <c r="G30" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12827,7 +12838,7 @@
         <v>20022</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="7">
         <v>20022</v>
@@ -12836,10 +12847,10 @@
         <v>28</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12847,7 +12858,7 @@
         <v>20023</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32" s="7">
         <v>20023</v>
@@ -12856,10 +12867,10 @@
         <v>28</v>
       </c>
       <c r="G32" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12867,7 +12878,7 @@
         <v>20031</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" s="7">
         <v>20031</v>
@@ -12876,10 +12887,10 @@
         <v>32</v>
       </c>
       <c r="G33" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12887,7 +12898,7 @@
         <v>20032</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" s="7">
         <v>20032</v>
@@ -12896,10 +12907,10 @@
         <v>32</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12907,7 +12918,7 @@
         <v>20033</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35" s="7">
         <v>20033</v>
@@ -12916,10 +12927,10 @@
         <v>32</v>
       </c>
       <c r="G35" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12927,7 +12938,7 @@
         <v>20041</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E36" s="7">
         <v>20041</v>
@@ -12936,10 +12947,10 @@
         <v>38</v>
       </c>
       <c r="G36" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12947,7 +12958,7 @@
         <v>20042</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" s="7">
         <v>20042</v>
@@ -12956,10 +12967,10 @@
         <v>38</v>
       </c>
       <c r="G37" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12967,7 +12978,7 @@
         <v>20043</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E38" s="7">
         <v>20043</v>
@@ -12976,10 +12987,10 @@
         <v>38</v>
       </c>
       <c r="G38" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12987,7 +12998,7 @@
         <v>20051</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39" s="7">
         <v>20051</v>
@@ -12996,10 +13007,10 @@
         <v>42</v>
       </c>
       <c r="G39" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13007,7 +13018,7 @@
         <v>20052</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E40" s="7">
         <v>20052</v>
@@ -13016,10 +13027,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13027,7 +13038,7 @@
         <v>20053</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E41" s="7">
         <v>20053</v>
@@ -13036,10 +13047,10 @@
         <v>42</v>
       </c>
       <c r="G41" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13173,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13187,7 +13198,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13201,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13215,7 +13226,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13229,7 +13240,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13243,7 +13254,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13257,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13271,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13285,7 +13296,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13299,7 +13310,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60351AB6-9AE3-4959-A5C3-4823276DEF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03746A97-8165-4026-A79D-E922ED150056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1200" yWindow="2100" windowWidth="24990" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -468,10 +468,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BuffPropertyAdd;90001021;1;1@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;5;4@BuffPropertyAdd;92032001;1;0.01</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>坚韧</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -612,6 +608,10 @@
   </si>
   <si>
     <t>RolePropertyAdd;100202;0.05</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffPropertyAdd;90001021;2;2@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;5;4@BuffPropertyAdd;92032001;1;0.01  62021101</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -12255,8 +12255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H14"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12265,7 +12265,7 @@
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="67.75" customWidth="1"/>
+    <col min="7" max="7" width="33.375" customWidth="1"/>
     <col min="8" max="8" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12290,7 +12290,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12478,7 +12478,7 @@
         <v>10022</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" s="7">
         <v>10022</v>
@@ -12487,10 +12487,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12847,10 +12847,10 @@
         <v>28</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12907,10 +12907,10 @@
         <v>32</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12918,7 +12918,7 @@
         <v>20033</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E35" s="7">
         <v>20033</v>
@@ -12927,10 +12927,10 @@
         <v>32</v>
       </c>
       <c r="G35" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12938,7 +12938,7 @@
         <v>20041</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" s="7">
         <v>20041</v>
@@ -12947,10 +12947,10 @@
         <v>38</v>
       </c>
       <c r="G36" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12967,10 +12967,10 @@
         <v>38</v>
       </c>
       <c r="G37" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12978,7 +12978,7 @@
         <v>20043</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" s="7">
         <v>20043</v>
@@ -12987,10 +12987,10 @@
         <v>38</v>
       </c>
       <c r="G38" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12998,7 +12998,7 @@
         <v>20051</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E39" s="7">
         <v>20051</v>
@@ -13007,10 +13007,10 @@
         <v>42</v>
       </c>
       <c r="G39" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13027,10 +13027,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13038,7 +13038,7 @@
         <v>20053</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E41" s="7">
         <v>20053</v>
@@ -13047,10 +13047,10 @@
         <v>42</v>
       </c>
       <c r="G41" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13184,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13198,7 +13198,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13212,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13226,7 +13226,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13240,7 +13240,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13254,7 +13254,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13268,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13282,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13296,7 +13296,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13310,7 +13310,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03746A97-8165-4026-A79D-E922ED150056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6291C46F-4457-44FF-A8FE-7FE2F8C4E4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1200" yWindow="2100" windowWidth="24990" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1305" windowWidth="24990" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="147">
   <si>
     <t>天赋名称</t>
   </si>
@@ -611,7 +611,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BuffPropertyAdd;90001021;2;2@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;5;4@BuffPropertyAdd;92032001;1;0.01  62021101</t>
+    <t>BuffPropertyAdd;90001021;2;2@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;5;4@BuffPropertyAdd;92032001;1;0.01</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -12255,7 +12255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6291C46F-4457-44FF-A8FE-7FE2F8C4E4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8E8F99-259F-457F-9FAE-2054CDEF8225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1305" windowWidth="24990" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -67,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="147">
   <si>
     <t>天赋名称</t>
   </si>
@@ -222,10 +213,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>当生命低于30%时,自动获得一个护盾,可以抵抗相当于自身100%生命的伤害,30秒冷却时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillPropertyAdd;61011102,61011103,61011104,61011105,61011106;2;0.5@SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;2;0.5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -254,10 +241,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>每30秒自动自身释放一个护盾,护盾可以抵抗50%伤害,最大承受生命的30%,持续20秒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>防御之盾</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -266,14 +249,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>生命护盾</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>在生命值低于5%时,立即回复自身30%最大生命,120秒冷却时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>胜利希望</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -287,9 +262,6 @@
     <t>SkillIdAdd;62000004</t>
   </si>
   <si>
-    <t>SkillIdAdd;62000005</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000006</t>
   </si>
   <si>
@@ -507,10 +479,6 @@
     <t>移动速度永久提升10%</t>
   </si>
   <si>
-    <t>RolePropertyAdd;100902;0.05</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击恢复</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -612,6 +580,30 @@
   </si>
   <si>
     <t>BuffPropertyAdd;90001021;2;2@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;5;4@BuffPropertyAdd;92032001;1;0.01</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;100902;0.1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000005</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害有概率给自己释放一个护盾,护盾可以抵抗30%伤害,最大承受生命的20%,持续20秒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在生命值低于10%时,立即回复自身30%最大生命,120秒冷却时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当生命低于30%时,自身受到减免50%且攻击会恢复自身一定的生命值,持续8秒</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -12255,8 +12247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12290,7 +12282,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12310,7 +12302,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12347,10 +12339,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12367,10 +12359,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12390,7 +12382,7 @@
         <v>44</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12407,10 +12399,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12427,10 +12419,10 @@
         <v>22</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12447,10 +12439,10 @@
         <v>22</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12467,10 +12459,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12478,7 +12470,7 @@
         <v>10022</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E13" s="7">
         <v>10022</v>
@@ -12487,10 +12479,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12507,10 +12499,10 @@
         <v>28</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12518,7 +12510,7 @@
         <v>10031</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" s="7">
         <v>10031</v>
@@ -12527,10 +12519,10 @@
         <v>32</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12547,10 +12539,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12567,10 +12559,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12587,10 +12579,10 @@
         <v>38</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12598,7 +12590,7 @@
         <v>10042</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="E19" s="7">
         <v>10042</v>
@@ -12607,10 +12599,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12627,10 +12619,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12638,7 +12630,7 @@
         <v>10051</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E21" s="7">
         <v>10051</v>
@@ -12647,10 +12639,10 @@
         <v>42</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12667,10 +12659,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12687,10 +12679,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12698,7 +12690,7 @@
         <v>20001</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E24" s="7">
         <v>20001</v>
@@ -12707,10 +12699,10 @@
         <v>15</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12718,7 +12710,7 @@
         <v>20002</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E25" s="7">
         <v>20002</v>
@@ -12727,10 +12719,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12738,7 +12730,7 @@
         <v>20003</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E26" s="7">
         <v>20003</v>
@@ -12747,10 +12739,10 @@
         <v>15</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12758,7 +12750,7 @@
         <v>20011</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E27" s="7">
         <v>20011</v>
@@ -12767,10 +12759,10 @@
         <v>22</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12778,7 +12770,7 @@
         <v>20012</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E28" s="7">
         <v>20012</v>
@@ -12787,10 +12779,10 @@
         <v>22</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12798,7 +12790,7 @@
         <v>20013</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E29" s="7">
         <v>20013</v>
@@ -12807,10 +12799,10 @@
         <v>22</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12818,7 +12810,7 @@
         <v>20021</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E30" s="7">
         <v>20021</v>
@@ -12827,10 +12819,10 @@
         <v>28</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12838,7 +12830,7 @@
         <v>20022</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E31" s="7">
         <v>20022</v>
@@ -12847,10 +12839,10 @@
         <v>28</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12858,7 +12850,7 @@
         <v>20023</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E32" s="7">
         <v>20023</v>
@@ -12867,10 +12859,10 @@
         <v>28</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12878,7 +12870,7 @@
         <v>20031</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E33" s="7">
         <v>20031</v>
@@ -12887,10 +12879,10 @@
         <v>32</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12898,7 +12890,7 @@
         <v>20032</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E34" s="7">
         <v>20032</v>
@@ -12907,10 +12899,10 @@
         <v>32</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12918,7 +12910,7 @@
         <v>20033</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E35" s="7">
         <v>20033</v>
@@ -12927,10 +12919,10 @@
         <v>32</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12938,7 +12930,7 @@
         <v>20041</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E36" s="7">
         <v>20041</v>
@@ -12947,10 +12939,10 @@
         <v>38</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12958,7 +12950,7 @@
         <v>20042</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E37" s="7">
         <v>20042</v>
@@ -12967,10 +12959,10 @@
         <v>38</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12978,7 +12970,7 @@
         <v>20043</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E38" s="7">
         <v>20043</v>
@@ -12987,10 +12979,10 @@
         <v>38</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12998,7 +12990,7 @@
         <v>20051</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E39" s="7">
         <v>20051</v>
@@ -13007,10 +12999,10 @@
         <v>42</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13018,7 +13010,7 @@
         <v>20052</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E40" s="7">
         <v>20052</v>
@@ -13027,10 +13019,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13038,7 +13030,7 @@
         <v>20053</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E41" s="7">
         <v>20053</v>
@@ -13047,10 +13039,10 @@
         <v>42</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13184,7 +13176,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13198,7 +13190,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13212,7 +13204,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13226,7 +13218,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13240,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13254,7 +13246,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13268,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13282,7 +13274,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13296,7 +13288,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13310,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8FCA93-AA8F-4AB9-97A9-9EF1745AF748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBC0D08-F872-49BA-A4CC-D321AFDE54A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,9 +496,6 @@
     <t>冲击波: 对受到伤害的目标单位时期原地禁锢3秒,无法移动       灼烧轰击:效果延长时间增加4秒        心灵之击:伤害提升50%</t>
   </si>
   <si>
-    <t>BuffIdAdd;62021302,62021303,62021304,62021305,62021306;93000205@SkillPropertyAdd;62022302,62022303,62022304,62022305,62022306;5;4@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;2;0.5</t>
-  </si>
-  <si>
     <t>速度增幅</t>
   </si>
   <si>
@@ -621,6 +618,10 @@
   </si>
   <si>
     <t>元素法球:对触碰到的玩家移动速度降低50%;光剑攻击:持续时间延长10秒;爆发状态:伤害额外提升1000点</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;62021302,62021303,62021304,62021305,62021306;93000205@BuffPropertyAdd;92022001,92022002,92022003,92022004,92022005;2;4@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;2;0.5</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11643,8 +11644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11952,10 +11953,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12355,7 +12356,7 @@
         <v>101</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12363,7 +12364,7 @@
         <v>20043</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E38" s="8">
         <v>20043</v>
@@ -12372,10 +12373,10 @@
         <v>38</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12383,7 +12384,7 @@
         <v>20051</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E39" s="8">
         <v>20051</v>
@@ -12392,10 +12393,10 @@
         <v>42</v>
       </c>
       <c r="G39" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12412,10 +12413,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12423,7 +12424,7 @@
         <v>20053</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E41" s="8">
         <v>20053</v>
@@ -12432,10 +12433,10 @@
         <v>42</v>
       </c>
       <c r="G41" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12443,7 +12444,7 @@
         <v>90001</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E42" s="8">
         <v>60010100</v>
@@ -12452,10 +12453,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12463,7 +12464,7 @@
         <v>90002</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E43" s="8">
         <v>60010200</v>
@@ -12472,10 +12473,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12483,7 +12484,7 @@
         <v>90003</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" s="8">
         <v>60010300</v>
@@ -12492,10 +12493,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12503,7 +12504,7 @@
         <v>90004</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="8">
         <v>60010400</v>
@@ -12512,10 +12513,10 @@
         <v>2</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12523,7 +12524,7 @@
         <v>90005</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E46" s="8">
         <v>60010500</v>
@@ -12532,10 +12533,10 @@
         <v>2</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12543,7 +12544,7 @@
         <v>90006</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E47" s="8">
         <v>60010600</v>
@@ -12552,10 +12553,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12569,7 +12570,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12583,7 +12584,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12597,7 +12598,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12611,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12625,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12639,7 +12640,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12653,7 +12654,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12667,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12681,7 +12682,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12695,7 +12696,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBC0D08-F872-49BA-A4CC-D321AFDE54A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79255BC1-9D33-476A-8ED0-4C66576DA5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,7 +621,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>BuffIdAdd;62021302,62021303,62021304,62021305,62021306;93000205@BuffPropertyAdd;92022001,92022002,92022003,92022004,92022005;2;4@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;2;0.5</t>
+    <t>BuffIdAdd;62021202,62021203,62021204,62021205,62021206;93000205@BuffPropertyAdd;92022001,92022002,92022003,92022004,92022005;2;4@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;2;0.5</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11644,7 +11644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79255BC1-9D33-476A-8ED0-4C66576DA5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A767161A-9FDE-494C-A3D2-E26BDCABAF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,9 +445,6 @@
     <t>SkillIdAdd;62000104</t>
   </si>
   <si>
-    <t>冲击波:伤害提升50%       精灵之击:伤害提升50%        魔法护盾: 护盾效果提升50%</t>
-  </si>
-  <si>
     <t>SkillPropertyAdd;62021202,62021203,62021204,62021205,62021206;2;0.5@SkillPropertyAdd;62022102,62022103,62022104,62022105,62022106;2;0.5@BuffPropertyAdd;92011001,92011002,92011003,92011004,92011005;1;0.2</t>
   </si>
   <si>
@@ -469,9 +466,6 @@
     <t>RolePropertyAdd;100402;0.05</t>
   </si>
   <si>
-    <t>瞬移闪击: 眩晕效果延长至2秒       爆焰燃烧:效果延长时间增加4秒        治愈之境:恢复效果由1.5%提升至2.5%</t>
-  </si>
-  <si>
     <t>BuffPropertyAdd;90001021;2;2@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;5;4@BuffPropertyAdd;92032001;1;0.01</t>
   </si>
   <si>
@@ -493,9 +487,6 @@
     <t>SkillIdAdd;62000107</t>
   </si>
   <si>
-    <t>冲击波: 对受到伤害的目标单位时期原地禁锢3秒,无法移动       灼烧轰击:效果延长时间增加4秒        心灵之击:伤害提升50%</t>
-  </si>
-  <si>
     <t>速度增幅</t>
   </si>
   <si>
@@ -512,9 +503,6 @@
   </si>
   <si>
     <t>SkillIdAdd;62000108</t>
-  </si>
-  <si>
-    <t>熔岩大地: 伤害提升25%       精灵轰击:眩晕效果延长至3秒        心灵治愈:治疗效果提升5%</t>
   </si>
   <si>
     <t>SkillPropertyAdd;62021402,62021403,62021404,62021405,62021406;2;0.25@BuffPropertyAdd;92024001;2;1@BuffPropertyAdd;92034001,92034002,92034003,92034004,92034005;1;0.05</t>
@@ -623,6 +611,19 @@
   <si>
     <t>BuffIdAdd;62021202,62021203,62021204,62021205,62021206;93000205@BuffPropertyAdd;92022001,92022002,92022003,92022004,92022005;2;4@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;2;0.5</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击波:伤害提升50%;精灵之击:伤害提升50%;魔法护盾: 护盾效果提升50%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬移闪击: 眩晕效果延长至2秒;爆焰燃烧:效果延长时间增加4秒; 治愈之境:恢复效果由1.5%提升至2.5%</t>
+  </si>
+  <si>
+    <t>冲击波: 对受到伤害的目标单位时期原地禁锢3秒,无法移动;灼烧轰击:效果延长时间增加4秒; 心灵之击:伤害提升50%</t>
+  </si>
+  <si>
+    <t>熔岩大地: 伤害提升25%;精灵轰击:眩晕效果延长至3秒; 心灵治愈:治疗效果提升5%</t>
   </si>
 </sst>
 </file>
@@ -11644,8 +11645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11654,7 +11655,7 @@
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="38.625" customWidth="1"/>
+    <col min="7" max="7" width="108.25" customWidth="1"/>
     <col min="8" max="8" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11953,10 +11954,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12233,10 +12234,10 @@
         <v>28</v>
       </c>
       <c r="G31" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12244,7 +12245,7 @@
         <v>20023</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="8">
         <v>20023</v>
@@ -12253,10 +12254,10 @@
         <v>28</v>
       </c>
       <c r="G32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12264,7 +12265,7 @@
         <v>20031</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="8">
         <v>20031</v>
@@ -12273,10 +12274,10 @@
         <v>32</v>
       </c>
       <c r="G33" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12293,10 +12294,10 @@
         <v>32</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12304,7 +12305,7 @@
         <v>20033</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E35" s="8">
         <v>20033</v>
@@ -12313,10 +12314,10 @@
         <v>32</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12324,7 +12325,7 @@
         <v>20041</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E36" s="8">
         <v>20041</v>
@@ -12333,10 +12334,10 @@
         <v>38</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12353,10 +12354,10 @@
         <v>38</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12364,7 +12365,7 @@
         <v>20043</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E38" s="8">
         <v>20043</v>
@@ -12373,10 +12374,10 @@
         <v>38</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12384,7 +12385,7 @@
         <v>20051</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E39" s="8">
         <v>20051</v>
@@ -12393,10 +12394,10 @@
         <v>42</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12413,10 +12414,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12424,7 +12425,7 @@
         <v>20053</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E41" s="8">
         <v>20053</v>
@@ -12433,10 +12434,10 @@
         <v>42</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12444,7 +12445,7 @@
         <v>90001</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E42" s="8">
         <v>60010100</v>
@@ -12453,10 +12454,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12464,7 +12465,7 @@
         <v>90002</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E43" s="8">
         <v>60010200</v>
@@ -12473,10 +12474,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12484,7 +12485,7 @@
         <v>90003</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E44" s="8">
         <v>60010300</v>
@@ -12493,10 +12494,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12504,7 +12505,7 @@
         <v>90004</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E45" s="8">
         <v>60010400</v>
@@ -12513,10 +12514,10 @@
         <v>2</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12524,7 +12525,7 @@
         <v>90005</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E46" s="8">
         <v>60010500</v>
@@ -12533,10 +12534,10 @@
         <v>2</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12544,7 +12545,7 @@
         <v>90006</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E47" s="8">
         <v>60010600</v>
@@ -12553,10 +12554,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12570,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12584,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12598,7 +12599,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12612,7 +12613,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12626,7 +12627,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12640,7 +12641,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12654,7 +12655,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12668,7 +12669,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12682,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12696,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A767161A-9FDE-494C-A3D2-E26BDCABAF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5CCDA7-F835-47C7-9E44-D33605DA93FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -352,9 +352,6 @@
     <t>元素护盾:技能开启时额外恢复己方20%生命值;光之能量:伤害范围增加,伤害提升20%;狂魔之球:伤害提升至25%</t>
   </si>
   <si>
-    <t>BuffIdAdd;61021102,61021103,61021104,61021105,61021106;92000016@SkillPropertyAdd;61022302,61022303,61022304,61022305,61022306;1;3@SkillPropertyAdd;61022302,61022303,61022304,61022305,61022306;2;0.2@SkillPropertyAdd;61023302,61023303,61023304,61023305,61023306;2;0.25</t>
-  </si>
-  <si>
     <t>胜利希望</t>
   </si>
   <si>
@@ -624,6 +621,10 @@
   </si>
   <si>
     <t>熔岩大地: 伤害提升25%;精灵轰击:眩晕效果延长至3秒; 心灵治愈:治疗效果提升5%</t>
+  </si>
+  <si>
+    <t>BuffIdAdd;61021102,61021103,61021104,61021105,61021106;92000016@SkillPropertyAdd;61022302,61022303,61022304,61022305,61022306;1;3@BuffIdAdd;61022302,61022303,61022304,61022305,61022306;90002011</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11645,8 +11646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11954,10 +11955,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12017,7 +12018,7 @@
         <v>53</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12025,7 +12026,7 @@
         <v>10051</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="8">
         <v>10051</v>
@@ -12034,10 +12035,10 @@
         <v>42</v>
       </c>
       <c r="G21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12045,7 +12046,7 @@
         <v>10052</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="8">
         <v>10052</v>
@@ -12054,10 +12055,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12065,7 +12066,7 @@
         <v>10053</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="8">
         <v>10053</v>
@@ -12074,10 +12075,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12085,7 +12086,7 @@
         <v>20001</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="8">
         <v>20001</v>
@@ -12094,10 +12095,10 @@
         <v>15</v>
       </c>
       <c r="G24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12105,7 +12106,7 @@
         <v>20002</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="8">
         <v>20002</v>
@@ -12114,10 +12115,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12125,7 +12126,7 @@
         <v>20003</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="8">
         <v>20003</v>
@@ -12134,10 +12135,10 @@
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12145,7 +12146,7 @@
         <v>20011</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="8">
         <v>20011</v>
@@ -12154,10 +12155,10 @@
         <v>22</v>
       </c>
       <c r="G27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12165,7 +12166,7 @@
         <v>20012</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="8">
         <v>20012</v>
@@ -12174,10 +12175,10 @@
         <v>22</v>
       </c>
       <c r="G28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12185,7 +12186,7 @@
         <v>20013</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" s="8">
         <v>20013</v>
@@ -12194,10 +12195,10 @@
         <v>22</v>
       </c>
       <c r="G29" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12205,7 +12206,7 @@
         <v>20021</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="8">
         <v>20021</v>
@@ -12214,10 +12215,10 @@
         <v>28</v>
       </c>
       <c r="G30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12234,10 +12235,10 @@
         <v>28</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12245,7 +12246,7 @@
         <v>20023</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" s="8">
         <v>20023</v>
@@ -12254,10 +12255,10 @@
         <v>28</v>
       </c>
       <c r="G32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12265,7 +12266,7 @@
         <v>20031</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="8">
         <v>20031</v>
@@ -12274,10 +12275,10 @@
         <v>32</v>
       </c>
       <c r="G33" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12294,10 +12295,10 @@
         <v>32</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12305,7 +12306,7 @@
         <v>20033</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E35" s="8">
         <v>20033</v>
@@ -12314,10 +12315,10 @@
         <v>32</v>
       </c>
       <c r="G35" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12325,7 +12326,7 @@
         <v>20041</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E36" s="8">
         <v>20041</v>
@@ -12334,10 +12335,10 @@
         <v>38</v>
       </c>
       <c r="G36" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12354,10 +12355,10 @@
         <v>38</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12365,7 +12366,7 @@
         <v>20043</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" s="8">
         <v>20043</v>
@@ -12374,10 +12375,10 @@
         <v>38</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12385,7 +12386,7 @@
         <v>20051</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E39" s="8">
         <v>20051</v>
@@ -12394,10 +12395,10 @@
         <v>42</v>
       </c>
       <c r="G39" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12414,10 +12415,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12425,7 +12426,7 @@
         <v>20053</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E41" s="8">
         <v>20053</v>
@@ -12434,10 +12435,10 @@
         <v>42</v>
       </c>
       <c r="G41" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12445,7 +12446,7 @@
         <v>90001</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" s="8">
         <v>60010100</v>
@@ -12454,10 +12455,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12465,7 +12466,7 @@
         <v>90002</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" s="8">
         <v>60010200</v>
@@ -12474,10 +12475,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12485,7 +12486,7 @@
         <v>90003</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E44" s="8">
         <v>60010300</v>
@@ -12494,10 +12495,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12505,7 +12506,7 @@
         <v>90004</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E45" s="8">
         <v>60010400</v>
@@ -12514,10 +12515,10 @@
         <v>2</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12525,7 +12526,7 @@
         <v>90005</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E46" s="8">
         <v>60010500</v>
@@ -12534,10 +12535,10 @@
         <v>2</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12545,7 +12546,7 @@
         <v>90006</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E47" s="8">
         <v>60010600</v>
@@ -12554,10 +12555,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12571,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12585,7 +12586,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12599,7 +12600,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12613,7 +12614,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12627,7 +12628,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12641,7 +12642,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12655,7 +12656,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12669,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12683,7 +12684,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12697,7 +12698,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5CCDA7-F835-47C7-9E44-D33605DA93FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4BEF09-D5F3-4A80-9C5C-56790B233B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -256,12 +256,6 @@
     <t>技能刷新</t>
   </si>
   <si>
-    <t>每次攻击有5%的概率自动触发裂地击技能,且不影响主技能的冷却时间</t>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000003</t>
-  </si>
-  <si>
     <t>进退自由</t>
   </si>
   <si>
@@ -340,9 +334,6 @@
     <t>绝地反击</t>
   </si>
   <si>
-    <t>当生命低于30%时,自身受到减免50%且攻击会恢复自身一定的生命值,持续8秒</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000008</t>
   </si>
   <si>
@@ -355,9 +346,6 @@
     <t>胜利希望</t>
   </si>
   <si>
-    <t>在生命值低于10%时,立即回复自身30%最大生命,120秒冷却时间</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000009</t>
   </si>
   <si>
@@ -373,9 +361,6 @@
     <t>职业升阶</t>
   </si>
   <si>
-    <t>元素火雨:技能伤害提升50%伤害;光之斩:技能伤害增加50%;能量之地:效果提升至20%</t>
-  </si>
-  <si>
     <t>SkillPropertyAdd;61021402,61021403,61021404,61021405,61021406;2;0.5@SkillPropertyAdd;61022402,61022403,61022404,61022405,61022406;2;0.5@SkillPropertyAdd;61023402,61023403,61023404,61023405,61023406;2;0.2</t>
   </si>
   <si>
@@ -418,9 +403,6 @@
     <t>冰冻击</t>
   </si>
   <si>
-    <t>新增技能:冰冻击 蓄力1秒,立即对前方矩形范围的目标造成200%伤害,并使目标禁锢3秒</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000103</t>
   </si>
   <si>
@@ -436,24 +418,12 @@
     <t>英勇守护</t>
   </si>
   <si>
-    <t>受到伤害有5%概率触发守护之击</t>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000104</t>
-  </si>
-  <si>
     <t>SkillPropertyAdd;62021202,62021203,62021204,62021205,62021206;2;0.5@SkillPropertyAdd;62022102,62022103,62022104,62022105,62022106;2;0.5@BuffPropertyAdd;92011001,92011002,92011003,92011004,92011005;1;0.2</t>
   </si>
   <si>
     <t>意念之勇</t>
   </si>
   <si>
-    <t>攻击有5%概率使自身获得10%伤害加成,持续10秒</t>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000105</t>
-  </si>
-  <si>
     <t>攻击提升</t>
   </si>
   <si>
@@ -478,9 +448,6 @@
     <t>守护之击</t>
   </si>
   <si>
-    <t>新增技能:防御之击 立即对周围敌方目标造成200%伤害,并实用附近单位造成沉默和减速效果,持续3秒</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000107</t>
   </si>
   <si>
@@ -596,14 +563,6 @@
   </si>
   <si>
     <t>SkillPropertyAdd;62011202,62011203,62011204,62011205,62011206;2;0.5</t>
-  </si>
-  <si>
-    <t>BuffIdAdd;61021202,61021203,61021204,61021205,61021206;92000001@BuffPropertyAdd;90001041,90001042,90001043,90001044,90001045,90001046,90001047,90001048,90001049;2;10@BuffPropertyAdd;90001051,90001052,90001053,90001054,90001055;1;1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素法球:对触碰到的玩家移动速度降低50%;光剑攻击:持续时间延长10秒;爆发状态:伤害额外提升1000点</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BuffIdAdd;62021202,62021203,62021204,62021205,62021206;93000205@BuffPropertyAdd;92022001,92022002,92022003,92022004,92022005;2;4@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;2;0.5</t>
@@ -624,6 +583,58 @@
   </si>
   <si>
     <t>BuffIdAdd;61021102,61021103,61021104,61021105,61021106;92000016@SkillPropertyAdd;61022302,61022303,61022304,61022305,61022306;1;3@BuffIdAdd;61022302,61022303,61022304,61022305,61022306;90002011</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能:冰冻击 蓄力1秒,立即对前方矩形范围的目标造成325%伤害,并使目标禁锢3秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000105</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击有5%概率使自身获得30%伤害加成,持续10秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害有8%概率触发守护之击</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000104</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能:防御之击 立即对周围敌方目标造成250%伤害,并实用附近单位造成沉默和减速效果,持续3秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击有10%的概率自动触发裂地击技能,且不影响主技能的冷却时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素法球:技能伤害提升50%;光剑攻击:持续时间延长10秒;爆发状态:伤害额外提升1000点</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61021202,61021203,61021204,61021205,61021206;2;0.5@BuffPropertyAdd;90001041,90001042,90001043,90001044,90001045,90001046,90001047,90001048,90001049;2;10@BuffPropertyAdd;90001051,90001052,90001053,90001054,90001055;1;1000</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>当生命低于30%时,自身受到减免50%且攻击会恢复自身一定的生命值,持续8秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>在生命值低于10%时,立即回复自身30%最大生命,并使自身受到伤害降低50%,持续6秒，90秒冷却时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素烈焰:技能伤害提升50%伤害;光之斩:技能伤害增加50%;能量之地:效果提升至20%</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11646,8 +11657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11795,10 +11806,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11806,7 +11817,7 @@
         <v>10012</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="8">
         <v>10012</v>
@@ -11815,10 +11826,10 @@
         <v>22</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11826,7 +11837,7 @@
         <v>10013</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="8">
         <v>10013</v>
@@ -11835,10 +11846,10 @@
         <v>22</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11846,7 +11857,7 @@
         <v>10021</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="8">
         <v>10021</v>
@@ -11855,10 +11866,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11866,7 +11877,7 @@
         <v>10022</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="8">
         <v>10022</v>
@@ -11875,10 +11886,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11886,7 +11897,7 @@
         <v>10023</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="8">
         <v>10023</v>
@@ -11895,10 +11906,10 @@
         <v>28</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11906,7 +11917,7 @@
         <v>10031</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="8">
         <v>10031</v>
@@ -11915,10 +11926,10 @@
         <v>32</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11926,7 +11937,7 @@
         <v>10032</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="8">
         <v>10032</v>
@@ -11935,10 +11946,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11946,7 +11957,7 @@
         <v>10033</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="8">
         <v>10033</v>
@@ -11955,10 +11966,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11966,7 +11977,7 @@
         <v>10041</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="8">
         <v>10041</v>
@@ -11975,10 +11986,10 @@
         <v>38</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11986,7 +11997,7 @@
         <v>10042</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" s="8">
         <v>10042</v>
@@ -11995,10 +12006,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12006,7 +12017,7 @@
         <v>10043</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E20" s="8">
         <v>10043</v>
@@ -12015,10 +12026,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12026,7 +12037,7 @@
         <v>10051</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E21" s="8">
         <v>10051</v>
@@ -12035,10 +12046,10 @@
         <v>42</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12046,7 +12057,7 @@
         <v>10052</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E22" s="8">
         <v>10052</v>
@@ -12055,10 +12066,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12066,7 +12077,7 @@
         <v>10053</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E23" s="8">
         <v>10053</v>
@@ -12075,10 +12086,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12086,7 +12097,7 @@
         <v>20001</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E24" s="8">
         <v>20001</v>
@@ -12095,10 +12106,10 @@
         <v>15</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12106,7 +12117,7 @@
         <v>20002</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E25" s="8">
         <v>20002</v>
@@ -12115,10 +12126,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12126,7 +12137,7 @@
         <v>20003</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E26" s="8">
         <v>20003</v>
@@ -12135,10 +12146,10 @@
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12146,7 +12157,7 @@
         <v>20011</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E27" s="8">
         <v>20011</v>
@@ -12155,10 +12166,10 @@
         <v>22</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12166,7 +12177,7 @@
         <v>20012</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E28" s="8">
         <v>20012</v>
@@ -12175,10 +12186,10 @@
         <v>22</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12186,7 +12197,7 @@
         <v>20013</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E29" s="8">
         <v>20013</v>
@@ -12195,10 +12206,10 @@
         <v>22</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12206,7 +12217,7 @@
         <v>20021</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E30" s="8">
         <v>20021</v>
@@ -12215,10 +12226,10 @@
         <v>28</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12226,7 +12237,7 @@
         <v>20022</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E31" s="8">
         <v>20022</v>
@@ -12235,10 +12246,10 @@
         <v>28</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12246,7 +12257,7 @@
         <v>20023</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E32" s="8">
         <v>20023</v>
@@ -12255,10 +12266,10 @@
         <v>28</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12266,7 +12277,7 @@
         <v>20031</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E33" s="8">
         <v>20031</v>
@@ -12275,10 +12286,10 @@
         <v>32</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12286,7 +12297,7 @@
         <v>20032</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E34" s="8">
         <v>20032</v>
@@ -12295,10 +12306,10 @@
         <v>32</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12306,7 +12317,7 @@
         <v>20033</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E35" s="8">
         <v>20033</v>
@@ -12315,10 +12326,10 @@
         <v>32</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12326,7 +12337,7 @@
         <v>20041</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E36" s="8">
         <v>20041</v>
@@ -12335,10 +12346,10 @@
         <v>38</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12346,7 +12357,7 @@
         <v>20042</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E37" s="8">
         <v>20042</v>
@@ -12355,10 +12366,10 @@
         <v>38</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12366,7 +12377,7 @@
         <v>20043</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E38" s="8">
         <v>20043</v>
@@ -12375,10 +12386,10 @@
         <v>38</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12386,7 +12397,7 @@
         <v>20051</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E39" s="8">
         <v>20051</v>
@@ -12395,10 +12406,10 @@
         <v>42</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12406,7 +12417,7 @@
         <v>20052</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E40" s="8">
         <v>20052</v>
@@ -12415,10 +12426,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12426,7 +12437,7 @@
         <v>20053</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E41" s="8">
         <v>20053</v>
@@ -12435,10 +12446,10 @@
         <v>42</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12446,7 +12457,7 @@
         <v>90001</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E42" s="8">
         <v>60010100</v>
@@ -12455,10 +12466,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12466,7 +12477,7 @@
         <v>90002</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E43" s="8">
         <v>60010200</v>
@@ -12475,10 +12486,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12486,7 +12497,7 @@
         <v>90003</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E44" s="8">
         <v>60010300</v>
@@ -12495,10 +12506,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12506,7 +12517,7 @@
         <v>90004</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E45" s="8">
         <v>60010400</v>
@@ -12515,10 +12526,10 @@
         <v>2</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12526,7 +12537,7 @@
         <v>90005</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E46" s="8">
         <v>60010500</v>
@@ -12535,10 +12546,10 @@
         <v>2</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12546,7 +12557,7 @@
         <v>90006</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E47" s="8">
         <v>60010600</v>
@@ -12555,10 +12566,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12572,7 +12583,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12586,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12600,7 +12611,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12614,7 +12625,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12628,7 +12639,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12642,7 +12653,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12656,7 +12667,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12670,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12684,7 +12695,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12698,7 +12709,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4BEF09-D5F3-4A80-9C5C-56790B233B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F09734-F5E4-4042-9E5B-357B03DB9AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,9 +340,6 @@
     <t>职业专精</t>
   </si>
   <si>
-    <t>元素护盾:技能开启时额外恢复己方20%生命值;光之能量:伤害范围增加,伤害提升20%;狂魔之球:伤害提升至25%</t>
-  </si>
-  <si>
     <t>胜利希望</t>
   </si>
   <si>
@@ -582,10 +579,6 @@
     <t>熔岩大地: 伤害提升25%;精灵轰击:眩晕效果延长至3秒; 心灵治愈:治疗效果提升5%</t>
   </si>
   <si>
-    <t>BuffIdAdd;61021102,61021103,61021104,61021105,61021106;92000016@SkillPropertyAdd;61022302,61022303,61022304,61022305,61022306;1;3@BuffIdAdd;61022302,61022303,61022304,61022305,61022306;90002011</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>新增技能:冰冻击 蓄力1秒,立即对前方矩形范围的目标造成325%伤害,并使目标禁锢3秒</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -635,6 +628,14 @@
   </si>
   <si>
     <t>元素烈焰:技能伤害提升50%伤害;光之斩:技能伤害增加50%;能量之地:效果提升至20%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素护盾:技能开启时额外恢复己方20%生命值;光之能量:伤害范围增加,伤害提升20%;能量之球:伤害提升至25%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;61021102,61021103,61021104,61021105,61021106;92000016@SkillPropertyAdd;61022302,61022303,61022304,61022305,61022306;1;3@SkillPropertyAdd;61022302,61022303,61022304,61022305,61022306;2;0.2@@SkillPropertyAdd;61023302,61023303,61023304,61023305,61023306;2;0.25</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11657,8 +11658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11806,10 +11807,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11966,10 +11967,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12006,7 +12007,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>48</v>
@@ -12026,10 +12027,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12037,7 +12038,7 @@
         <v>10051</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="8">
         <v>10051</v>
@@ -12046,10 +12047,10 @@
         <v>42</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12057,7 +12058,7 @@
         <v>10052</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="8">
         <v>10052</v>
@@ -12066,10 +12067,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12077,7 +12078,7 @@
         <v>10053</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="8">
         <v>10053</v>
@@ -12086,10 +12087,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12097,7 +12098,7 @@
         <v>20001</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="8">
         <v>20001</v>
@@ -12106,10 +12107,10 @@
         <v>15</v>
       </c>
       <c r="G24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12117,7 +12118,7 @@
         <v>20002</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="8">
         <v>20002</v>
@@ -12126,10 +12127,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12137,7 +12138,7 @@
         <v>20003</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="8">
         <v>20003</v>
@@ -12146,10 +12147,10 @@
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12157,7 +12158,7 @@
         <v>20011</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="8">
         <v>20011</v>
@@ -12166,10 +12167,10 @@
         <v>22</v>
       </c>
       <c r="G27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12177,7 +12178,7 @@
         <v>20012</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="8">
         <v>20012</v>
@@ -12186,10 +12187,10 @@
         <v>22</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12197,7 +12198,7 @@
         <v>20013</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="8">
         <v>20013</v>
@@ -12206,10 +12207,10 @@
         <v>22</v>
       </c>
       <c r="G29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12217,7 +12218,7 @@
         <v>20021</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="8">
         <v>20021</v>
@@ -12226,10 +12227,10 @@
         <v>28</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12246,10 +12247,10 @@
         <v>28</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12257,7 +12258,7 @@
         <v>20023</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="8">
         <v>20023</v>
@@ -12266,10 +12267,10 @@
         <v>28</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12277,7 +12278,7 @@
         <v>20031</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="8">
         <v>20031</v>
@@ -12286,10 +12287,10 @@
         <v>32</v>
       </c>
       <c r="G33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12306,10 +12307,10 @@
         <v>32</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12317,7 +12318,7 @@
         <v>20033</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="8">
         <v>20033</v>
@@ -12326,10 +12327,10 @@
         <v>32</v>
       </c>
       <c r="G35" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12337,7 +12338,7 @@
         <v>20041</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" s="8">
         <v>20041</v>
@@ -12346,10 +12347,10 @@
         <v>38</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12366,10 +12367,10 @@
         <v>38</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12377,7 +12378,7 @@
         <v>20043</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="8">
         <v>20043</v>
@@ -12386,10 +12387,10 @@
         <v>38</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12397,7 +12398,7 @@
         <v>20051</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" s="8">
         <v>20051</v>
@@ -12406,10 +12407,10 @@
         <v>42</v>
       </c>
       <c r="G39" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12426,10 +12427,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12437,7 +12438,7 @@
         <v>20053</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E41" s="8">
         <v>20053</v>
@@ -12446,10 +12447,10 @@
         <v>42</v>
       </c>
       <c r="G41" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12457,7 +12458,7 @@
         <v>90001</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" s="8">
         <v>60010100</v>
@@ -12466,10 +12467,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12477,7 +12478,7 @@
         <v>90002</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43" s="8">
         <v>60010200</v>
@@ -12486,10 +12487,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12497,7 +12498,7 @@
         <v>90003</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" s="8">
         <v>60010300</v>
@@ -12506,10 +12507,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12517,7 +12518,7 @@
         <v>90004</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E45" s="8">
         <v>60010400</v>
@@ -12526,10 +12527,10 @@
         <v>2</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12537,7 +12538,7 @@
         <v>90005</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E46" s="8">
         <v>60010500</v>
@@ -12546,10 +12547,10 @@
         <v>2</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12557,7 +12558,7 @@
         <v>90006</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" s="8">
         <v>60010600</v>
@@ -12566,10 +12567,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12583,7 +12584,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12597,7 +12598,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12611,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12625,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12639,7 +12640,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12653,7 +12654,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12667,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12681,7 +12682,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12695,7 +12696,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12709,7 +12710,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F09734-F5E4-4042-9E5B-357B03DB9AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFE3FCC-5F0F-47A4-9CB2-5160D3462402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11658,8 +11658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFE3FCC-5F0F-47A4-9CB2-5160D3462402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870D3610-D4FC-407D-B39E-2DD4B18BC780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -11659,7 +11659,7 @@
   <dimension ref="C1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862700A1-E38B-4EA9-9BF0-04B88C71E585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A6F21B-8247-4C32-B7CE-81EB1E531A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,18 +283,12 @@
     <t>暴击概率永久提升5%</t>
   </si>
   <si>
-    <t>RolePropertyAdd;200101;0.05</t>
-  </si>
-  <si>
     <t>生命专精</t>
   </si>
   <si>
     <t>生命上限永久提升5%</t>
   </si>
   <si>
-    <t>RolePropertyAdd;100202;0.05</t>
-  </si>
-  <si>
     <t>技能专精</t>
   </si>
   <si>
@@ -469,9 +463,6 @@
     <t>攻击永久提升5%</t>
   </si>
   <si>
-    <t>RolePropertyAdd;100402;0.05</t>
-  </si>
-  <si>
     <t>元素护盾:护盾效果提升50%;爆焰燃烧:效果延长时间增加4秒; 治愈之境:恢复效果由1.5%提升至2.5%</t>
   </si>
   <si>
@@ -620,6 +611,18 @@
   </si>
   <si>
     <t>SkillIdAdd;62000004</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;100212;0.05</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;200111;0.05</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;100412;0.05</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11642,8 +11645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11834,7 +11837,7 @@
         <v>28</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11854,7 +11857,7 @@
         <v>30</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11862,7 +11865,7 @@
         <v>10022</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="8">
         <v>10022</v>
@@ -11871,10 +11874,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11882,7 +11885,7 @@
         <v>10023</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8">
         <v>10023</v>
@@ -11891,10 +11894,10 @@
         <v>28</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11902,7 +11905,7 @@
         <v>10031</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="8">
         <v>10031</v>
@@ -11911,10 +11914,10 @@
         <v>32</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11922,7 +11925,7 @@
         <v>10032</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="8">
         <v>10032</v>
@@ -11931,10 +11934,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11942,7 +11945,7 @@
         <v>10033</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" s="8">
         <v>10033</v>
@@ -11951,10 +11954,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11962,7 +11965,7 @@
         <v>10041</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="8">
         <v>10041</v>
@@ -11971,10 +11974,10 @@
         <v>38</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11982,7 +11985,7 @@
         <v>10042</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" s="8">
         <v>10042</v>
@@ -11991,10 +11994,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12002,7 +12005,7 @@
         <v>10043</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="8">
         <v>10043</v>
@@ -12011,10 +12014,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12022,7 +12025,7 @@
         <v>10051</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="8">
         <v>10051</v>
@@ -12031,10 +12034,10 @@
         <v>42</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12042,7 +12045,7 @@
         <v>10052</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="8">
         <v>10052</v>
@@ -12051,10 +12054,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12062,7 +12065,7 @@
         <v>10053</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="8">
         <v>10053</v>
@@ -12071,10 +12074,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12082,7 +12085,7 @@
         <v>20001</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" s="8">
         <v>20001</v>
@@ -12091,10 +12094,10 @@
         <v>15</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12102,7 +12105,7 @@
         <v>20002</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" s="8">
         <v>20002</v>
@@ -12111,10 +12114,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12122,7 +12125,7 @@
         <v>20003</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" s="8">
         <v>20003</v>
@@ -12131,10 +12134,10 @@
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12142,7 +12145,7 @@
         <v>20011</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E27" s="8">
         <v>20011</v>
@@ -12151,10 +12154,10 @@
         <v>22</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12162,7 +12165,7 @@
         <v>20012</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" s="8">
         <v>20012</v>
@@ -12171,10 +12174,10 @@
         <v>22</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12182,7 +12185,7 @@
         <v>20013</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E29" s="8">
         <v>20013</v>
@@ -12191,10 +12194,10 @@
         <v>22</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12202,7 +12205,7 @@
         <v>20021</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E30" s="8">
         <v>20021</v>
@@ -12211,10 +12214,10 @@
         <v>28</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12222,7 +12225,7 @@
         <v>20022</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E31" s="8">
         <v>20022</v>
@@ -12231,10 +12234,10 @@
         <v>28</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12242,7 +12245,7 @@
         <v>20023</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E32" s="8">
         <v>20023</v>
@@ -12251,10 +12254,10 @@
         <v>28</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12262,7 +12265,7 @@
         <v>20031</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" s="8">
         <v>20031</v>
@@ -12271,10 +12274,10 @@
         <v>32</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12282,7 +12285,7 @@
         <v>20032</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E34" s="8">
         <v>20032</v>
@@ -12291,10 +12294,10 @@
         <v>32</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12302,7 +12305,7 @@
         <v>20033</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E35" s="8">
         <v>20033</v>
@@ -12311,10 +12314,10 @@
         <v>32</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12322,7 +12325,7 @@
         <v>20041</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E36" s="8">
         <v>20041</v>
@@ -12331,10 +12334,10 @@
         <v>38</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12342,7 +12345,7 @@
         <v>20042</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E37" s="8">
         <v>20042</v>
@@ -12351,10 +12354,10 @@
         <v>38</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12362,7 +12365,7 @@
         <v>20043</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E38" s="8">
         <v>20043</v>
@@ -12371,10 +12374,10 @@
         <v>38</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12382,7 +12385,7 @@
         <v>20051</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E39" s="8">
         <v>20051</v>
@@ -12391,10 +12394,10 @@
         <v>42</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12402,7 +12405,7 @@
         <v>20052</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E40" s="8">
         <v>20052</v>
@@ -12411,10 +12414,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12422,7 +12425,7 @@
         <v>20053</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E41" s="8">
         <v>20053</v>
@@ -12431,10 +12434,10 @@
         <v>42</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12442,7 +12445,7 @@
         <v>90001</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E42" s="8">
         <v>60010100</v>
@@ -12451,10 +12454,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12462,7 +12465,7 @@
         <v>90002</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E43" s="8">
         <v>60010200</v>
@@ -12471,10 +12474,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12482,7 +12485,7 @@
         <v>90003</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E44" s="8">
         <v>60010300</v>
@@ -12491,10 +12494,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12502,7 +12505,7 @@
         <v>90004</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E45" s="8">
         <v>60010400</v>
@@ -12511,10 +12514,10 @@
         <v>2</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12522,7 +12525,7 @@
         <v>90005</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E46" s="8">
         <v>60010500</v>
@@ -12531,10 +12534,10 @@
         <v>2</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12542,7 +12545,7 @@
         <v>90006</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E47" s="8">
         <v>60010600</v>
@@ -12551,10 +12554,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12568,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12582,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12596,7 +12599,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12610,7 +12613,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12624,7 +12627,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12638,7 +12641,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12652,7 +12655,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12666,7 +12669,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12680,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12694,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A6F21B-8247-4C32-B7CE-81EB1E531A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84382F3F-5973-49C1-ACE6-F06B47DDC463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -511,12 +511,6 @@
     <t>SkillIdAdd;62000108</t>
   </si>
   <si>
-    <t>熔岩大地: 伤害提升25%;精灵轰击:眩晕效果延长至3秒; 心灵治愈:治疗效果提升5%</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62021402,62021403,62021404,62021405,62021406;2;0.25@BuffPropertyAdd;92024001;2;1@BuffPropertyAdd;92034001,92034002,92034003,92034004,92034005;1;0.05</t>
-  </si>
-  <si>
     <t>移动光球</t>
   </si>
   <si>
@@ -530,9 +524,6 @@
   </si>
   <si>
     <t>攻击+10;攻击+20;攻击+30</t>
-  </si>
-  <si>
-    <t>RolePropertyAdd;100203;5000</t>
   </si>
   <si>
     <t>光环技能范围</t>
@@ -623,6 +614,18 @@
   </si>
   <si>
     <t>RolePropertyAdd;100412;0.05</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;100203;5000</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62021402,62021403,62021404,62021405,62021406;2;0.25@SkillSingingCancel;62022402,62022403,62022404,62022405@BuffPropertyAdd;92034001,92034002,92034003,92034004,92034005;1;0.05</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩大地: 伤害提升25%;精灵轰击:由吟唱施放改为瞬间施放; 心灵治愈:治疗效果提升5%</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11645,8 +11648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11837,7 +11840,7 @@
         <v>28</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11857,7 +11860,7 @@
         <v>30</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11877,7 +11880,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12277,7 +12280,7 @@
         <v>90</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12414,10 +12417,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12425,7 +12428,7 @@
         <v>20053</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E41" s="8">
         <v>20053</v>
@@ -12434,10 +12437,10 @@
         <v>42</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12445,7 +12448,7 @@
         <v>90001</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E42" s="8">
         <v>60010100</v>
@@ -12454,10 +12457,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12465,7 +12468,7 @@
         <v>90002</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E43" s="8">
         <v>60010200</v>
@@ -12474,10 +12477,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12485,7 +12488,7 @@
         <v>90003</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E44" s="8">
         <v>60010300</v>
@@ -12494,10 +12497,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12505,7 +12508,7 @@
         <v>90004</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E45" s="8">
         <v>60010400</v>
@@ -12514,10 +12517,10 @@
         <v>2</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12525,7 +12528,7 @@
         <v>90005</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E46" s="8">
         <v>60010500</v>
@@ -12534,10 +12537,10 @@
         <v>2</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12545,7 +12548,7 @@
         <v>90006</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E47" s="8">
         <v>60010600</v>
@@ -12554,10 +12557,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12571,7 +12574,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12585,7 +12588,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12599,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12613,7 +12616,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12627,7 +12630,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12641,7 +12644,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12655,7 +12658,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12669,7 +12672,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12683,7 +12686,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12697,7 +12700,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84382F3F-5973-49C1-ACE6-F06B47DDC463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5FE4D7-9D68-4E9E-A47F-7C9C81F4C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="161">
   <si>
     <t>Id</t>
   </si>
@@ -358,9 +358,6 @@
     <t>在生命值低于10%时,立即回复自身30%最大生命,并使自身受到伤害降低50%,持续6秒，90秒冷却时间</t>
   </si>
   <si>
-    <t>SkillIdAdd;62000009</t>
-  </si>
-  <si>
     <t>爆裂轰炸</t>
   </si>
   <si>
@@ -503,12 +500,6 @@
   </si>
   <si>
     <t>暴击恢复</t>
-  </si>
-  <si>
-    <t>每次攻击暴击后,立即回复己方最大生命的2%</t>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000108</t>
   </si>
   <si>
     <t>移动光球</t>
@@ -621,11 +612,91 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>SkillPropertyAdd;62021402,62021403,62021404,62021405,62021406;2;0.25@SkillSingingCancel;62022402,62022403,62022404,62022405@BuffPropertyAdd;92034001,92034002,92034003,92034004,92034005;1;0.05</t>
+    <t>每次攻击暴击后,立即回复己方最大生命的4%</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>熔岩大地: 伤害提升25%;精灵轰击:由吟唱施放改为瞬间施放; 心灵治愈:治疗效果提升5%</t>
+    <t>SkillIdAdd;62000108</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业专精</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间掌握</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次闪避目标攻击将对目标造成100%攻击伤害</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>以眼还眼</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能冷却时间降低10%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;203611;0.1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000009</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000011</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>大魔导师之影冷却时间降低20秒,精灵轰击取消吟唱改为立即施法,心灵治愈冷却时间缩减5秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能有15%概率连续释放2次</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击有20%概率对目标造成2秒眩晕,此效果10秒触发一次</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术连击</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000012</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝佳反击</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;204711;0.15</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素引力波技能冷却时间降低4秒;光之击冷却时间降低5秒;能量之地技能伤害提升25%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61021402,61021403,61021404,61021405,61021406;4;4@SkillPropertyAdd;61022402,61022403,61022404,61022405,61022406;4;5@SkillPropertyAdd;61023402,61023403,61023404,61023405,61023406;2;0.2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62021402,62021403,62021404,62021405,62021406;4;20@SkillSingingCancel;62022402,62022403,62022404,62022405@SkillPropertyAdd;62023402,62023403,62023404,62023405,62023406;4;5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩大地: 伤害提升25%;爆裂燃烧冷却时间降低3秒; 心灵治愈:治疗效果提升5%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62021402,62021403,62021404,62021405,62021406;2;0.25@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;4;3@BuffPropertyAdd;92034001,92034002,92034003,92034004,92034005;1;0.05</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -737,7 +808,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,6 +947,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -8680,7 +8757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8713,6 +8790,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2603">
@@ -11646,10 +11738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H78"/>
+  <dimension ref="C1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11840,7 +11932,7 @@
         <v>28</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11860,7 +11952,7 @@
         <v>30</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11880,7 +11972,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12040,7 +12132,7 @@
         <v>55</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12048,7 +12140,7 @@
         <v>10052</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="8">
         <v>10052</v>
@@ -12057,10 +12149,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12068,7 +12160,7 @@
         <v>10053</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="8">
         <v>10053</v>
@@ -12077,579 +12169,615 @@
         <v>42</v>
       </c>
       <c r="G23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="24" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="8">
-        <v>20001</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="8">
-        <v>20001</v>
-      </c>
-      <c r="F24" s="8">
-        <v>15</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>65</v>
+    <row r="24" spans="3:8" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="13">
+        <v>10061</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="13">
+        <v>10051</v>
+      </c>
+      <c r="F24" s="13">
+        <v>52</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="25" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="8">
-        <v>20002</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="8">
-        <v>20002</v>
-      </c>
-      <c r="F25" s="8">
-        <v>15</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>68</v>
+    <row r="25" spans="3:8" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="13">
+        <v>10062</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="13">
+        <v>10052</v>
+      </c>
+      <c r="F25" s="13">
+        <v>52</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="26" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="8">
-        <v>20003</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="8">
-        <v>20003</v>
-      </c>
-      <c r="F26" s="8">
-        <v>15</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>70</v>
+    <row r="26" spans="3:8" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="13">
+        <v>10063</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="13">
+        <v>10053</v>
+      </c>
+      <c r="F26" s="13">
+        <v>52</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="8">
-        <v>20011</v>
+        <v>20001</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E27" s="8">
-        <v>20011</v>
+        <v>20001</v>
       </c>
       <c r="F27" s="8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="8">
-        <v>20012</v>
+        <v>20002</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E28" s="8">
-        <v>20012</v>
+        <v>20002</v>
       </c>
       <c r="F28" s="8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>77</v>
+        <v>66</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="8">
-        <v>20013</v>
+        <v>20003</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E29" s="8">
-        <v>20013</v>
+        <v>20003</v>
       </c>
       <c r="F29" s="8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="8">
-        <v>20021</v>
+        <v>20011</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E30" s="8">
-        <v>20021</v>
+        <v>20011</v>
       </c>
       <c r="F30" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="8">
-        <v>20022</v>
+        <v>20012</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="E31" s="8">
-        <v>20022</v>
+        <v>20012</v>
       </c>
       <c r="F31" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="8">
-        <v>20023</v>
+        <v>20013</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E32" s="8">
-        <v>20023</v>
+        <v>20013</v>
       </c>
       <c r="F32" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="8">
-        <v>20031</v>
+        <v>20021</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E33" s="8">
-        <v>20031</v>
+        <v>20021</v>
       </c>
       <c r="F33" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="8">
-        <v>20032</v>
+        <v>20022</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="8">
-        <v>20032</v>
+        <v>20022</v>
       </c>
       <c r="F34" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="8">
-        <v>20033</v>
+        <v>20023</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E35" s="8">
-        <v>20033</v>
+        <v>20023</v>
       </c>
       <c r="F35" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="8">
-        <v>20041</v>
+        <v>20031</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E36" s="8">
-        <v>20041</v>
+        <v>20031</v>
       </c>
       <c r="F36" s="8">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="8">
-        <v>20042</v>
+        <v>20032</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="8">
-        <v>20042</v>
+        <v>20032</v>
       </c>
       <c r="F37" s="8">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="8">
-        <v>20043</v>
+        <v>20033</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E38" s="8">
-        <v>20043</v>
+        <v>20033</v>
       </c>
       <c r="F38" s="8">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="8">
-        <v>20051</v>
+        <v>20041</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E39" s="8">
-        <v>20051</v>
+        <v>20041</v>
       </c>
       <c r="F39" s="8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="8">
-        <v>20052</v>
+        <v>20042</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E40" s="8">
-        <v>20052</v>
+        <v>20042</v>
       </c>
       <c r="F40" s="8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>142</v>
+        <v>98</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="8">
-        <v>20053</v>
+        <v>20043</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E41" s="8">
-        <v>20053</v>
+        <v>20043</v>
       </c>
       <c r="F41" s="8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="8">
-        <v>90001</v>
+        <v>20051</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E42" s="8">
-        <v>60010100</v>
+        <v>20051</v>
       </c>
       <c r="F42" s="8">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>141</v>
+        <v>42</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="8">
-        <v>90002</v>
+        <v>20052</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="E43" s="8">
-        <v>60010200</v>
+        <v>20052</v>
       </c>
       <c r="F43" s="8">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>114</v>
+        <v>42</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="8">
-        <v>90003</v>
+        <v>20053</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E44" s="8">
-        <v>60010300</v>
+        <v>20053</v>
       </c>
       <c r="F44" s="8">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>117</v>
+        <v>42</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="45" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:8" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="8">
-        <v>90004</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>118</v>
+        <v>20054</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="E45" s="8">
-        <v>60010400</v>
-      </c>
-      <c r="F45" s="8">
-        <v>2</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>120</v>
+        <v>20054</v>
+      </c>
+      <c r="F45" s="13">
+        <v>52</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="46" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:8" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="8">
-        <v>90005</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>121</v>
+        <v>20055</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="E46" s="8">
-        <v>60010500</v>
-      </c>
-      <c r="F46" s="8">
-        <v>2</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>122</v>
+        <v>20055</v>
+      </c>
+      <c r="F46" s="13">
+        <v>52</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="47" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:8" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="8">
-        <v>90006</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>124</v>
+        <v>20056</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="E47" s="8">
-        <v>60010600</v>
-      </c>
-      <c r="F47" s="8">
-        <v>2</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>126</v>
+        <v>20056</v>
+      </c>
+      <c r="F47" s="13">
+        <v>52</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="8">
-        <v>100001</v>
+        <v>90001</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="E48" s="8">
-        <v>0</v>
+        <v>60010100</v>
       </c>
       <c r="F48" s="8">
         <v>1</v>
       </c>
-      <c r="H48" s="12" t="s">
-        <v>127</v>
+      <c r="G48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="8">
-        <v>100002</v>
+        <v>90002</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="E49" s="8">
-        <v>0</v>
+        <v>60010200</v>
       </c>
       <c r="F49" s="8">
         <v>1</v>
       </c>
-      <c r="H49" s="12" t="s">
-        <v>128</v>
+      <c r="G49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="8">
-        <v>100003</v>
+        <v>90003</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E50" s="8">
-        <v>0</v>
+        <v>60010300</v>
       </c>
       <c r="F50" s="8">
         <v>1</v>
       </c>
-      <c r="H50" s="12" t="s">
-        <v>129</v>
+      <c r="G50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="8">
-        <v>100004</v>
+        <v>90004</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="E51" s="8">
-        <v>0</v>
+        <v>60010400</v>
       </c>
       <c r="F51" s="8">
-        <v>1</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>130</v>
+        <v>2</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="8">
-        <v>100005</v>
+        <v>90005</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="E52" s="8">
-        <v>0</v>
+        <v>60010500</v>
       </c>
       <c r="F52" s="8">
-        <v>1</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>131</v>
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="8">
-        <v>100006</v>
+        <v>90006</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="E53" s="8">
-        <v>0</v>
+        <v>60010600</v>
       </c>
       <c r="F53" s="8">
-        <v>1</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="8">
-        <v>100007</v>
+        <v>100001</v>
       </c>
       <c r="E54" s="8">
         <v>0</v>
@@ -12658,12 +12786,12 @@
         <v>1</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="8">
-        <v>100008</v>
+        <v>100002</v>
       </c>
       <c r="E55" s="8">
         <v>0</v>
@@ -12672,12 +12800,12 @@
         <v>1</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="8">
-        <v>100009</v>
+        <v>100003</v>
       </c>
       <c r="E56" s="8">
         <v>0</v>
@@ -12686,12 +12814,12 @@
         <v>1</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="8">
-        <v>100010</v>
+        <v>100004</v>
       </c>
       <c r="E57" s="8">
         <v>0</v>
@@ -12700,38 +12828,122 @@
         <v>1</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="8"/>
+      <c r="C58" s="8">
+        <v>100005</v>
+      </c>
+      <c r="E58" s="8">
+        <v>0</v>
+      </c>
+      <c r="F58" s="8">
+        <v>1</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="59" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="8"/>
+      <c r="C59" s="8">
+        <v>100006</v>
+      </c>
+      <c r="E59" s="8">
+        <v>0</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="8"/>
+      <c r="C60" s="8">
+        <v>100007</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8">
+        <v>1</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="8"/>
+      <c r="C61" s="8">
+        <v>100008</v>
+      </c>
+      <c r="E61" s="8">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8">
+        <v>1</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="8">
+        <v>100009</v>
+      </c>
+      <c r="E62" s="8">
+        <v>0</v>
+      </c>
+      <c r="F62" s="8">
+        <v>1</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="8">
+        <v>100010</v>
+      </c>
+      <c r="E63" s="8">
+        <v>0</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="8"/>
+    </row>
+    <row r="67" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5FE4D7-9D68-4E9E-A47F-7C9C81F4C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E0DF00-CC30-401F-B01B-33DC3EFCD0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11740,8 +11740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12183,7 +12183,7 @@
         <v>144</v>
       </c>
       <c r="E24" s="13">
-        <v>10051</v>
+        <v>10061</v>
       </c>
       <c r="F24" s="13">
         <v>52</v>
@@ -12203,7 +12203,7 @@
         <v>141</v>
       </c>
       <c r="E25" s="13">
-        <v>10052</v>
+        <v>10062</v>
       </c>
       <c r="F25" s="13">
         <v>52</v>
@@ -12223,7 +12223,7 @@
         <v>142</v>
       </c>
       <c r="E26" s="13">
-        <v>10053</v>
+        <v>10063</v>
       </c>
       <c r="F26" s="13">
         <v>52</v>
@@ -12597,13 +12597,13 @@
     </row>
     <row r="45" spans="3:8" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="8">
-        <v>20054</v>
+        <v>20061</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>141</v>
       </c>
       <c r="E45" s="8">
-        <v>20054</v>
+        <v>20061</v>
       </c>
       <c r="F45" s="13">
         <v>52</v>
@@ -12617,13 +12617,13 @@
     </row>
     <row r="46" spans="3:8" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="8">
-        <v>20055</v>
+        <v>20062</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>152</v>
       </c>
       <c r="E46" s="8">
-        <v>20055</v>
+        <v>20062</v>
       </c>
       <c r="F46" s="13">
         <v>52</v>
@@ -12637,13 +12637,13 @@
     </row>
     <row r="47" spans="3:8" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="8">
-        <v>20056</v>
+        <v>20063</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>154</v>
       </c>
       <c r="E47" s="8">
-        <v>20056</v>
+        <v>20063</v>
       </c>
       <c r="F47" s="13">
         <v>52</v>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E0DF00-CC30-401F-B01B-33DC3EFCD0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8D5917-BB4C-47C7-81DF-1B25C672CB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,10 +652,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>大魔导师之影冷却时间降低20秒,精灵轰击取消吟唱改为立即施法,心灵治愈冷却时间缩减5秒</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>释放技能有15%概率连续释放2次</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -697,6 +693,10 @@
   </si>
   <si>
     <t>SkillPropertyAdd;62021402,62021403,62021404,62021405,62021406;2;0.25@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;4;3@BuffPropertyAdd;92034001,92034002,92034003,92034004,92034005;1;0.05</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>大魔导师之影冷却时间降低20秒;精灵轰击取消吟唱改为立即施法;心灵治愈冷却时间缩减5秒</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11740,8 +11740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12209,10 +12209,10 @@
         <v>52</v>
       </c>
       <c r="G25" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12569,10 +12569,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12609,10 +12609,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12620,7 +12620,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E46" s="8">
         <v>20062</v>
@@ -12629,10 +12629,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12640,7 +12640,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E47" s="8">
         <v>20063</v>
@@ -12649,10 +12649,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5A6328-7BA1-4CED-8C8B-E592E0046DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FD0BDE-AC68-479B-A04F-5C3156F38BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,6 @@
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -545,9 +532,6 @@
     <t>SkillIdAdd;62000108</t>
   </si>
   <si>
-    <t>熔岩大地: 伤害提升25%;爆裂燃烧冷却时间降低3秒;心灵治愈:治疗效果提升5%</t>
-  </si>
-  <si>
     <t>SkillPropertyAdd;62021402,62021403,62021404,62021405,62021406;2;0.25@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;4;3@BuffPropertyAdd;92034001,92034002,92034003,92034004,92034005;1;0.05</t>
   </si>
   <si>
@@ -558,9 +542,6 @@
   </si>
   <si>
     <t>SkillIdAdd;62000109</t>
-  </si>
-  <si>
-    <t>大魔导师之影冷却时间降低20秒;精灵轰击取消吟唱改为立即施法;心灵治愈冷却时间缩减5秒</t>
   </si>
   <si>
     <t>SkillPropertyAdd;62021402,62021403,62021404,62021405,62021406;4;20@SkillSingingCancel;62022402,62022403,62022404,62022405@SkillPropertyAdd;62023402,62023403,62023404,62023405,62023406;4;5</t>
@@ -687,6 +668,14 @@
   </si>
   <si>
     <t>攻击有8%概率使自身获得30%伤害加成,持续10秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>大魔导师之影冷却时间降低20秒;精灵轰击取消吟唱改为立即施法;心灵治愈冷却时间缩减5秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩大地: 伤害提升25%;爆裂燃烧冷却时间降低3秒;心灵治愈:技能治疗效果额外附加5%</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11734,7 +11723,7 @@
   <dimension ref="C1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11945,7 +11934,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11965,7 +11954,7 @@
         <v>33</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12225,7 +12214,7 @@
         <v>70</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12402,7 +12391,7 @@
         <v>28</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>95</v>
@@ -12425,7 +12414,7 @@
         <v>97</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12562,10 +12551,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12573,7 +12562,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -12582,10 +12571,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12602,10 +12591,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12613,7 +12602,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -12622,10 +12611,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12633,7 +12622,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -12642,10 +12631,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12653,7 +12642,7 @@
         <v>90001</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E48" s="9">
         <v>60010100</v>
@@ -12662,10 +12651,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12673,7 +12662,7 @@
         <v>90002</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E49" s="9">
         <v>60010200</v>
@@ -12682,10 +12671,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12693,7 +12682,7 @@
         <v>90003</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E50" s="9">
         <v>60010300</v>
@@ -12702,10 +12691,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12713,7 +12702,7 @@
         <v>90004</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E51" s="9">
         <v>60010400</v>
@@ -12722,10 +12711,10 @@
         <v>2</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12733,7 +12722,7 @@
         <v>90005</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E52" s="9">
         <v>60010500</v>
@@ -12742,10 +12731,10 @@
         <v>2</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12753,7 +12742,7 @@
         <v>90006</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E53" s="9">
         <v>60010600</v>
@@ -12762,10 +12751,10 @@
         <v>2</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12779,7 +12768,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12793,7 +12782,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12807,7 +12796,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12821,7 +12810,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12835,7 +12824,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12849,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12863,7 +12852,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12877,7 +12866,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12891,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12905,7 +12894,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FD0BDE-AC68-479B-A04F-5C3156F38BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A04838B-3B48-48AD-9B88-A9E57973B4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="169">
   <si>
     <t>Id</t>
   </si>
@@ -677,13 +677,41 @@
   <si>
     <t>熔岩大地: 伤害提升25%;爆裂燃烧冷却时间降低3秒;心灵治愈:技能治疗效果额外附加5%</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;4;2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>传承:碧蓝之歌</t>
+  </si>
+  <si>
+    <t>传承:黎明的护卫者</t>
+  </si>
+  <si>
+    <t>传承:寒冰使者的佩剑</t>
+  </si>
+  <si>
+    <t>传承:末日的决战</t>
+  </si>
+  <si>
+    <t>传承:堕落的使者</t>
+  </si>
+  <si>
+    <t>传承:远古王者之刃</t>
+  </si>
+  <si>
+    <t>传承:圣焰之剑</t>
+  </si>
+  <si>
+    <t>传承:时光能量魔法</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -786,8 +814,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -932,8 +967,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14981536301767021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1010,6 +1057,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2603">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8736,7 +8796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8787,6 +8847,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" xfId="2546" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" xfId="2546" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2603">
@@ -11720,10 +11786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H84"/>
+  <dimension ref="C1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12657,7 +12723,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="9">
         <v>90002</v>
       </c>
@@ -12677,7 +12743,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="9">
         <v>90003</v>
       </c>
@@ -12697,7 +12763,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="9">
         <v>90004</v>
       </c>
@@ -12717,7 +12783,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="9">
         <v>90005</v>
       </c>
@@ -12737,7 +12803,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="9">
         <v>90006</v>
       </c>
@@ -12757,7 +12823,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="9">
         <v>100001</v>
       </c>
@@ -12771,7 +12837,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="9">
         <v>100002</v>
       </c>
@@ -12785,7 +12851,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="9">
         <v>100003</v>
       </c>
@@ -12799,7 +12865,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="9">
         <v>100004</v>
       </c>
@@ -12813,7 +12879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="9">
         <v>100005</v>
       </c>
@@ -12827,7 +12893,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="9">
         <v>100006</v>
       </c>
@@ -12841,7 +12907,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="9">
         <v>100007</v>
       </c>
@@ -12855,7 +12921,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="9">
         <v>100008</v>
       </c>
@@ -12869,7 +12935,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="9">
         <v>100009</v>
       </c>
@@ -12883,7 +12949,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="9">
         <v>100010</v>
       </c>
@@ -12897,35 +12963,246 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="9"/>
+    <row r="64" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="9">
+        <v>200001</v>
+      </c>
+      <c r="E64" s="9">
+        <v>0</v>
+      </c>
+      <c r="F64" s="9">
+        <v>1</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L64" s="19">
+        <v>15210011</v>
+      </c>
+      <c r="M64" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O64" s="9">
+        <v>200001</v>
+      </c>
     </row>
-    <row r="65" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="9"/>
+    <row r="65" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="9">
+        <v>200002</v>
+      </c>
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="9">
+        <v>1</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="L65" s="19">
+        <v>15210111</v>
+      </c>
+      <c r="M65" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O65" s="9">
+        <v>200002</v>
+      </c>
     </row>
-    <row r="66" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="9"/>
+    <row r="66" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="9">
+        <v>200003</v>
+      </c>
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+      <c r="F66" s="9">
+        <v>1</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L66" s="19">
+        <v>15310012</v>
+      </c>
+      <c r="M66" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O66" s="9">
+        <v>200003</v>
+      </c>
     </row>
-    <row r="67" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="9"/>
+    <row r="67" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="9">
+        <v>200004</v>
+      </c>
+      <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="9">
+        <v>1</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L67" s="19">
+        <v>15310011</v>
+      </c>
+      <c r="M67" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O67" s="9">
+        <v>200004</v>
+      </c>
     </row>
-    <row r="68" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="9">
+        <v>200005</v>
+      </c>
+      <c r="E68" s="9">
+        <v>0</v>
+      </c>
+      <c r="F68" s="9">
+        <v>1</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L68" s="19">
+        <v>15310112</v>
+      </c>
+      <c r="M68" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O68" s="9">
+        <v>200005</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="9">
+        <v>200006</v>
+      </c>
+      <c r="E69" s="9">
+        <v>0</v>
+      </c>
+      <c r="F69" s="9">
+        <v>1</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L69" s="19">
+        <v>15410012</v>
+      </c>
+      <c r="M69" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O69" s="9">
+        <v>200006</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="9">
+        <v>200007</v>
+      </c>
+      <c r="E70" s="9">
+        <v>0</v>
+      </c>
+      <c r="F70" s="9">
+        <v>1</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L70" s="19">
+        <v>15410111</v>
+      </c>
+      <c r="M70" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="O70" s="9">
+        <v>200007</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="9">
+        <v>200008</v>
+      </c>
+      <c r="E71" s="9">
+        <v>0</v>
+      </c>
+      <c r="F71" s="9">
+        <v>1</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L71" s="19">
+        <v>15510012</v>
+      </c>
+      <c r="M71" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O71" s="9">
+        <v>200008</v>
+      </c>
+    </row>
+    <row r="72" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="9">
+        <v>200009</v>
+      </c>
+      <c r="E72" s="9">
+        <v>0</v>
+      </c>
+      <c r="F72" s="9">
+        <v>1</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L72" s="19">
+        <v>15510011</v>
+      </c>
+      <c r="M72" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O72" s="9">
+        <v>200009</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="9">
+        <v>200010</v>
+      </c>
+      <c r="E73" s="9">
+        <v>0</v>
+      </c>
+      <c r="F73" s="9">
+        <v>1</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L73" s="19">
+        <v>15510122</v>
+      </c>
+      <c r="M73" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O73" s="9">
+        <v>200010</v>
+      </c>
+    </row>
+    <row r="74" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A04838B-3B48-48AD-9B88-A9E57973B4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBF4634-856A-4C4D-8BF3-10408C78C60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -683,35 +683,19 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>传承:碧蓝之歌</t>
-  </si>
-  <si>
-    <t>传承:黎明的护卫者</t>
-  </si>
-  <si>
-    <t>传承:寒冰使者的佩剑</t>
-  </si>
-  <si>
-    <t>传承:末日的决战</t>
-  </si>
-  <si>
-    <t>传承:堕落的使者</t>
-  </si>
-  <si>
-    <t>传承:远古王者之刃</t>
-  </si>
-  <si>
-    <t>传承:圣焰之剑</t>
-  </si>
-  <si>
-    <t>传承:时光能量魔法</t>
+    <t>SkillPropertyAdd;62011302,62011303,62011304,62011305,62011306;4;2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62012102,62012103,62012104,62012105,62012106;2;0.25</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,15 +798,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="27">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -967,20 +944,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14981536301767021"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1057,19 +1022,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2603">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8796,7 +8748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8847,12 +8799,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" xfId="2546" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" xfId="2546" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2603">
@@ -11788,8 +11734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12976,15 +12922,7 @@
       <c r="H64" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="L64" s="19">
-        <v>15210011</v>
-      </c>
-      <c r="M64" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="O64" s="9">
-        <v>200001</v>
-      </c>
+      <c r="O64" s="9"/>
     </row>
     <row r="65" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="9">
@@ -12999,15 +12937,7 @@
       <c r="H65" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L65" s="19">
-        <v>15210111</v>
-      </c>
-      <c r="M65" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="O65" s="9">
-        <v>200002</v>
-      </c>
+      <c r="O65" s="9"/>
     </row>
     <row r="66" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="9">
@@ -13022,15 +12952,7 @@
       <c r="H66" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="L66" s="19">
-        <v>15310012</v>
-      </c>
-      <c r="M66" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="O66" s="9">
-        <v>200003</v>
-      </c>
+      <c r="O66" s="9"/>
     </row>
     <row r="67" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="9">
@@ -13045,15 +12967,7 @@
       <c r="H67" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="L67" s="19">
-        <v>15310011</v>
-      </c>
-      <c r="M67" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="O67" s="9">
-        <v>200004</v>
-      </c>
+      <c r="O67" s="9"/>
     </row>
     <row r="68" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="9">
@@ -13068,15 +12982,7 @@
       <c r="H68" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="L68" s="19">
-        <v>15310112</v>
-      </c>
-      <c r="M68" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="O68" s="9">
-        <v>200005</v>
-      </c>
+      <c r="O68" s="9"/>
     </row>
     <row r="69" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="9">
@@ -13091,15 +12997,7 @@
       <c r="H69" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="L69" s="19">
-        <v>15410012</v>
-      </c>
-      <c r="M69" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="O69" s="9">
-        <v>200006</v>
-      </c>
+      <c r="O69" s="9"/>
     </row>
     <row r="70" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="9">
@@ -13114,15 +13012,7 @@
       <c r="H70" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="L70" s="19">
-        <v>15410111</v>
-      </c>
-      <c r="M70" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="O70" s="9">
-        <v>200007</v>
-      </c>
+      <c r="O70" s="9"/>
     </row>
     <row r="71" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="9">
@@ -13137,15 +13027,7 @@
       <c r="H71" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="L71" s="19">
-        <v>15510012</v>
-      </c>
-      <c r="M71" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="O71" s="9">
-        <v>200008</v>
-      </c>
+      <c r="O71" s="9"/>
     </row>
     <row r="72" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="9">
@@ -13160,15 +13042,7 @@
       <c r="H72" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="L72" s="19">
-        <v>15510011</v>
-      </c>
-      <c r="M72" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O72" s="9">
-        <v>200009</v>
-      </c>
+      <c r="O72" s="9"/>
     </row>
     <row r="73" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="9">
@@ -13183,18 +13057,38 @@
       <c r="H73" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="L73" s="19">
-        <v>15510122</v>
-      </c>
-      <c r="M73" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="O73" s="9">
-        <v>200010</v>
-      </c>
+      <c r="O73" s="9"/>
     </row>
-    <row r="74" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="9">
+        <v>200011</v>
+      </c>
+      <c r="E74" s="9">
+        <v>0</v>
+      </c>
+      <c r="F74" s="9">
+        <v>1</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O74" s="9"/>
+    </row>
+    <row r="75" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="9">
+        <v>200012</v>
+      </c>
+      <c r="E75" s="9">
+        <v>0</v>
+      </c>
+      <c r="F75" s="9">
+        <v>1</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O75" s="9"/>
+    </row>
     <row r="76" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="77" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="78" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBF4634-856A-4C4D-8BF3-10408C78C60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24066CE9-6F62-47FA-9C92-6194B71CBEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -286,12 +286,6 @@
     <t>暴击概率永久提升5%</t>
   </si>
   <si>
-    <t>生命专精</t>
-  </si>
-  <si>
-    <t>生命上限永久提升5%</t>
-  </si>
-  <si>
     <t>技能专精</t>
   </si>
   <si>
@@ -421,9 +415,6 @@
     <t>SkillIdAdd;62000101</t>
   </si>
   <si>
-    <t>减速之术</t>
-  </si>
-  <si>
     <t>普通攻击附带20%减速效果,持续3秒</t>
   </si>
   <si>
@@ -512,9 +503,6 @@
   </si>
   <si>
     <t>BuffIdAdd;62021202,62021203,62021204,62021205,62021206;93000205@BuffPropertyAdd;92022001,92022002,92022003,92022004,92022005;2;4@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;2;0.5</t>
-  </si>
-  <si>
-    <t>速度增幅</t>
   </si>
   <si>
     <t>移动速度永久提升10%</t>
@@ -651,10 +639,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>RolePropertyAdd;100202;0.05</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>RolePropertyAdd;203603;0.1</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -688,6 +672,26 @@
   </si>
   <si>
     <t>SkillPropertyAdd;62012102,62012103,62012104,62012105,62012106;2;0.25</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避上限永久提升5%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;200303;0.05</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避专精</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速之术</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动增幅</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11734,8 +11738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11946,7 +11950,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11954,7 +11958,7 @@
         <v>10022</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E13" s="9">
         <v>10022</v>
@@ -11963,10 +11967,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11974,7 +11978,7 @@
         <v>10023</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="9">
         <v>10023</v>
@@ -11983,10 +11987,10 @@
         <v>28</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11994,7 +11998,7 @@
         <v>10031</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="9">
         <v>10031</v>
@@ -12003,10 +12007,10 @@
         <v>32</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12014,7 +12018,7 @@
         <v>10032</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="9">
         <v>10032</v>
@@ -12023,10 +12027,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12034,7 +12038,7 @@
         <v>10033</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" s="9">
         <v>10033</v>
@@ -12043,10 +12047,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12054,7 +12058,7 @@
         <v>10041</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="9">
         <v>10041</v>
@@ -12063,10 +12067,10 @@
         <v>38</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12074,7 +12078,7 @@
         <v>10042</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" s="9">
         <v>10042</v>
@@ -12083,10 +12087,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12094,7 +12098,7 @@
         <v>10043</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" s="9">
         <v>10043</v>
@@ -12103,10 +12107,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12114,7 +12118,7 @@
         <v>10051</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E21" s="9">
         <v>10051</v>
@@ -12123,10 +12127,10 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12134,7 +12138,7 @@
         <v>10052</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E22" s="9">
         <v>10052</v>
@@ -12143,10 +12147,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12154,7 +12158,7 @@
         <v>10053</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E23" s="9">
         <v>10053</v>
@@ -12163,10 +12167,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12174,7 +12178,7 @@
         <v>10061</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E24" s="13">
         <v>10061</v>
@@ -12183,10 +12187,10 @@
         <v>52</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12194,7 +12198,7 @@
         <v>10062</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" s="13">
         <v>10062</v>
@@ -12203,10 +12207,10 @@
         <v>52</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12214,7 +12218,7 @@
         <v>10063</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" s="13">
         <v>10063</v>
@@ -12223,10 +12227,10 @@
         <v>52</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12234,7 +12238,7 @@
         <v>20001</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E27" s="9">
         <v>20001</v>
@@ -12243,10 +12247,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12254,7 +12258,7 @@
         <v>20002</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E28" s="9">
         <v>20002</v>
@@ -12263,10 +12267,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12274,7 +12278,7 @@
         <v>20003</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="E29" s="9">
         <v>20003</v>
@@ -12283,10 +12287,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12294,7 +12298,7 @@
         <v>20011</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E30" s="9">
         <v>20011</v>
@@ -12303,10 +12307,10 @@
         <v>22</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12314,7 +12318,7 @@
         <v>20012</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E31" s="9">
         <v>20012</v>
@@ -12323,10 +12327,10 @@
         <v>22</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12334,7 +12338,7 @@
         <v>20013</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E32" s="9">
         <v>20013</v>
@@ -12343,10 +12347,10 @@
         <v>22</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12354,7 +12358,7 @@
         <v>20021</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E33" s="9">
         <v>20021</v>
@@ -12363,10 +12367,10 @@
         <v>28</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12374,7 +12378,7 @@
         <v>20022</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E34" s="9">
         <v>20022</v>
@@ -12383,10 +12387,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12394,7 +12398,7 @@
         <v>20023</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E35" s="9">
         <v>20023</v>
@@ -12403,10 +12407,10 @@
         <v>28</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12414,7 +12418,7 @@
         <v>20031</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E36" s="9">
         <v>20031</v>
@@ -12423,10 +12427,10 @@
         <v>32</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12434,7 +12438,7 @@
         <v>20032</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E37" s="9">
         <v>20032</v>
@@ -12443,10 +12447,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12454,7 +12458,7 @@
         <v>20033</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E38" s="9">
         <v>20033</v>
@@ -12463,10 +12467,10 @@
         <v>32</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12474,7 +12478,7 @@
         <v>20041</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E39" s="9">
         <v>20041</v>
@@ -12483,10 +12487,10 @@
         <v>38</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12494,7 +12498,7 @@
         <v>20042</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E40" s="9">
         <v>20042</v>
@@ -12503,10 +12507,10 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12514,7 +12518,7 @@
         <v>20043</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="E41" s="9">
         <v>20043</v>
@@ -12523,10 +12527,10 @@
         <v>38</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12534,7 +12538,7 @@
         <v>20051</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E42" s="9">
         <v>20051</v>
@@ -12543,10 +12547,10 @@
         <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12554,7 +12558,7 @@
         <v>20052</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E43" s="9">
         <v>20052</v>
@@ -12563,10 +12567,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12574,7 +12578,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -12583,10 +12587,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12594,7 +12598,7 @@
         <v>20061</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E45" s="9">
         <v>20061</v>
@@ -12603,10 +12607,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12614,7 +12618,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -12623,10 +12627,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12634,7 +12638,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -12643,10 +12647,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12654,7 +12658,7 @@
         <v>90001</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E48" s="9">
         <v>60010100</v>
@@ -12663,10 +12667,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12674,7 +12678,7 @@
         <v>90002</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E49" s="9">
         <v>60010200</v>
@@ -12683,10 +12687,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12694,7 +12698,7 @@
         <v>90003</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E50" s="9">
         <v>60010300</v>
@@ -12703,10 +12707,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12714,7 +12718,7 @@
         <v>90004</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E51" s="9">
         <v>60010400</v>
@@ -12723,10 +12727,10 @@
         <v>2</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12734,7 +12738,7 @@
         <v>90005</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E52" s="9">
         <v>60010500</v>
@@ -12743,10 +12747,10 @@
         <v>2</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12754,7 +12758,7 @@
         <v>90006</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E53" s="9">
         <v>60010600</v>
@@ -12763,10 +12767,10 @@
         <v>2</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12780,7 +12784,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12794,7 +12798,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12808,7 +12812,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12822,7 +12826,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12836,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12850,7 +12854,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12864,7 +12868,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12878,7 +12882,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12892,7 +12896,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12906,7 +12910,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12920,7 +12924,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O64" s="9"/>
     </row>
@@ -12935,7 +12939,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O65" s="9"/>
     </row>
@@ -12950,7 +12954,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O66" s="9"/>
     </row>
@@ -12965,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O67" s="9"/>
     </row>
@@ -12980,7 +12984,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O68" s="9"/>
     </row>
@@ -12995,7 +12999,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O69" s="9"/>
     </row>
@@ -13010,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O70" s="9"/>
     </row>
@@ -13025,7 +13029,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O71" s="9"/>
     </row>
@@ -13040,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O72" s="9"/>
     </row>
@@ -13055,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O73" s="9"/>
     </row>
@@ -13070,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O74" s="9"/>
     </row>
@@ -13085,7 +13089,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O75" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24066CE9-6F62-47FA-9C92-6194B71CBEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCD6D0F-6446-439E-8CAC-656F55E72FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -370,9 +370,6 @@
     <t>职业升阶</t>
   </si>
   <si>
-    <t>元素烈焰:技能伤害提升50%伤害;光之斩:技能伤害增加50%;能量之地:效果提升至20%</t>
-  </si>
-  <si>
     <t>SkillPropertyAdd;61021402,61021403,61021404,61021405,61021406;2;0.5@SkillPropertyAdd;61022402,61022403,61022404,61022405,61022406;2;0.5@SkillPropertyAdd;61023402,61023403,61023404,61023405,61023406;2;0.2</t>
   </si>
   <si>
@@ -692,6 +689,10 @@
   </si>
   <si>
     <t>移动增幅</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素烈焰:技能伤害提升50%伤害;光之击:技能伤害增加50%;能量之地:效果提升至20%</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11738,8 +11739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11950,7 +11951,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11958,7 +11959,7 @@
         <v>10022</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" s="9">
         <v>10022</v>
@@ -11967,10 +11968,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12167,10 +12168,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12178,7 +12179,7 @@
         <v>10061</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="13">
         <v>10061</v>
@@ -12187,10 +12188,10 @@
         <v>52</v>
       </c>
       <c r="G24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12207,10 +12208,10 @@
         <v>52</v>
       </c>
       <c r="G25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12218,7 +12219,7 @@
         <v>10063</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="13">
         <v>10063</v>
@@ -12227,10 +12228,10 @@
         <v>52</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12238,7 +12239,7 @@
         <v>20001</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="9">
         <v>20001</v>
@@ -12247,10 +12248,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12258,7 +12259,7 @@
         <v>20002</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="9">
         <v>20002</v>
@@ -12267,10 +12268,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12278,7 +12279,7 @@
         <v>20003</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E29" s="9">
         <v>20003</v>
@@ -12287,10 +12288,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12298,7 +12299,7 @@
         <v>20011</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="9">
         <v>20011</v>
@@ -12307,10 +12308,10 @@
         <v>22</v>
       </c>
       <c r="G30" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12318,7 +12319,7 @@
         <v>20012</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="9">
         <v>20012</v>
@@ -12327,10 +12328,10 @@
         <v>22</v>
       </c>
       <c r="G31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12338,7 +12339,7 @@
         <v>20013</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="9">
         <v>20013</v>
@@ -12347,10 +12348,10 @@
         <v>22</v>
       </c>
       <c r="G32" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12358,7 +12359,7 @@
         <v>20021</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33" s="9">
         <v>20021</v>
@@ -12367,10 +12368,10 @@
         <v>28</v>
       </c>
       <c r="G33" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12387,10 +12388,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12398,7 +12399,7 @@
         <v>20023</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35" s="9">
         <v>20023</v>
@@ -12407,10 +12408,10 @@
         <v>28</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12418,7 +12419,7 @@
         <v>20031</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="9">
         <v>20031</v>
@@ -12427,10 +12428,10 @@
         <v>32</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12447,10 +12448,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12458,7 +12459,7 @@
         <v>20033</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" s="9">
         <v>20033</v>
@@ -12467,10 +12468,10 @@
         <v>32</v>
       </c>
       <c r="G38" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12478,7 +12479,7 @@
         <v>20041</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39" s="9">
         <v>20041</v>
@@ -12487,10 +12488,10 @@
         <v>38</v>
       </c>
       <c r="G39" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12507,10 +12508,10 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12518,7 +12519,7 @@
         <v>20043</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E41" s="9">
         <v>20043</v>
@@ -12527,10 +12528,10 @@
         <v>38</v>
       </c>
       <c r="G41" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12538,7 +12539,7 @@
         <v>20051</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" s="9">
         <v>20051</v>
@@ -12547,10 +12548,10 @@
         <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12567,10 +12568,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12578,7 +12579,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -12587,10 +12588,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12607,10 +12608,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12618,7 +12619,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -12627,10 +12628,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12638,7 +12639,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -12647,10 +12648,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12658,7 +12659,7 @@
         <v>90001</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E48" s="9">
         <v>60010100</v>
@@ -12667,10 +12668,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12678,7 +12679,7 @@
         <v>90002</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E49" s="9">
         <v>60010200</v>
@@ -12687,10 +12688,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="50" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12698,7 +12699,7 @@
         <v>90003</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E50" s="9">
         <v>60010300</v>
@@ -12707,10 +12708,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="51" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12718,7 +12719,7 @@
         <v>90004</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E51" s="9">
         <v>60010400</v>
@@ -12727,10 +12728,10 @@
         <v>2</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="52" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12738,7 +12739,7 @@
         <v>90005</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E52" s="9">
         <v>60010500</v>
@@ -12747,10 +12748,10 @@
         <v>2</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="53" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12758,7 +12759,7 @@
         <v>90006</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E53" s="9">
         <v>60010600</v>
@@ -12767,10 +12768,10 @@
         <v>2</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="54" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12784,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12798,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12812,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12826,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12840,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12854,7 +12855,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12868,7 +12869,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12882,7 +12883,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12896,7 +12897,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12910,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12924,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O64" s="9"/>
     </row>
@@ -12939,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O65" s="9"/>
     </row>
@@ -12954,7 +12955,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O66" s="9"/>
     </row>
@@ -12969,7 +12970,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O67" s="9"/>
     </row>
@@ -12984,7 +12985,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O68" s="9"/>
     </row>
@@ -12999,7 +13000,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O69" s="9"/>
     </row>
@@ -13014,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O70" s="9"/>
     </row>
@@ -13029,7 +13030,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O71" s="9"/>
     </row>
@@ -13044,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O72" s="9"/>
     </row>
@@ -13059,7 +13060,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O73" s="9"/>
     </row>
@@ -13074,7 +13075,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O74" s="9"/>
     </row>
@@ -13089,7 +13090,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O75" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066FD60A-899D-4DD4-8333-F89285D15EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8BB735-9162-4101-9517-F498E2D6437A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,9 +577,6 @@
     <t>绝佳反击</t>
   </si>
   <si>
-    <t>受到攻击有20%概率对目标造成2秒眩晕,此效果10秒触发一次</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000012</t>
   </si>
   <si>
@@ -674,6 +671,10 @@
   </si>
   <si>
     <t>在生命值低于15%时,立即回复自身30%最大生命,并使自身受到伤害降低50%,持续6秒，90秒冷却时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击有20%概率对目标造成2秒眩晕,此效果20秒触发一次</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11729,8 +11730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12118,7 +12119,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>58</v>
@@ -12638,10 +12639,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="H47" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12649,7 +12650,7 @@
         <v>90001</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" s="9">
         <v>60010100</v>
@@ -12658,10 +12659,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="49" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12669,7 +12670,7 @@
         <v>90002</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E49" s="9">
         <v>60010200</v>
@@ -12678,10 +12679,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="50" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12689,7 +12690,7 @@
         <v>90003</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E50" s="9">
         <v>60010300</v>
@@ -12698,10 +12699,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="51" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12709,7 +12710,7 @@
         <v>90004</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E51" s="9">
         <v>60010400</v>
@@ -12718,10 +12719,10 @@
         <v>2</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="52" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12729,7 +12730,7 @@
         <v>90005</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E52" s="9">
         <v>60010500</v>
@@ -12738,10 +12739,10 @@
         <v>2</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="53" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12749,7 +12750,7 @@
         <v>90006</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E53" s="9">
         <v>60010600</v>
@@ -12758,10 +12759,10 @@
         <v>2</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="54" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12775,7 +12776,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12789,7 +12790,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12803,7 +12804,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12817,7 +12818,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12831,7 +12832,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12845,7 +12846,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12859,7 +12860,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12873,7 +12874,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12887,7 +12888,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12901,7 +12902,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12915,7 +12916,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O64" s="9"/>
     </row>
@@ -12930,7 +12931,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O65" s="9"/>
     </row>
@@ -12945,7 +12946,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O66" s="9"/>
     </row>
@@ -12960,7 +12961,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O67" s="9"/>
     </row>
@@ -12975,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O68" s="9"/>
     </row>
@@ -12990,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O69" s="9"/>
     </row>
@@ -13005,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O70" s="9"/>
     </row>
@@ -13020,7 +13021,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O71" s="9"/>
     </row>
@@ -13035,7 +13036,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O72" s="9"/>
     </row>
@@ -13050,7 +13051,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O73" s="9"/>
     </row>
@@ -13065,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O74" s="9"/>
     </row>
@@ -13080,7 +13081,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O75" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8BB735-9162-4101-9517-F498E2D6437A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64764202-637F-4A82-A38E-C2D3659E82C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -247,12 +247,6 @@
     <t>伤害上升</t>
   </si>
   <si>
-    <t>裂地击和裂波击伤害提升50%</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61011102,61011103,61011104,61011105,61011106;2;0.5@SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;2;0.5</t>
-  </si>
-  <si>
     <t>技能刷新</t>
   </si>
   <si>
@@ -265,12 +259,6 @@
     <t>进退自由</t>
   </si>
   <si>
-    <t>跳跃斩和冲锋斩会对目标区域伤害提升50%</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61011302,61011303,61011304,61011305,61011306;2;0.5@SkillPropertyAdd;61012302,61012303,61012304,61012305,61012306;2;0.5</t>
-  </si>
-  <si>
     <t>圣光之速</t>
   </si>
   <si>
@@ -301,12 +289,6 @@
     <t>技能专精</t>
   </si>
   <si>
-    <t>元素烈焰:伤害提升50%;光能击:伤害提升50%;能量吸附:伤害提升50%</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61021102,61021103,61021104,61021105,61021106;2;0.5@SkillPropertyAdd;61022102,61022103,61022104,61022105,61022106;2;0.5@SkillPropertyAdd;61023102,61023103,61023104,61023105,61023106;2;0.5</t>
-  </si>
-  <si>
     <t>防御之盾</t>
   </si>
   <si>
@@ -319,9 +301,6 @@
     <t>猛击</t>
   </si>
   <si>
-    <t>新增技能：猛击\n立即对目标造成300%伤害,如果目标血量低于30%,伤害提升50%</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000006</t>
   </si>
   <si>
@@ -355,12 +334,6 @@
     <t>职业专精</t>
   </si>
   <si>
-    <t>元素引力波:技能伤害提升50%;光之能量:伤害范围增加,伤害提升20%;能量之球:伤害提升至25%</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61021402,61021403,61021404,61021405,61021406;2;0.5@SkillPropertyAdd;61022302,61022303,61022304,61022305,61022306;1;3@SkillPropertyAdd;61022302,61022303,61022304,61022305,61022306;2;0.2@@SkillPropertyAdd;61023302,61023303,61023304,61023305,61023306;2;0.25</t>
-  </si>
-  <si>
     <t>胜利希望</t>
   </si>
   <si>
@@ -379,12 +352,6 @@
     <t>职业升阶</t>
   </si>
   <si>
-    <t>元素烈焰:技能伤害提升50%伤害;光之击:技能伤害增加50%;能量之地:技能伤害效果提升至20%</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61021402,61021403,61021404,61021405,61021406;2;0.5@SkillPropertyAdd;61022402,61022403,61022404,61022405,61022406;2;0.5@SkillPropertyAdd;61023402,61023403,61023404,61023405,61023406;2;0.2</t>
-  </si>
-  <si>
     <t>以眼还眼</t>
   </si>
   <si>
@@ -412,12 +379,6 @@
     <t>伤害增幅</t>
   </si>
   <si>
-    <t>魔法闪击和龙卷雨击伤害提升50%</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62011102,62011103,62011104,62011105,62011106;2;0.5@SkillPropertyAdd;62011202,62011203,62011204,62011205,62011206;2;0.5</t>
-  </si>
-  <si>
     <t>轰击</t>
   </si>
   <si>
@@ -466,24 +427,12 @@
     <t>英勇守护</t>
   </si>
   <si>
-    <t>受到伤害有8%概率触发守护之击</t>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000104</t>
-  </si>
-  <si>
     <t>冲击波:伤害提升50%;精灵之击:伤害提升50%;魔法护盾: 护盾效果提升50%</t>
   </si>
   <si>
     <t>SkillPropertyAdd;62021202,62021203,62021204,62021205,62021206;2;0.5@SkillPropertyAdd;62022102,62022103,62022104,62022105,62022106;2;0.5@BuffPropertyAdd;92011001,92011002,92011003,92011004,92011005;1;0.2</t>
   </si>
   <si>
-    <t>意念之勇</t>
-  </si>
-  <si>
-    <t>攻击有8%概率使自身获得30%伤害加成,持续10秒</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000105</t>
   </si>
   <si>
@@ -500,24 +449,6 @@
   </si>
   <si>
     <t>BuffPropertyAdd;90002001,90002002,90002003,90002004,90002005;1;0.2@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;5;4@BuffPropertyAdd;92032001;1;0.03</t>
-  </si>
-  <si>
-    <t>坚韧</t>
-  </si>
-  <si>
-    <t>当生命值降低至30%后,受到伤害减免30%,持续15秒，1分钟内只能触发一次</t>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000106</t>
-  </si>
-  <si>
-    <t>守护之击</t>
-  </si>
-  <si>
-    <t>新增技能:防御之击 立即对周围敌方目标造成250%伤害,并实用附近单位造成沉默和减速效果,持续3秒</t>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000107</t>
   </si>
   <si>
     <t>冲击波: 对受到伤害的目标单位时期原地禁锢3秒,无法移动;灼烧轰击:效果延长时间增加4秒;心灵之击:伤害提升50%</t>
@@ -675,6 +606,98 @@
   </si>
   <si>
     <t>受到攻击有20%概率对目标造成2秒眩晕,此效果20秒触发一次</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000104</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害有15%概率触发守护之击</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击有10%概率使自身获得30%伤害加成,持续10秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>意念之勇</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>当生命值降低至30%后,受到伤害减免75%,持续6秒，45秒内只能触发一次</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧之手</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000106</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000107</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御之击</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能:防御之击 立即对周围敌方目标造成250%伤害,并使附近单位造成沉默和减速效果和自身移动速度提升50%,持续3秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62011102,62011103,62011104,62011105,62011106;2;0.75@SkillPropertyAdd;62011202,62011203,62011204,62011205,62011206;2;0.75</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法闪击和龙卷雨击伤害提升75%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂地击和裂波击伤害提升75%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61011102,61011103,61011104,61011105,61011106;2;0.75@SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;2;0.75</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61011302,61011303,61011304,61011305,61011306;2;0.75@SkillPropertyAdd;61012302,61012303,61012304,61012305,61012306;2;0.75</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃斩和冲锋斩会对目标区域伤害提升75%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素烈焰:伤害提升75%;光能击:伤害提升120%;能量吸附:伤害提升75%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61021102,61021103,61021104,61021105,61021106;2;0.75@SkillPropertyAdd;61022102,61022103,61022104,61022105,61022106;2;1@SkillPropertyAdd;61023102,61023103,61023104,61023105,61023106;2;0.75</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能：猛击\n立即对目标造成300%伤害+1000点固定伤害,如果目标血量低于50%,伤害提升50%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61021402,61021403,61021404,61021405,61021406;2;0.75@SkillPropertyAdd;61022302,61022303,61022304,61022305,61022306;1;3@SkillPropertyAdd;61022302,61022303,61022304,61022305,61022306;2;0.3@@SkillPropertyAdd;61023302,61023303,61023304,61023305,61023306;2;0.3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素引力波:技能伤害提升75%;光之能量:伤害范围增加,伤害提升30%;能量之球:伤害提升至30%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61021402,61021403,61021404,61021405,61021406;2;0.75@SkillPropertyAdd;61022402,61022403,61022404,61022405,61022406;2;0.75@SkillPropertyAdd;61023402,61023403,61023404,61023405,61023406;2;0.3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素烈焰:技能伤害提升75%伤害;光之击:技能伤害增加75%;能量之地:技能伤害效果提升至20%</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11730,8 +11753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11859,10 +11882,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11870,7 +11893,7 @@
         <v>10011</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="9">
         <v>10011</v>
@@ -11879,10 +11902,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11890,7 +11913,7 @@
         <v>10012</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="9">
         <v>10012</v>
@@ -11899,10 +11922,10 @@
         <v>22</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11910,7 +11933,7 @@
         <v>10013</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11" s="9">
         <v>10013</v>
@@ -11919,10 +11942,10 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11930,7 +11953,7 @@
         <v>10021</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E12" s="9">
         <v>10021</v>
@@ -11939,10 +11962,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11950,7 +11973,7 @@
         <v>10022</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E13" s="9">
         <v>10022</v>
@@ -11959,10 +11982,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11970,7 +11993,7 @@
         <v>10023</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14" s="9">
         <v>10023</v>
@@ -11979,10 +12002,10 @@
         <v>28</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11990,7 +12013,7 @@
         <v>10031</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E15" s="9">
         <v>10031</v>
@@ -11999,10 +12022,10 @@
         <v>32</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12010,7 +12033,7 @@
         <v>10032</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E16" s="9">
         <v>10032</v>
@@ -12019,10 +12042,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12030,7 +12053,7 @@
         <v>10033</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E17" s="9">
         <v>10033</v>
@@ -12039,10 +12062,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12050,7 +12073,7 @@
         <v>10041</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E18" s="9">
         <v>10041</v>
@@ -12059,10 +12082,10 @@
         <v>38</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12070,7 +12093,7 @@
         <v>10042</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E19" s="9">
         <v>10042</v>
@@ -12079,10 +12102,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12090,7 +12113,7 @@
         <v>10043</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E20" s="9">
         <v>10043</v>
@@ -12099,10 +12122,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12110,7 +12133,7 @@
         <v>10051</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E21" s="9">
         <v>10051</v>
@@ -12119,10 +12142,10 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12130,7 +12153,7 @@
         <v>10052</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E22" s="9">
         <v>10052</v>
@@ -12139,10 +12162,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12150,7 +12173,7 @@
         <v>10053</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E23" s="9">
         <v>10053</v>
@@ -12159,10 +12182,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12170,7 +12193,7 @@
         <v>10061</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E24" s="14">
         <v>10061</v>
@@ -12179,10 +12202,10 @@
         <v>52</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12190,7 +12213,7 @@
         <v>10062</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E25" s="14">
         <v>10062</v>
@@ -12199,10 +12222,10 @@
         <v>52</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12210,7 +12233,7 @@
         <v>10063</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E26" s="14">
         <v>10063</v>
@@ -12219,10 +12242,10 @@
         <v>52</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12230,7 +12253,7 @@
         <v>20001</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E27" s="9">
         <v>20001</v>
@@ -12239,10 +12262,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12250,7 +12273,7 @@
         <v>20002</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E28" s="9">
         <v>20002</v>
@@ -12259,10 +12282,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12270,7 +12293,7 @@
         <v>20003</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E29" s="9">
         <v>20003</v>
@@ -12279,10 +12302,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12290,7 +12313,7 @@
         <v>20011</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E30" s="9">
         <v>20011</v>
@@ -12299,10 +12322,10 @@
         <v>22</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12310,7 +12333,7 @@
         <v>20012</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E31" s="9">
         <v>20012</v>
@@ -12319,10 +12342,10 @@
         <v>22</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12330,7 +12353,7 @@
         <v>20013</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E32" s="9">
         <v>20013</v>
@@ -12339,10 +12362,10 @@
         <v>22</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12350,7 +12373,7 @@
         <v>20021</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E33" s="9">
         <v>20021</v>
@@ -12359,10 +12382,10 @@
         <v>28</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12370,7 +12393,7 @@
         <v>20022</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E34" s="9">
         <v>20022</v>
@@ -12379,10 +12402,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12390,7 +12413,7 @@
         <v>20023</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="E35" s="9">
         <v>20023</v>
@@ -12399,10 +12422,10 @@
         <v>28</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12410,7 +12433,7 @@
         <v>20031</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E36" s="9">
         <v>20031</v>
@@ -12419,10 +12442,10 @@
         <v>32</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12430,7 +12453,7 @@
         <v>20032</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E37" s="9">
         <v>20032</v>
@@ -12439,10 +12462,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12450,7 +12473,7 @@
         <v>20033</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="E38" s="9">
         <v>20033</v>
@@ -12459,10 +12482,10 @@
         <v>32</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12470,7 +12493,7 @@
         <v>20041</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="E39" s="9">
         <v>20041</v>
@@ -12479,10 +12502,10 @@
         <v>38</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12490,7 +12513,7 @@
         <v>20042</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E40" s="9">
         <v>20042</v>
@@ -12499,10 +12522,10 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12510,7 +12533,7 @@
         <v>20043</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E41" s="9">
         <v>20043</v>
@@ -12519,10 +12542,10 @@
         <v>38</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12530,7 +12553,7 @@
         <v>20051</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="E42" s="9">
         <v>20051</v>
@@ -12539,10 +12562,10 @@
         <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12550,7 +12573,7 @@
         <v>20052</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E43" s="9">
         <v>20052</v>
@@ -12559,10 +12582,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12570,7 +12593,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -12579,10 +12602,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12590,7 +12613,7 @@
         <v>20061</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E45" s="9">
         <v>20061</v>
@@ -12599,10 +12622,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12610,7 +12633,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -12619,10 +12642,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12630,7 +12653,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -12639,10 +12662,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12650,7 +12673,7 @@
         <v>90001</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E48" s="9">
         <v>60010100</v>
@@ -12659,10 +12682,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12670,7 +12693,7 @@
         <v>90002</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E49" s="9">
         <v>60010200</v>
@@ -12679,10 +12702,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12690,7 +12713,7 @@
         <v>90003</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E50" s="9">
         <v>60010300</v>
@@ -12699,10 +12722,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12710,7 +12733,7 @@
         <v>90004</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E51" s="9">
         <v>60010400</v>
@@ -12719,10 +12742,10 @@
         <v>2</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12730,7 +12753,7 @@
         <v>90005</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="E52" s="9">
         <v>60010500</v>
@@ -12739,10 +12762,10 @@
         <v>2</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12750,7 +12773,7 @@
         <v>90006</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E53" s="9">
         <v>60010600</v>
@@ -12759,10 +12782,10 @@
         <v>2</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12776,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12790,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12804,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12818,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12832,7 +12855,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12846,7 +12869,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12860,7 +12883,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12874,7 +12897,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12888,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12902,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12916,7 +12939,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="O64" s="9"/>
     </row>
@@ -12931,7 +12954,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="O65" s="9"/>
     </row>
@@ -12946,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="O66" s="9"/>
     </row>
@@ -12961,7 +12984,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="O67" s="9"/>
     </row>
@@ -12976,7 +12999,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="O68" s="9"/>
     </row>
@@ -12991,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="O69" s="9"/>
     </row>
@@ -13006,7 +13029,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="O70" s="9"/>
     </row>
@@ -13021,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="O71" s="9"/>
     </row>
@@ -13036,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="O72" s="9"/>
     </row>
@@ -13051,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="O73" s="9"/>
     </row>
@@ -13066,7 +13089,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="O74" s="9"/>
     </row>
@@ -13081,7 +13104,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="O75" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64764202-637F-4A82-A38E-C2D3659E82C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E3386C-BCBD-42FC-9389-D5DA39DA5C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,12 +307,6 @@
     <t>技能升阶</t>
   </si>
   <si>
-    <t>元素法球:技能伤害提升50%;光剑攻击:持续时间延长10秒;爆发状态:伤害额外提升1000点</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61021202,61021203,61021204,61021205,61021206;2;0.5@BuffPropertyAdd;90001041,90001042,90001043,90001044,90001045,90001046,90001047,90001048,90001049;2;10@BuffPropertyAdd;90001051,90001052,90001053,90001054,90001055;1;1000</t>
-  </si>
-  <si>
     <t>攻击恢复</t>
   </si>
   <si>
@@ -418,19 +412,7 @@
     <t>伤害增加</t>
   </si>
   <si>
-    <t>守护之击和冰锥之击造成的伤害增加50%</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62012202,62012203,62012204,62012205,62012206;2;0.5@SkillPropertyAdd;62012302,62012303,62012304,62012305,62012306;2;0.5</t>
-  </si>
-  <si>
     <t>英勇守护</t>
-  </si>
-  <si>
-    <t>冲击波:伤害提升50%;精灵之击:伤害提升50%;魔法护盾: 护盾效果提升50%</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62021202,62021203,62021204,62021205,62021206;2;0.5@SkillPropertyAdd;62022102,62022103,62022104,62022105,62022106;2;0.5@BuffPropertyAdd;92011001,92011002,92011003,92011004,92011005;1;0.2</t>
   </si>
   <si>
     <t>SkillIdAdd;62000105</t>
@@ -698,6 +680,30 @@
   </si>
   <si>
     <t>元素烈焰:技能伤害提升75%伤害;光之击:技能伤害增加75%;能量之地:技能伤害效果提升至20%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62012202,62012203,62012204,62012205,62012206;2;0.75@SkillPropertyAdd;62012302,62012303,62012304,62012305,62012306;2;0.75</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护之击和冰锥之击造成的伤害增加75%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62021202,62021203,62021204,62021205,62021206;2;0.75@SkillPropertyAdd;62022102,62022103,62022104,62022105,62022106;2;0.75@BuffPropertyAdd;92011001,92011002,92011003,92011004,92011005;1;0.2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击波:伤害提升75%;精灵之击:伤害提升75%;魔法护盾: 护盾效果提升50%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素法球:技能伤害提升75%;光剑攻击:持续时间延长10秒;爆发状态:伤害额外提升1000点</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61021202,61021203,61021204,61021205,61021206;2;0.75@BuffPropertyAdd;90001041,90001042,90001043,90001044,90001045,90001046,90001047,90001048,90001049;2;10@BuffPropertyAdd;90001051,90001052,90001053,90001054,90001055;1;1000</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11753,8 +11759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11882,10 +11888,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11922,10 +11928,10 @@
         <v>22</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12002,10 +12008,10 @@
         <v>28</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12042,7 +12048,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>37</v>
@@ -12062,10 +12068,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12073,7 +12079,7 @@
         <v>10041</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="9">
         <v>10041</v>
@@ -12082,10 +12088,10 @@
         <v>38</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12093,7 +12099,7 @@
         <v>10042</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="9">
         <v>10042</v>
@@ -12102,10 +12108,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12113,7 +12119,7 @@
         <v>10043</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="9">
         <v>10043</v>
@@ -12122,10 +12128,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12133,7 +12139,7 @@
         <v>10051</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E21" s="9">
         <v>10051</v>
@@ -12142,10 +12148,10 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12153,7 +12159,7 @@
         <v>10052</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E22" s="9">
         <v>10052</v>
@@ -12162,10 +12168,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12173,7 +12179,7 @@
         <v>10053</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23" s="9">
         <v>10053</v>
@@ -12182,10 +12188,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12193,7 +12199,7 @@
         <v>10061</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" s="14">
         <v>10061</v>
@@ -12202,10 +12208,10 @@
         <v>52</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12213,7 +12219,7 @@
         <v>10062</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="14">
         <v>10062</v>
@@ -12222,10 +12228,10 @@
         <v>52</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12233,7 +12239,7 @@
         <v>10063</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E26" s="14">
         <v>10063</v>
@@ -12242,10 +12248,10 @@
         <v>52</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12253,7 +12259,7 @@
         <v>20001</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" s="9">
         <v>20001</v>
@@ -12262,10 +12268,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12273,7 +12279,7 @@
         <v>20002</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E28" s="9">
         <v>20002</v>
@@ -12282,10 +12288,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12293,7 +12299,7 @@
         <v>20003</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" s="9">
         <v>20003</v>
@@ -12302,10 +12308,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12313,7 +12319,7 @@
         <v>20011</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30" s="9">
         <v>20011</v>
@@ -12322,10 +12328,10 @@
         <v>22</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12333,7 +12339,7 @@
         <v>20012</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E31" s="9">
         <v>20012</v>
@@ -12342,10 +12348,10 @@
         <v>22</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12353,7 +12359,7 @@
         <v>20013</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E32" s="9">
         <v>20013</v>
@@ -12362,10 +12368,10 @@
         <v>22</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12373,7 +12379,7 @@
         <v>20021</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E33" s="9">
         <v>20021</v>
@@ -12382,10 +12388,10 @@
         <v>28</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12402,10 +12408,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12413,7 +12419,7 @@
         <v>20023</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E35" s="9">
         <v>20023</v>
@@ -12422,10 +12428,10 @@
         <v>28</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12433,7 +12439,7 @@
         <v>20031</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E36" s="9">
         <v>20031</v>
@@ -12442,10 +12448,10 @@
         <v>32</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12462,10 +12468,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12473,7 +12479,7 @@
         <v>20033</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E38" s="9">
         <v>20033</v>
@@ -12482,10 +12488,10 @@
         <v>32</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12493,7 +12499,7 @@
         <v>20041</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E39" s="9">
         <v>20041</v>
@@ -12502,10 +12508,10 @@
         <v>38</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12522,10 +12528,10 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12533,7 +12539,7 @@
         <v>20043</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E41" s="9">
         <v>20043</v>
@@ -12542,10 +12548,10 @@
         <v>38</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12553,7 +12559,7 @@
         <v>20051</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E42" s="9">
         <v>20051</v>
@@ -12562,10 +12568,10 @@
         <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12582,10 +12588,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12593,7 +12599,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -12602,10 +12608,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12613,7 +12619,7 @@
         <v>20061</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E45" s="9">
         <v>20061</v>
@@ -12622,10 +12628,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12633,7 +12639,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -12642,10 +12648,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12653,7 +12659,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -12662,10 +12668,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12673,7 +12679,7 @@
         <v>90001</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E48" s="9">
         <v>60010100</v>
@@ -12682,10 +12688,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12693,7 +12699,7 @@
         <v>90002</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E49" s="9">
         <v>60010200</v>
@@ -12702,10 +12708,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12713,7 +12719,7 @@
         <v>90003</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E50" s="9">
         <v>60010300</v>
@@ -12722,10 +12728,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12733,7 +12739,7 @@
         <v>90004</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E51" s="9">
         <v>60010400</v>
@@ -12742,10 +12748,10 @@
         <v>2</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12753,7 +12759,7 @@
         <v>90005</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E52" s="9">
         <v>60010500</v>
@@ -12762,10 +12768,10 @@
         <v>2</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12773,7 +12779,7 @@
         <v>90006</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E53" s="9">
         <v>60010600</v>
@@ -12782,10 +12788,10 @@
         <v>2</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12799,7 +12805,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12813,7 +12819,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12827,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12841,7 +12847,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12855,7 +12861,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12869,7 +12875,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12883,7 +12889,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12897,7 +12903,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12911,7 +12917,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12925,7 +12931,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12939,7 +12945,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O64" s="9"/>
     </row>
@@ -12954,7 +12960,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O65" s="9"/>
     </row>
@@ -12969,7 +12975,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O66" s="9"/>
     </row>
@@ -12984,7 +12990,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O67" s="9"/>
     </row>
@@ -12999,7 +13005,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O68" s="9"/>
     </row>
@@ -13014,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O69" s="9"/>
     </row>
@@ -13029,7 +13035,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="O70" s="9"/>
     </row>
@@ -13044,7 +13050,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O71" s="9"/>
     </row>
@@ -13059,7 +13065,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="O72" s="9"/>
     </row>
@@ -13074,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O73" s="9"/>
     </row>
@@ -13089,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O74" s="9"/>
     </row>
@@ -13104,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O75" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E3386C-BCBD-42FC-9389-D5DA39DA5C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D32281-C320-4235-8271-7FE3B76D41DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,9 +262,6 @@
     <t>圣光之速</t>
   </si>
   <si>
-    <t>圣光之速,提升自身移动速度200%,持续6秒</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000004</t>
   </si>
   <si>
@@ -704,6 +701,10 @@
   </si>
   <si>
     <t>SkillPropertyAdd;61021202,61021203,61021204,61021205,61021206;2;0.75@BuffPropertyAdd;90001041,90001042,90001043,90001044,90001045,90001046,90001047,90001048,90001049;2;10@BuffPropertyAdd;90001051,90001052,90001053,90001054,90001055;1;1000</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光之速,使自身移动速度大幅度提升,并使自身闪避提升10%,持续6秒</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11759,8 +11760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11888,10 +11889,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11928,10 +11929,10 @@
         <v>22</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11948,10 +11949,10 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11959,7 +11960,7 @@
         <v>10021</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="9">
         <v>10021</v>
@@ -11968,10 +11969,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11979,7 +11980,7 @@
         <v>10022</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="9">
         <v>10022</v>
@@ -11988,10 +11989,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11999,7 +12000,7 @@
         <v>10023</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="9">
         <v>10023</v>
@@ -12008,10 +12009,10 @@
         <v>28</v>
       </c>
       <c r="G14" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12019,7 +12020,7 @@
         <v>10031</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="9">
         <v>10031</v>
@@ -12028,10 +12029,10 @@
         <v>32</v>
       </c>
       <c r="G15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12039,7 +12040,7 @@
         <v>10032</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="9">
         <v>10032</v>
@@ -12048,10 +12049,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12059,7 +12060,7 @@
         <v>10033</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="9">
         <v>10033</v>
@@ -12068,10 +12069,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12079,7 +12080,7 @@
         <v>10041</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="9">
         <v>10041</v>
@@ -12088,10 +12089,10 @@
         <v>38</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12099,7 +12100,7 @@
         <v>10042</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="9">
         <v>10042</v>
@@ -12108,10 +12109,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12119,7 +12120,7 @@
         <v>10043</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="9">
         <v>10043</v>
@@ -12128,10 +12129,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12139,7 +12140,7 @@
         <v>10051</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="9">
         <v>10051</v>
@@ -12148,10 +12149,10 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12159,7 +12160,7 @@
         <v>10052</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="9">
         <v>10052</v>
@@ -12168,10 +12169,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12179,7 +12180,7 @@
         <v>10053</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="9">
         <v>10053</v>
@@ -12188,10 +12189,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12199,7 +12200,7 @@
         <v>10061</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="14">
         <v>10061</v>
@@ -12208,10 +12209,10 @@
         <v>52</v>
       </c>
       <c r="G24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12219,7 +12220,7 @@
         <v>10062</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="14">
         <v>10062</v>
@@ -12228,10 +12229,10 @@
         <v>52</v>
       </c>
       <c r="G25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12239,7 +12240,7 @@
         <v>10063</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="14">
         <v>10063</v>
@@ -12248,10 +12249,10 @@
         <v>52</v>
       </c>
       <c r="G26" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12259,7 +12260,7 @@
         <v>20001</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="9">
         <v>20001</v>
@@ -12268,10 +12269,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12279,7 +12280,7 @@
         <v>20002</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="9">
         <v>20002</v>
@@ -12288,10 +12289,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12299,7 +12300,7 @@
         <v>20003</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="9">
         <v>20003</v>
@@ -12308,10 +12309,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12319,7 +12320,7 @@
         <v>20011</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="9">
         <v>20011</v>
@@ -12328,10 +12329,10 @@
         <v>22</v>
       </c>
       <c r="G30" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12339,7 +12340,7 @@
         <v>20012</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="9">
         <v>20012</v>
@@ -12348,10 +12349,10 @@
         <v>22</v>
       </c>
       <c r="G31" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12359,7 +12360,7 @@
         <v>20013</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="9">
         <v>20013</v>
@@ -12368,10 +12369,10 @@
         <v>22</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12379,7 +12380,7 @@
         <v>20021</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="9">
         <v>20021</v>
@@ -12388,10 +12389,10 @@
         <v>28</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12399,7 +12400,7 @@
         <v>20022</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" s="9">
         <v>20022</v>
@@ -12408,10 +12409,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12419,7 +12420,7 @@
         <v>20023</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E35" s="9">
         <v>20023</v>
@@ -12428,10 +12429,10 @@
         <v>28</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12439,7 +12440,7 @@
         <v>20031</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="9">
         <v>20031</v>
@@ -12448,10 +12449,10 @@
         <v>32</v>
       </c>
       <c r="G36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12459,7 +12460,7 @@
         <v>20032</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" s="9">
         <v>20032</v>
@@ -12468,10 +12469,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12479,7 +12480,7 @@
         <v>20033</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E38" s="9">
         <v>20033</v>
@@ -12488,10 +12489,10 @@
         <v>32</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12499,7 +12500,7 @@
         <v>20041</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" s="9">
         <v>20041</v>
@@ -12508,10 +12509,10 @@
         <v>38</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12519,7 +12520,7 @@
         <v>20042</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" s="9">
         <v>20042</v>
@@ -12528,10 +12529,10 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12539,7 +12540,7 @@
         <v>20043</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E41" s="9">
         <v>20043</v>
@@ -12548,10 +12549,10 @@
         <v>38</v>
       </c>
       <c r="G41" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12559,7 +12560,7 @@
         <v>20051</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E42" s="9">
         <v>20051</v>
@@ -12568,10 +12569,10 @@
         <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12579,7 +12580,7 @@
         <v>20052</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="9">
         <v>20052</v>
@@ -12588,10 +12589,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12599,7 +12600,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -12608,10 +12609,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12619,7 +12620,7 @@
         <v>20061</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E45" s="9">
         <v>20061</v>
@@ -12628,10 +12629,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12639,7 +12640,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -12648,10 +12649,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12659,7 +12660,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -12668,10 +12669,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12679,7 +12680,7 @@
         <v>90001</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E48" s="9">
         <v>60010100</v>
@@ -12688,10 +12689,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="49" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12699,7 +12700,7 @@
         <v>90002</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E49" s="9">
         <v>60010200</v>
@@ -12708,10 +12709,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="50" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12719,7 +12720,7 @@
         <v>90003</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E50" s="9">
         <v>60010300</v>
@@ -12728,10 +12729,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="51" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12739,7 +12740,7 @@
         <v>90004</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E51" s="9">
         <v>60010400</v>
@@ -12748,10 +12749,10 @@
         <v>2</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="52" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12759,7 +12760,7 @@
         <v>90005</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="9">
         <v>60010500</v>
@@ -12768,10 +12769,10 @@
         <v>2</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="53" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12779,7 +12780,7 @@
         <v>90006</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" s="9">
         <v>60010600</v>
@@ -12788,10 +12789,10 @@
         <v>2</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="54" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12805,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12819,7 +12820,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12833,7 +12834,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12847,7 +12848,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12861,7 +12862,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12875,7 +12876,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12889,7 +12890,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12903,7 +12904,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12917,7 +12918,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12931,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12945,7 +12946,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O64" s="9"/>
     </row>
@@ -12960,7 +12961,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O65" s="9"/>
     </row>
@@ -12975,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O66" s="9"/>
     </row>
@@ -12990,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O67" s="9"/>
     </row>
@@ -13005,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O68" s="9"/>
     </row>
@@ -13020,7 +13021,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O69" s="9"/>
     </row>
@@ -13035,7 +13036,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O70" s="9"/>
     </row>
@@ -13050,7 +13051,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O71" s="9"/>
     </row>
@@ -13065,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O72" s="9"/>
     </row>
@@ -13080,7 +13081,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O73" s="9"/>
     </row>
@@ -13095,7 +13096,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O74" s="9"/>
     </row>
@@ -13110,7 +13111,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O75" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D32281-C320-4235-8271-7FE3B76D41DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCC18D6-72BF-4836-9972-3F23C9E734E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -705,6 +705,10 @@
   </si>
   <si>
     <t>圣光之速,使自身移动速度大幅度提升,并使自身闪避提升10%,持续6秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;4;2</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11760,8 +11764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12806,7 +12810,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCC18D6-72BF-4836-9972-3F23C9E734E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0E76A3-C9E4-4C8C-90E2-6DCE6085E1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="165">
   <si>
     <t>Id</t>
   </si>
@@ -709,6 +709,14 @@
   </si>
   <si>
     <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;4;2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;61011102,61011103,61011104,61011105,61011106;69000046</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;2;0.5</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11764,8 +11772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="H52" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12965,7 +12973,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="O65" s="9"/>
     </row>
@@ -12980,7 +12988,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="O66" s="9"/>
     </row>
@@ -12995,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="O67" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0E76A3-C9E4-4C8C-90E2-6DCE6085E1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3587B42B-88C6-4114-B528-2574F8803382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,9 +424,6 @@
     <t>RolePropertyAdd;100402;0.05</t>
   </si>
   <si>
-    <t>元素护盾:护盾效果提升50%;爆焰燃烧:效果延长时间增加4秒;治愈之境:恢复效果由5%提升至8%</t>
-  </si>
-  <si>
     <t>BuffPropertyAdd;90002001,90002002,90002003,90002004,90002005;1;0.2@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;5;4@BuffPropertyAdd;92032001;1;0.03</t>
   </si>
   <si>
@@ -717,6 +714,10 @@
   </si>
   <si>
     <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;2;0.5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素护盾:护盾效果提升50%;爆焰燃烧:效果延长时间增加4秒;治愈之境:恢复效果额外提升3%</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11772,8 +11773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H52" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11901,10 +11902,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11941,10 +11942,10 @@
         <v>22</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11961,7 +11962,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>24</v>
@@ -12021,10 +12022,10 @@
         <v>28</v>
       </c>
       <c r="G14" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12061,7 +12062,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>36</v>
@@ -12081,10 +12082,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12141,10 +12142,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12161,7 +12162,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>46</v>
@@ -12201,10 +12202,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12281,10 +12282,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12381,10 +12382,10 @@
         <v>22</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12401,10 +12402,10 @@
         <v>28</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12421,10 +12422,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12432,7 +12433,7 @@
         <v>20023</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E35" s="9">
         <v>20023</v>
@@ -12441,7 +12442,7 @@
         <v>28</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>74</v>
@@ -12481,10 +12482,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12492,7 +12493,7 @@
         <v>20033</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E38" s="9">
         <v>20033</v>
@@ -12501,10 +12502,10 @@
         <v>32</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12512,7 +12513,7 @@
         <v>20041</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E39" s="9">
         <v>20041</v>
@@ -12521,10 +12522,10 @@
         <v>38</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12541,10 +12542,10 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12552,7 +12553,7 @@
         <v>20043</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" s="9">
         <v>20043</v>
@@ -12561,10 +12562,10 @@
         <v>38</v>
       </c>
       <c r="G41" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12572,7 +12573,7 @@
         <v>20051</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E42" s="9">
         <v>20051</v>
@@ -12581,10 +12582,10 @@
         <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12601,10 +12602,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12612,7 +12613,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -12621,10 +12622,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12641,10 +12642,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12652,7 +12653,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -12661,10 +12662,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12672,7 +12673,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -12681,10 +12682,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12692,7 +12693,7 @@
         <v>90001</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E48" s="9">
         <v>60010100</v>
@@ -12701,10 +12702,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="49" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12712,7 +12713,7 @@
         <v>90002</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49" s="9">
         <v>60010200</v>
@@ -12721,10 +12722,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="50" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12732,7 +12733,7 @@
         <v>90003</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" s="9">
         <v>60010300</v>
@@ -12741,10 +12742,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="51" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12752,7 +12753,7 @@
         <v>90004</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E51" s="9">
         <v>60010400</v>
@@ -12761,10 +12762,10 @@
         <v>2</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="52" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12772,7 +12773,7 @@
         <v>90005</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" s="9">
         <v>60010500</v>
@@ -12781,10 +12782,10 @@
         <v>2</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="53" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12792,7 +12793,7 @@
         <v>90006</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E53" s="9">
         <v>60010600</v>
@@ -12801,10 +12802,10 @@
         <v>2</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="54" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12818,7 +12819,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12832,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12846,7 +12847,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12860,7 +12861,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12874,7 +12875,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12888,7 +12889,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12902,7 +12903,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12916,7 +12917,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12930,7 +12931,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12944,7 +12945,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12958,7 +12959,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O64" s="9"/>
     </row>
@@ -12973,7 +12974,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O65" s="9"/>
     </row>
@@ -12988,7 +12989,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O66" s="9"/>
     </row>
@@ -13003,7 +13004,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O67" s="9"/>
     </row>
@@ -13018,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O68" s="9"/>
     </row>
@@ -13033,7 +13034,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O69" s="9"/>
     </row>
@@ -13048,7 +13049,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O70" s="9"/>
     </row>
@@ -13063,7 +13064,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O71" s="9"/>
     </row>
@@ -13078,7 +13079,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O72" s="9"/>
     </row>
@@ -13093,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O73" s="9"/>
     </row>
@@ -13108,7 +13109,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O74" s="9"/>
     </row>
@@ -13123,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O75" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3587B42B-88C6-4114-B528-2574F8803382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C53AA-1FE7-4E0B-8486-A9654BD9C8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="167">
   <si>
     <t>Id</t>
   </si>
@@ -718,6 +718,14 @@
   </si>
   <si>
     <t>元素护盾:护盾效果提升50%;爆焰燃烧:效果延长时间增加4秒;治愈之境:恢复效果额外提升3%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;61011302,61011302,61011302,61011302,61011302;69000071</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62011102,62011103,62011104,62011105,62011106;2;0.5</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11773,8 +11781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13019,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="O68" s="9"/>
     </row>
@@ -13128,8 +13136,36 @@
       </c>
       <c r="O75" s="9"/>
     </row>
-    <row r="76" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="9">
+        <v>200013</v>
+      </c>
+      <c r="E76" s="9">
+        <v>0</v>
+      </c>
+      <c r="F76" s="9">
+        <v>1</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="O76" s="9"/>
+    </row>
+    <row r="77" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="9">
+        <v>200014</v>
+      </c>
+      <c r="E77" s="9">
+        <v>0</v>
+      </c>
+      <c r="F77" s="9">
+        <v>1</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O77" s="9"/>
+    </row>
     <row r="78" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="79" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="80" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C53AA-1FE7-4E0B-8486-A9654BD9C8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4A0062-71B4-41EA-9F6A-0D74716291B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="220">
   <si>
     <t>Id</t>
   </si>
@@ -217,9 +217,6 @@
     <t>talentDes</t>
   </si>
   <si>
-    <t>AddPropreListStr</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -337,9 +334,6 @@
     <t>新增技能:爆裂轰炸\n对自身范围内每秒持续造成150%伤害,持续6秒</t>
   </si>
   <si>
-    <t>SkillIdAdd;62000010</t>
-  </si>
-  <si>
     <t>职业升阶</t>
   </si>
   <si>
@@ -430,9 +424,6 @@
     <t>冲击波: 对受到伤害的目标单位时期原地禁锢3秒,无法移动;灼烧轰击:效果延长时间增加4秒;心灵之击:伤害提升50%</t>
   </si>
   <si>
-    <t>BuffIdAdd;62021202,62021203,62021204,62021205,62021206;93000205@BuffPropertyAdd;92022001,92022002,92022003,92022004,92022005;2;4@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;2;0.5</t>
-  </si>
-  <si>
     <t>移动增幅</t>
   </si>
   <si>
@@ -518,9 +509,6 @@
   </si>
   <si>
     <t>使用审判时可以将目标减速30%,持续3秒;使用审判时可以将目标减速30%,持续5秒</t>
-  </si>
-  <si>
-    <t>ReplaceSkillId;61021301;61021201</t>
   </si>
   <si>
     <t>新增技能光环</t>
@@ -726,6 +714,223 @@
   </si>
   <si>
     <t>SkillPropertyAdd;62011102,62011103,62011104,62011105,62011106;2;0.5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸种子</t>
+  </si>
+  <si>
+    <t>野兽强壮</t>
+  </si>
+  <si>
+    <t>散射眩晕</t>
+  </si>
+  <si>
+    <t>重击之力</t>
+  </si>
+  <si>
+    <t>怒气</t>
+  </si>
+  <si>
+    <t>射击专精</t>
+  </si>
+  <si>
+    <t>生命护盾</t>
+  </si>
+  <si>
+    <t>射击穿透</t>
+  </si>
+  <si>
+    <t>怒气恢复</t>
+  </si>
+  <si>
+    <t>多重射击</t>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000010</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击概率恢复己方一定生命值</t>
+  </si>
+  <si>
+    <t>立即提升己方和召唤兽的100%攻击速度,持续6秒</t>
+  </si>
+  <si>
+    <t>召唤的野兽攻击和血量提升20%</t>
+  </si>
+  <si>
+    <t>重击概率永久提升5%</t>
+  </si>
+  <si>
+    <t>每次攻击有概率降低目标30%移动速度,持续5秒</t>
+  </si>
+  <si>
+    <t>冰冻陷阱: 冷却时间降低2秒       灼热之箭:伤害提升50%        野兽爆发:爆发状态延长3秒</t>
+  </si>
+  <si>
+    <t>普通攻击暴击时会让自身伤害提升20%,持续6秒</t>
+  </si>
+  <si>
+    <t>每次释放技能有一定概率恢复一定怒气值</t>
+  </si>
+  <si>
+    <t>物理穿透提升10%</t>
+  </si>
+  <si>
+    <t>怒气上限提升至120,怒气恢复速度提升10%</t>
+  </si>
+  <si>
+    <t>每次攻击目标会有一定概率使其所有防御降低为0,持续5秒</t>
+  </si>
+  <si>
+    <t>对目标发射散射攻击,散射攻击目标命中目标后会对附近单位造成200%范围伤害</t>
+  </si>
+  <si>
+    <t>攻击会对目标及附近的单位同时攻击</t>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000031</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶猛</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000032</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>震荡射击的伤害提升75%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;63011102,63011103,63011104,63011105,63011106;2;0.75</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000033</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplaceSkillId;61021301;61021201</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddPropreListStr</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>散射的技能伤害提升75%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;63012202,63012203,63012204,63012205,63012206;2;0.75</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplaceSkillId;63011302;63011322@ReplaceSkillId;63011303;63011323ReplaceSkillId;63011304;63011324ReplaceSkillId;63011305;63011325</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000035</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰寒之箭</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;202103;0.05</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击之力</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000036</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000037</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;50000301,50000302;2;0.2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭普通攻击对目标造成伤害提升20%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;202203;0.1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000038</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击之力</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸射击</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;63012202,63012203,63012204,63012205,63012206;92000027</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸陷阱:造成伤害后会对目标附加1秒眩晕   眩晕射击:技能伤害提升75%  狩猎标记:伤害提升10%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;63021202,63021203,63021204,63021205,63021206;92000028@SkillPropertyAdd;63022202,63022203,63022204,63022205,63022206;2;0.75@BuffPropertyAdd;92033003;1;0.1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封之地: 伤害提升25%  蓄力一击:伤害提升75% 野兽烈焰:伤害提升至75%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;63021302,63021303,63021304,63021305,63021306;2;0.25@SkillPropertyAdd;63022302,63022303,63022304,63022305,63022306;2;0.75@SkillPropertyAdd;63023302,63023303,63023304,63023305,63023306;2;0.75</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;63021102,63021103,63021104,63021105,63021106;4;3@SkillPropertyAdd;63022102,63022103,63022104,63022105,63022106;2;0.75@BuffPropertyAdd;92000022;2;3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;62021202,62021203,62021204,62021205,62021206;93000205@BuffPropertyAdd;92022001,92022002,92022003,92022004,92022005;2;4@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;2;0.5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">火舌守卫：冷却时间降低5秒 剑气:技能会使目标的移动速度降低30% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>野兽呼唤:怪物造成伤害提升25%</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;63021402,63021403,63021404,63021405,63021406;4;5@BuffIdAdd;63022402,63022403,63022404,63022405,63022406;92000029@SkillPropertyAdd;70000006;2;0.25</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击会又概率在目标种下一颗爆炸种子,3秒后发生爆炸对范围内的敌人造成250%伤害</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +938,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,6 +1040,42 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="26">
@@ -8792,7 +9033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8845,6 +9086,45 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11779,10 +12059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O83"/>
+  <dimension ref="C1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11833,27 +12113,27 @@
         <v>8</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11861,7 +12141,7 @@
         <v>10001</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="9">
         <v>10001</v>
@@ -11870,10 +12150,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11881,7 +12161,7 @@
         <v>10002</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="9">
         <v>10002</v>
@@ -11890,10 +12170,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11901,7 +12181,7 @@
         <v>10003</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="9">
         <v>10003</v>
@@ -11910,10 +12190,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11921,7 +12201,7 @@
         <v>10011</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="9">
         <v>10011</v>
@@ -11930,10 +12210,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11941,7 +12221,7 @@
         <v>10012</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="9">
         <v>10012</v>
@@ -11950,10 +12230,10 @@
         <v>22</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11961,7 +12241,7 @@
         <v>10013</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="9">
         <v>10013</v>
@@ -11970,10 +12250,10 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11981,7 +12261,7 @@
         <v>10021</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="9">
         <v>10021</v>
@@ -11990,10 +12270,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12001,7 +12281,7 @@
         <v>10022</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="9">
         <v>10022</v>
@@ -12010,10 +12290,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12021,7 +12301,7 @@
         <v>10023</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="9">
         <v>10023</v>
@@ -12030,10 +12310,10 @@
         <v>28</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12041,7 +12321,7 @@
         <v>10031</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="9">
         <v>10031</v>
@@ -12050,10 +12330,10 @@
         <v>32</v>
       </c>
       <c r="G15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12061,7 +12341,7 @@
         <v>10032</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="9">
         <v>10032</v>
@@ -12070,10 +12350,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12081,7 +12361,7 @@
         <v>10033</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="9">
         <v>10033</v>
@@ -12090,10 +12370,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12101,7 +12381,7 @@
         <v>10041</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="9">
         <v>10041</v>
@@ -12110,10 +12390,10 @@
         <v>38</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12121,7 +12401,7 @@
         <v>10042</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="9">
         <v>10042</v>
@@ -12130,10 +12410,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12141,7 +12421,7 @@
         <v>10043</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="9">
         <v>10043</v>
@@ -12150,10 +12430,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12161,7 +12441,7 @@
         <v>10051</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="9">
         <v>10051</v>
@@ -12170,10 +12450,10 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12181,7 +12461,7 @@
         <v>10052</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="9">
         <v>10052</v>
@@ -12190,10 +12470,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12201,7 +12481,7 @@
         <v>10053</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" s="9">
         <v>10053</v>
@@ -12210,10 +12490,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12221,7 +12501,7 @@
         <v>10061</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E24" s="14">
         <v>10061</v>
@@ -12230,10 +12510,10 @@
         <v>52</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12241,7 +12521,7 @@
         <v>10062</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="14">
         <v>10062</v>
@@ -12250,10 +12530,10 @@
         <v>52</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12261,7 +12541,7 @@
         <v>10063</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" s="14">
         <v>10063</v>
@@ -12270,10 +12550,10 @@
         <v>52</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12281,7 +12561,7 @@
         <v>20001</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E27" s="9">
         <v>20001</v>
@@ -12290,10 +12570,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12301,7 +12581,7 @@
         <v>20002</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" s="9">
         <v>20002</v>
@@ -12310,10 +12590,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12321,7 +12601,7 @@
         <v>20003</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="9">
         <v>20003</v>
@@ -12330,10 +12610,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12341,7 +12621,7 @@
         <v>20011</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="9">
         <v>20011</v>
@@ -12350,10 +12630,10 @@
         <v>22</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12361,7 +12641,7 @@
         <v>20012</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" s="9">
         <v>20012</v>
@@ -12370,10 +12650,10 @@
         <v>22</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12381,7 +12661,7 @@
         <v>20013</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E32" s="9">
         <v>20013</v>
@@ -12390,10 +12670,10 @@
         <v>22</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12401,7 +12681,7 @@
         <v>20021</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E33" s="9">
         <v>20021</v>
@@ -12410,10 +12690,10 @@
         <v>28</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12421,7 +12701,7 @@
         <v>20022</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" s="9">
         <v>20022</v>
@@ -12430,10 +12710,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12441,7 +12721,7 @@
         <v>20023</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E35" s="9">
         <v>20023</v>
@@ -12450,10 +12730,10 @@
         <v>28</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12461,7 +12741,7 @@
         <v>20031</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E36" s="9">
         <v>20031</v>
@@ -12470,10 +12750,10 @@
         <v>32</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12481,7 +12761,7 @@
         <v>20032</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" s="9">
         <v>20032</v>
@@ -12490,10 +12770,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12501,7 +12781,7 @@
         <v>20033</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E38" s="9">
         <v>20033</v>
@@ -12510,10 +12790,10 @@
         <v>32</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12521,7 +12801,7 @@
         <v>20041</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E39" s="9">
         <v>20041</v>
@@ -12530,10 +12810,10 @@
         <v>38</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12541,7 +12821,7 @@
         <v>20042</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="9">
         <v>20042</v>
@@ -12550,10 +12830,10 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12561,7 +12841,7 @@
         <v>20043</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E41" s="9">
         <v>20043</v>
@@ -12570,10 +12850,10 @@
         <v>38</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12581,7 +12861,7 @@
         <v>20051</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E42" s="9">
         <v>20051</v>
@@ -12590,10 +12870,10 @@
         <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12601,7 +12881,7 @@
         <v>20052</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" s="9">
         <v>20052</v>
@@ -12610,10 +12890,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12621,7 +12901,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -12630,10 +12910,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12641,7 +12921,7 @@
         <v>20061</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E45" s="9">
         <v>20061</v>
@@ -12650,10 +12930,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12661,7 +12941,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -12670,10 +12950,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12681,7 +12961,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -12690,440 +12970,551 @@
         <v>52</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="9">
+        <v>30001</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="9">
+        <v>30001</v>
+      </c>
+      <c r="F48" s="9">
+        <v>15</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="9">
+        <v>30002</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="9">
+        <v>30002</v>
+      </c>
+      <c r="F49" s="9">
+        <v>15</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="9">
+        <v>30003</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="9">
+        <v>30003</v>
+      </c>
+      <c r="F50" s="9">
+        <v>15</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="9">
+        <v>30011</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="9">
+        <v>30011</v>
+      </c>
+      <c r="F51" s="9">
+        <v>22</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="9">
+        <v>30012</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="9">
+        <v>30012</v>
+      </c>
+      <c r="F52" s="9">
+        <v>22</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="9">
+        <v>30013</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="9">
+        <v>30013</v>
+      </c>
+      <c r="F53" s="9">
+        <v>22</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="9">
+        <v>30021</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" s="9">
+        <v>30021</v>
+      </c>
+      <c r="F54" s="9">
+        <v>28</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="9">
+        <v>30022</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" s="9">
+        <v>30022</v>
+      </c>
+      <c r="F55" s="9">
+        <v>28</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="9">
+        <v>30023</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="9">
+        <v>30023</v>
+      </c>
+      <c r="F56" s="9">
+        <v>28</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="9">
+        <v>30031</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" s="9">
+        <v>30031</v>
+      </c>
+      <c r="F57" s="9">
+        <v>32</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="9">
+        <v>30032</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="9">
+        <v>30032</v>
+      </c>
+      <c r="F58" s="9">
+        <v>32</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="9">
+        <v>30033</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="9">
+        <v>30033</v>
+      </c>
+      <c r="F59" s="9">
+        <v>32</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="9">
+        <v>30041</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" s="9">
+        <v>30041</v>
+      </c>
+      <c r="F60" s="9">
+        <v>38</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="9">
+        <v>30042</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="9">
+        <v>30042</v>
+      </c>
+      <c r="F61" s="9">
+        <v>38</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="9">
+        <v>30043</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="9">
+        <v>30043</v>
+      </c>
+      <c r="F62" s="9">
+        <v>38</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="9">
+        <v>30051</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" s="9">
+        <v>30051</v>
+      </c>
+      <c r="F63" s="9">
+        <v>42</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="9">
+        <v>30052</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E64" s="9">
+        <v>30052</v>
+      </c>
+      <c r="F64" s="9">
+        <v>42</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="9">
+        <v>30053</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="9">
+        <v>30053</v>
+      </c>
+      <c r="F65" s="9">
+        <v>42</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="9">
+        <v>30061</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" s="9">
+        <v>30061</v>
+      </c>
+      <c r="F66" s="14">
+        <v>52</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="9">
+        <v>30062</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E67" s="9">
+        <v>30062</v>
+      </c>
+      <c r="F67" s="14">
+        <v>52</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="9">
+        <v>30063</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" s="9">
+        <v>30063</v>
+      </c>
+      <c r="F68" s="14">
+        <v>52</v>
+      </c>
+      <c r="G68" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="H68" s="17"/>
+    </row>
+    <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="9">
         <v>90001</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="9">
+      <c r="D69" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="9">
         <v>60010100</v>
-      </c>
-      <c r="F48" s="9">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="9">
-        <v>90002</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="9">
-        <v>60010200</v>
-      </c>
-      <c r="F49" s="9">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="9">
-        <v>90003</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="9">
-        <v>60010300</v>
-      </c>
-      <c r="F50" s="9">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="9">
-        <v>90004</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="9">
-        <v>60010400</v>
-      </c>
-      <c r="F51" s="9">
-        <v>2</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="9">
-        <v>90005</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="9">
-        <v>60010500</v>
-      </c>
-      <c r="F52" s="9">
-        <v>2</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="9">
-        <v>90006</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="9">
-        <v>60010600</v>
-      </c>
-      <c r="F53" s="9">
-        <v>2</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="9">
-        <v>100001</v>
-      </c>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54" s="9">
-        <v>1</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="9">
-        <v>100002</v>
-      </c>
-      <c r="E55" s="9">
-        <v>0</v>
-      </c>
-      <c r="F55" s="9">
-        <v>1</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="9">
-        <v>100003</v>
-      </c>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56" s="9">
-        <v>1</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="9">
-        <v>100004</v>
-      </c>
-      <c r="E57" s="9">
-        <v>0</v>
-      </c>
-      <c r="F57" s="9">
-        <v>1</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="9">
-        <v>100005</v>
-      </c>
-      <c r="E58" s="9">
-        <v>0</v>
-      </c>
-      <c r="F58" s="9">
-        <v>1</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="9">
-        <v>100006</v>
-      </c>
-      <c r="E59" s="9">
-        <v>0</v>
-      </c>
-      <c r="F59" s="9">
-        <v>1</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="9">
-        <v>100007</v>
-      </c>
-      <c r="E60" s="9">
-        <v>0</v>
-      </c>
-      <c r="F60" s="9">
-        <v>1</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="9">
-        <v>100008</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="F61" s="9">
-        <v>1</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="9">
-        <v>100009</v>
-      </c>
-      <c r="E62" s="9">
-        <v>0</v>
-      </c>
-      <c r="F62" s="9">
-        <v>1</v>
-      </c>
-      <c r="H62" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="9">
-        <v>100010</v>
-      </c>
-      <c r="E63" s="9">
-        <v>0</v>
-      </c>
-      <c r="F63" s="9">
-        <v>1</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="9">
-        <v>200001</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="9">
-        <v>1</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="O64" s="9"/>
-    </row>
-    <row r="65" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="9">
-        <v>200002</v>
-      </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
-        <v>1</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="O65" s="9"/>
-    </row>
-    <row r="66" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="9">
-        <v>200003</v>
-      </c>
-      <c r="E66" s="9">
-        <v>0</v>
-      </c>
-      <c r="F66" s="9">
-        <v>1</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="O66" s="9"/>
-    </row>
-    <row r="67" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="9">
-        <v>200004</v>
-      </c>
-      <c r="E67" s="9">
-        <v>0</v>
-      </c>
-      <c r="F67" s="9">
-        <v>1</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="O67" s="9"/>
-    </row>
-    <row r="68" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="9">
-        <v>200005</v>
-      </c>
-      <c r="E68" s="9">
-        <v>0</v>
-      </c>
-      <c r="F68" s="9">
-        <v>1</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="O68" s="9"/>
-    </row>
-    <row r="69" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="9">
-        <v>200006</v>
-      </c>
-      <c r="E69" s="9">
-        <v>0</v>
       </c>
       <c r="F69" s="9">
         <v>1</v>
       </c>
-      <c r="H69" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="O69" s="9"/>
+      <c r="G69" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="70" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="9">
-        <v>200007</v>
+        <v>90002</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E70" s="9">
-        <v>0</v>
+        <v>60010200</v>
       </c>
       <c r="F70" s="9">
         <v>1</v>
       </c>
-      <c r="H70" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="O70" s="9"/>
+      <c r="G70" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="71" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="9">
-        <v>200008</v>
+        <v>90003</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="E71" s="9">
-        <v>0</v>
+        <v>60010300</v>
       </c>
       <c r="F71" s="9">
         <v>1</v>
       </c>
-      <c r="H71" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="O71" s="9"/>
+      <c r="G71" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="72" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="9">
-        <v>200009</v>
+        <v>90004</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="E72" s="9">
-        <v>0</v>
+        <v>60010400</v>
       </c>
       <c r="F72" s="9">
-        <v>1</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="O72" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="73" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="9">
-        <v>200010</v>
+        <v>90005</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="E73" s="9">
-        <v>0</v>
+        <v>60010500</v>
       </c>
       <c r="F73" s="9">
-        <v>1</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="O73" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="74" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="9">
-        <v>200011</v>
+        <v>90006</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="E74" s="9">
-        <v>0</v>
+        <v>60010600</v>
       </c>
       <c r="F74" s="9">
-        <v>1</v>
-      </c>
-      <c r="H74" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="O74" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="75" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="9">
-        <v>200012</v>
+        <v>100001</v>
       </c>
       <c r="E75" s="9">
         <v>0</v>
@@ -13132,13 +13523,12 @@
         <v>1</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="O75" s="9"/>
+        <v>157</v>
+      </c>
     </row>
-    <row r="76" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="9">
-        <v>200013</v>
+        <v>100002</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
@@ -13147,13 +13537,12 @@
         <v>1</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="O76" s="9"/>
+        <v>114</v>
+      </c>
     </row>
-    <row r="77" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="9">
-        <v>200014</v>
+        <v>100003</v>
       </c>
       <c r="E77" s="9">
         <v>0</v>
@@ -13162,16 +13551,323 @@
         <v>1</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="O77" s="9"/>
+        <v>115</v>
+      </c>
     </row>
-    <row r="78" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="9">
+        <v>100004</v>
+      </c>
+      <c r="E78" s="9">
+        <v>0</v>
+      </c>
+      <c r="F78" s="9">
+        <v>1</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="9">
+        <v>100005</v>
+      </c>
+      <c r="E79" s="9">
+        <v>0</v>
+      </c>
+      <c r="F79" s="9">
+        <v>1</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="9">
+        <v>100006</v>
+      </c>
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="F80" s="9">
+        <v>1</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="9">
+        <v>100007</v>
+      </c>
+      <c r="E81" s="9">
+        <v>0</v>
+      </c>
+      <c r="F81" s="9">
+        <v>1</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="9">
+        <v>100008</v>
+      </c>
+      <c r="E82" s="9">
+        <v>0</v>
+      </c>
+      <c r="F82" s="9">
+        <v>1</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="9">
+        <v>100009</v>
+      </c>
+      <c r="E83" s="9">
+        <v>0</v>
+      </c>
+      <c r="F83" s="9">
+        <v>1</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="9">
+        <v>100010</v>
+      </c>
+      <c r="E84" s="9">
+        <v>0</v>
+      </c>
+      <c r="F84" s="9">
+        <v>1</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="9">
+        <v>200001</v>
+      </c>
+      <c r="E85" s="9">
+        <v>0</v>
+      </c>
+      <c r="F85" s="9">
+        <v>1</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O85" s="9"/>
+    </row>
+    <row r="86" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="9">
+        <v>200002</v>
+      </c>
+      <c r="E86" s="9">
+        <v>0</v>
+      </c>
+      <c r="F86" s="9">
+        <v>1</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="O86" s="9"/>
+    </row>
+    <row r="87" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="9">
+        <v>200003</v>
+      </c>
+      <c r="E87" s="9">
+        <v>0</v>
+      </c>
+      <c r="F87" s="9">
+        <v>1</v>
+      </c>
+      <c r="H87" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O87" s="9"/>
+    </row>
+    <row r="88" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="9">
+        <v>200004</v>
+      </c>
+      <c r="E88" s="9">
+        <v>0</v>
+      </c>
+      <c r="F88" s="9">
+        <v>1</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O88" s="9"/>
+    </row>
+    <row r="89" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="9">
+        <v>200005</v>
+      </c>
+      <c r="E89" s="9">
+        <v>0</v>
+      </c>
+      <c r="F89" s="9">
+        <v>1</v>
+      </c>
+      <c r="H89" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O89" s="9"/>
+    </row>
+    <row r="90" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="9">
+        <v>200006</v>
+      </c>
+      <c r="E90" s="9">
+        <v>0</v>
+      </c>
+      <c r="F90" s="9">
+        <v>1</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O90" s="9"/>
+    </row>
+    <row r="91" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="9">
+        <v>200007</v>
+      </c>
+      <c r="E91" s="9">
+        <v>0</v>
+      </c>
+      <c r="F91" s="9">
+        <v>1</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="O91" s="9"/>
+    </row>
+    <row r="92" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="9">
+        <v>200008</v>
+      </c>
+      <c r="E92" s="9">
+        <v>0</v>
+      </c>
+      <c r="F92" s="9">
+        <v>1</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="O92" s="9"/>
+    </row>
+    <row r="93" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="9">
+        <v>200009</v>
+      </c>
+      <c r="E93" s="9">
+        <v>0</v>
+      </c>
+      <c r="F93" s="9">
+        <v>1</v>
+      </c>
+      <c r="H93" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="O93" s="9"/>
+    </row>
+    <row r="94" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="9">
+        <v>200010</v>
+      </c>
+      <c r="E94" s="9">
+        <v>0</v>
+      </c>
+      <c r="F94" s="9">
+        <v>1</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="O94" s="9"/>
+    </row>
+    <row r="95" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="9">
+        <v>200011</v>
+      </c>
+      <c r="E95" s="9">
+        <v>0</v>
+      </c>
+      <c r="F95" s="9">
+        <v>1</v>
+      </c>
+      <c r="H95" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="O95" s="9"/>
+    </row>
+    <row r="96" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="9">
+        <v>200012</v>
+      </c>
+      <c r="E96" s="9">
+        <v>0</v>
+      </c>
+      <c r="F96" s="9">
+        <v>1</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="O96" s="9"/>
+    </row>
+    <row r="97" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="9">
+        <v>200013</v>
+      </c>
+      <c r="E97" s="9">
+        <v>0</v>
+      </c>
+      <c r="F97" s="9">
+        <v>1</v>
+      </c>
+      <c r="H97" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="O97" s="9"/>
+    </row>
+    <row r="98" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="9">
+        <v>200014</v>
+      </c>
+      <c r="E98" s="9">
+        <v>0</v>
+      </c>
+      <c r="F98" s="9">
+        <v>1</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O98" s="9"/>
+    </row>
+    <row r="99" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4A0062-71B4-41EA-9F6A-0D74716291B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74242A81-CD60-41E0-A5F7-7F52E7B4ECB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31890" yWindow="600" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -12061,8 +12061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672FD360-9211-455F-B63F-26C28673B80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1562ECF9-43A7-4066-88B6-67E92D1DBCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,9 +520,6 @@
     <t>SkillIdAdd;62000107</t>
   </si>
   <si>
-    <t>冲击波: 对受到伤害的目标单位时期原地禁锢3秒,无法移动;灼烧轰击:效果延长时间增加4秒;心灵之击:伤害提升50%</t>
-  </si>
-  <si>
     <t>BuffIdAdd;62021202,62021203,62021204,62021205,62021206;93000205@BuffPropertyAdd;92022001,92022002,92022003,92022004,92022005;2;4@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;2;0.5</t>
   </si>
   <si>
@@ -859,6 +856,10 @@
   </si>
   <si>
     <t>RolePropertyAdd;313403;0.2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击波: 对受到伤害的目标单位原地禁锢3秒,无法移动;灼烧轰击:效果延长时间增加4秒;心灵之击:伤害提升50%</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -11977,8 +11978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E51" workbookViewId="0">
-      <selection activeCell="E64" sqref="A64:XFD64"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12189,7 +12190,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12746,10 +12747,10 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12757,7 +12758,7 @@
         <v>20043</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E41" s="9">
         <v>20043</v>
@@ -12766,10 +12767,10 @@
         <v>38</v>
       </c>
       <c r="G41" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12777,7 +12778,7 @@
         <v>20051</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="9">
         <v>20051</v>
@@ -12786,10 +12787,10 @@
         <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12806,10 +12807,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12817,7 +12818,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -12826,10 +12827,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12846,10 +12847,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12857,7 +12858,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -12866,10 +12867,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12877,7 +12878,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -12886,10 +12887,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12906,10 +12907,10 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="49" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12917,7 +12918,7 @@
         <v>30002</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E49" s="9">
         <v>30002</v>
@@ -12926,10 +12927,10 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="50" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12946,10 +12947,10 @@
         <v>15</v>
       </c>
       <c r="G50" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="51" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12957,7 +12958,7 @@
         <v>30011</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E51" s="9">
         <v>30011</v>
@@ -12966,10 +12967,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12977,7 +12978,7 @@
         <v>30012</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E52" s="9">
         <v>30012</v>
@@ -12986,10 +12987,10 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12997,7 +12998,7 @@
         <v>30013</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E53" s="9">
         <v>30013</v>
@@ -13006,10 +13007,10 @@
         <v>22</v>
       </c>
       <c r="G53" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="54" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13017,7 +13018,7 @@
         <v>30021</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E54" s="9">
         <v>30021</v>
@@ -13026,10 +13027,10 @@
         <v>28</v>
       </c>
       <c r="G54" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="55" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13037,7 +13038,7 @@
         <v>30022</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E55" s="9">
         <v>30022</v>
@@ -13046,10 +13047,10 @@
         <v>28</v>
       </c>
       <c r="G55" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H55" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="56" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13066,10 +13067,10 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H56" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="57" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13077,7 +13078,7 @@
         <v>30031</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E57" s="9">
         <v>30031</v>
@@ -13086,10 +13087,10 @@
         <v>32</v>
       </c>
       <c r="G57" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="58" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13097,7 +13098,7 @@
         <v>30032</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E58" s="9">
         <v>30032</v>
@@ -13106,10 +13107,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H58" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13126,10 +13127,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H59" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13137,7 +13138,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13146,10 +13147,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13157,7 +13158,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13186,10 +13187,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H62" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13197,7 +13198,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13206,10 +13207,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H63" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13217,7 +13218,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13226,10 +13227,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13246,10 +13247,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H65" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13257,7 +13258,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13266,10 +13267,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H66" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13277,7 +13278,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13286,10 +13287,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="H67" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13297,7 +13298,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13306,7 +13307,7 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H68" s="16"/>
     </row>
@@ -13315,7 +13316,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13324,10 +13325,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H69" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13335,7 +13336,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13344,10 +13345,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H70" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13355,7 +13356,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13364,10 +13365,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H71" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13375,7 +13376,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13384,10 +13385,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H72" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13395,7 +13396,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13404,10 +13405,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H73" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13415,7 +13416,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13424,10 +13425,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H74" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13441,7 +13442,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13455,7 +13456,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13469,7 +13470,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13483,7 +13484,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13497,7 +13498,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13511,7 +13512,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13525,7 +13526,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13539,7 +13540,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13553,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13567,7 +13568,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13581,7 +13582,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13596,7 +13597,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13611,7 +13612,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13626,7 +13627,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13641,7 +13642,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13656,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13671,7 +13672,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13686,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13701,7 +13702,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13716,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13731,7 +13732,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13746,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -13761,7 +13762,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -13776,7 +13777,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O98" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1562ECF9-43A7-4066-88B6-67E92D1DBCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1BF86B-B827-415E-AADF-A1FB96639054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="220">
   <si>
     <t>Id</t>
   </si>
@@ -704,9 +704,6 @@
   </si>
   <si>
     <t>怒气恢复</t>
-  </si>
-  <si>
-    <t>怒气上限提升至120,怒气恢复速度提升10%</t>
   </si>
   <si>
     <r>
@@ -791,9 +788,6 @@
     <t>使用审判时可以将目标减速30%,持续3秒;使用审判时可以将目标减速30%,持续5秒</t>
   </si>
   <si>
-    <t>ReplaceSkillId;61021301;61021201</t>
-  </si>
-  <si>
     <t>新增技能光环</t>
   </si>
   <si>
@@ -855,11 +849,31 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>RolePropertyAdd;313403;0.2</t>
+    <t>冲击波: 对受到伤害的目标单位原地禁锢3秒,无法移动;灼烧轰击:效果延长时间增加4秒;心灵之击:伤害提升50%</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>冲击波: 对受到伤害的目标单位原地禁锢3秒,无法移动;灼烧轰击:效果延长时间增加4秒;心灵之击:伤害提升50%</t>
+    <t>SkillPropertyAdd;61011302,61011303,61011304,61011305,61011306;4;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;61011102,61011103,61011104,61011105,61011106;69000046</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;313403;20@RolePropertyAdd;121103;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒气上限提升至120,怒气恢复每秒额外恢复2点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplaceSkillId;61021301;61021201</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplaceSkillId;60000501;60000505@ReplaceSkillId;60000502;60000505</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -11978,8 +11992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="E50" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12190,7 +12204,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12747,7 +12761,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>110</v>
@@ -13227,10 +13241,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13247,10 +13261,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H65" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13258,7 +13272,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13267,10 +13281,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H66" s="16" t="s">
         <v>176</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13278,7 +13292,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13287,10 +13301,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" s="17" t="s">
         <v>179</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13298,7 +13312,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13307,16 +13321,18 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="H68" s="16"/>
+        <v>181</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="9">
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13325,10 +13341,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H69" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13336,7 +13352,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13345,10 +13361,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H70" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13356,7 +13372,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13365,10 +13381,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H71" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13376,7 +13392,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13385,10 +13401,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13396,7 +13412,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13405,10 +13421,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13416,7 +13432,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13425,10 +13441,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13442,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13456,7 +13472,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13470,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13484,7 +13500,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13498,7 +13514,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13512,7 +13528,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13526,7 +13542,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13540,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13554,7 +13570,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13568,7 +13584,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13582,7 +13598,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13597,7 +13613,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13612,7 +13628,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13627,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13642,7 +13658,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13657,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13672,7 +13688,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13687,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13702,7 +13718,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13717,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13732,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13747,7 +13763,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -13762,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -13777,7 +13793,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O98" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1BF86B-B827-415E-AADF-A1FB96639054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF9BB37-36F0-4EAE-8933-678A752875B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -836,9 +836,6 @@
     <t>SkillPropertyAdd;62011202,62011203,62011204,62011205,62011206;2;0.5</t>
   </si>
   <si>
-    <t>BuffIdAdd;61011302,61011302,61011302,61011302,61011302;69000071</t>
-  </si>
-  <si>
     <t>SkillPropertyAdd;62011302,62011303,62011304,62011305,62011306;4;2</t>
   </si>
   <si>
@@ -874,6 +871,10 @@
   </si>
   <si>
     <t>ReplaceSkillId;60000501;60000505@ReplaceSkillId;60000502;60000505</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;61011302,61011302,61011302,61011302,61011302;69000072</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -11992,8 +11993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E50" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="F75" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12204,7 +12205,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12761,7 +12762,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>110</v>
@@ -13241,10 +13242,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13324,7 +13325,7 @@
         <v>181</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13404,7 +13405,7 @@
         <v>192</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13613,7 +13614,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13658,7 +13659,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13688,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13748,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13763,7 +13764,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O96" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF9BB37-36F0-4EAE-8933-678A752875B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91FA47B-56B9-4594-8EF2-B980E86D6A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="570" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -589,9 +589,6 @@
     <t>凶猛</t>
   </si>
   <si>
-    <t>立即提升己方和召唤兽的100%攻击速度,持续6秒</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000032</t>
   </si>
   <si>
@@ -604,9 +601,6 @@
     <t>爆炸种子</t>
   </si>
   <si>
-    <t>每次攻击会又概率在目标种下一颗爆炸种子,3秒后发生爆炸对范围内的敌人造成250%伤害</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000033</t>
   </si>
   <si>
@@ -662,9 +656,6 @@
   </si>
   <si>
     <t>怒气</t>
-  </si>
-  <si>
-    <t>每次释放技能有一定概率恢复一定怒气值</t>
   </si>
   <si>
     <t>SkillIdAdd;62000037</t>
@@ -875,6 +866,18 @@
   </si>
   <si>
     <t>BuffIdAdd;61011302,61011302,61011302,61011302,61011302;69000072</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即提升己方和召唤兽的100%攻击速度,持续6秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击会又概率在目标种下一颗爆炸种子,3秒后发生爆炸对范围内的敌人造成250%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次释放技能有一定概率恢复一定怒气值</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -11993,8 +11996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F75" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" topLeftCell="C45" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12205,7 +12208,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12762,7 +12765,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>110</v>
@@ -12942,10 +12945,10 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="H49" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="50" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12962,10 +12965,10 @@
         <v>15</v>
       </c>
       <c r="G50" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="51" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12973,7 +12976,7 @@
         <v>30011</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E51" s="9">
         <v>30011</v>
@@ -12982,10 +12985,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12993,7 +12996,7 @@
         <v>30012</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E52" s="9">
         <v>30012</v>
@@ -13002,10 +13005,10 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13013,7 +13016,7 @@
         <v>30013</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E53" s="9">
         <v>30013</v>
@@ -13022,10 +13025,10 @@
         <v>22</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13033,7 +13036,7 @@
         <v>30021</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E54" s="9">
         <v>30021</v>
@@ -13042,10 +13045,10 @@
         <v>28</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13053,7 +13056,7 @@
         <v>30022</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E55" s="9">
         <v>30022</v>
@@ -13062,10 +13065,10 @@
         <v>28</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13082,10 +13085,10 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13093,7 +13096,7 @@
         <v>30031</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E57" s="9">
         <v>30031</v>
@@ -13102,10 +13105,10 @@
         <v>32</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13113,7 +13116,7 @@
         <v>30032</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E58" s="9">
         <v>30032</v>
@@ -13122,10 +13125,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13142,10 +13145,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13153,7 +13156,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13162,10 +13165,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13173,7 +13176,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13202,10 +13205,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13213,7 +13216,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13222,10 +13225,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13233,7 +13236,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13242,10 +13245,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13262,10 +13265,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13273,7 +13276,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13282,10 +13285,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13293,7 +13296,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13302,10 +13305,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13313,7 +13316,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13322,10 +13325,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13333,7 +13336,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13342,10 +13345,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13353,7 +13356,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13362,10 +13365,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13373,7 +13376,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13382,10 +13385,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13393,7 +13396,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13402,10 +13405,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13413,7 +13416,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13422,10 +13425,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13433,7 +13436,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13442,10 +13445,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13459,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13473,7 +13476,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13487,7 +13490,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13501,7 +13504,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13515,7 +13518,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13529,7 +13532,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13543,7 +13546,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13557,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13571,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13585,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13599,7 +13602,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13614,7 +13617,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13629,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13644,7 +13647,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13659,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13674,7 +13677,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13689,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13704,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13719,7 +13722,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13734,7 +13737,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13749,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13764,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -13779,7 +13782,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -13794,7 +13797,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O98" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91FA47B-56B9-4594-8EF2-B980E86D6A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E437E29-F93E-41CC-8F8F-0B16E0207A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="570" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -11996,8 +11996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C45" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E437E29-F93E-41CC-8F8F-0B16E0207A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59491FC0-144A-400B-96A4-970ECAC0A6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="540" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -601,16 +601,10 @@
     <t>爆炸种子</t>
   </si>
   <si>
-    <t>SkillIdAdd;62000033</t>
-  </si>
-  <si>
     <t>野兽强壮</t>
   </si>
   <si>
     <t>召唤的野兽攻击和血量提升20%</t>
-  </si>
-  <si>
-    <t>ReplaceSkillId;63011302;63011322@ReplaceSkillId;63011303;63011323ReplaceSkillId;63011304;63011324ReplaceSkillId;63011305;63011325</t>
   </si>
   <si>
     <t>散射眩晕</t>
@@ -878,6 +872,14 @@
   </si>
   <si>
     <t>每次释放技能有一定概率恢复一定怒气值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000033</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000039</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -11996,7 +11998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E42" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -12208,7 +12210,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12765,7 +12767,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>110</v>
@@ -12945,7 +12947,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>133</v>
@@ -12985,10 +12987,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="H51" s="16" t="s">
         <v>218</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12996,7 +12998,7 @@
         <v>30012</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="9">
         <v>30012</v>
@@ -13005,10 +13007,10 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13016,7 +13018,7 @@
         <v>30013</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E53" s="9">
         <v>30013</v>
@@ -13025,10 +13027,10 @@
         <v>22</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13036,7 +13038,7 @@
         <v>30021</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E54" s="9">
         <v>30021</v>
@@ -13045,10 +13047,10 @@
         <v>28</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13056,7 +13058,7 @@
         <v>30022</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E55" s="9">
         <v>30022</v>
@@ -13065,10 +13067,10 @@
         <v>28</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13085,10 +13087,10 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13096,7 +13098,7 @@
         <v>30031</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E57" s="9">
         <v>30031</v>
@@ -13105,10 +13107,10 @@
         <v>32</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13116,7 +13118,7 @@
         <v>30032</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E58" s="9">
         <v>30032</v>
@@ -13125,10 +13127,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13145,10 +13147,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13156,7 +13158,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13165,10 +13167,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13176,7 +13178,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13205,10 +13207,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13216,7 +13218,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13225,10 +13227,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13236,7 +13238,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13245,10 +13247,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13265,10 +13267,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13276,7 +13278,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13285,10 +13287,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13296,7 +13298,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13305,10 +13307,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13316,7 +13318,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13325,10 +13327,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13336,7 +13338,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13345,10 +13347,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13356,7 +13358,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13365,10 +13367,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13376,7 +13378,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13385,10 +13387,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13396,7 +13398,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13405,10 +13407,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13416,7 +13418,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13425,10 +13427,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13436,7 +13438,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13445,10 +13447,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13462,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13476,7 +13478,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13490,7 +13492,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13504,7 +13506,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13518,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13532,7 +13534,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13546,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13560,7 +13562,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13574,7 +13576,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13588,7 +13590,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13602,7 +13604,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13617,7 +13619,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13632,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13647,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13662,7 +13664,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13677,7 +13679,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13692,7 +13694,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13707,7 +13709,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13722,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13737,7 +13739,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13752,7 +13754,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13767,7 +13769,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -13782,7 +13784,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -13797,7 +13799,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O98" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59491FC0-144A-400B-96A4-970ECAC0A6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19204CFC-C509-43E7-BD35-381FC18D3CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="540" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -731,9 +731,6 @@
     <t>对目标发射散射攻击,散射攻击目标命中目标后会对附近单位造成200%范围伤害</t>
   </si>
   <si>
-    <t>BuffIdAdd;63012202,63012203,63012204,63012205,63012206;92000027</t>
-  </si>
-  <si>
     <t>多重射击</t>
   </si>
   <si>
@@ -880,6 +877,10 @@
   </si>
   <si>
     <t>SkillIdAdd;62000039</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;63012202,63012203,63012204,63012205,63012206;92000034</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -11998,8 +11999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E42" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="C45" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12210,7 +12211,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12767,7 +12768,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>110</v>
@@ -12947,7 +12948,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>133</v>
@@ -12987,10 +12988,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13010,7 +13011,7 @@
         <v>138</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13127,7 +13128,7 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H58" s="16" t="s">
         <v>154</v>
@@ -13247,10 +13248,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13310,7 +13311,7 @@
         <v>173</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13318,7 +13319,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13327,10 +13328,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13338,7 +13339,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13347,10 +13348,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H69" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13358,7 +13359,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13367,10 +13368,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H70" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13378,7 +13379,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13387,10 +13388,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H71" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13398,7 +13399,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13407,10 +13408,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13418,7 +13419,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13427,10 +13428,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H73" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13438,7 +13439,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13447,10 +13448,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H74" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13464,7 +13465,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13478,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13492,7 +13493,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13506,7 +13507,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13520,7 +13521,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13534,7 +13535,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13548,7 +13549,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13562,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13576,7 +13577,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13590,7 +13591,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13604,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13619,7 +13620,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13634,7 +13635,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13649,7 +13650,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13664,7 +13665,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13679,7 +13680,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13694,7 +13695,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13709,7 +13710,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13724,7 +13725,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13739,7 +13740,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13754,7 +13755,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13769,7 +13770,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -13784,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -13799,7 +13800,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O98" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19204CFC-C509-43E7-BD35-381FC18D3CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F78DDF-6EF9-4DD2-A01E-AFA6F8DF670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -472,12 +472,6 @@
     <t>SkillIdAdd;62000104</t>
   </si>
   <si>
-    <t>冲击波:伤害提升75%;精灵之击:伤害提升75%;魔法护盾: 护盾效果提升50%</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62021202,62021203,62021204,62021205,62021206;2;0.75@SkillPropertyAdd;62022102,62022103,62022104,62022105,62022106;2;0.75@BuffPropertyAdd;92011001,92011002,92011003,92011004,92011005;1;0.2</t>
-  </si>
-  <si>
     <t>意念之勇</t>
   </si>
   <si>
@@ -578,9 +572,6 @@
   </si>
   <si>
     <t>SkillIdAdd;62000012</t>
-  </si>
-  <si>
-    <t>每次攻击概率恢复己方一定生命值</t>
   </si>
   <si>
     <t>SkillIdAdd;62000031</t>
@@ -722,9 +713,6 @@
     <t>每次攻击目标会有一定概率使其所有防御降低为0,持续5秒</t>
   </si>
   <si>
-    <t>SkillIdAdd;62000038</t>
-  </si>
-  <si>
     <t>爆炸射击</t>
   </si>
   <si>
@@ -880,7 +868,22 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>BuffIdAdd;63012202,63012203,63012204,63012205,63012206;92000034</t>
+    <t>使用弓箭普通攻击有20%概率回复自身最大生命的2%</t>
+  </si>
+  <si>
+    <t>BuffIdAdd;63012202,63012203,63012204,63012205,63012206;62000040</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000038</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62021202,62021203,62021204,62021205,62021206;2;0.75@SkillPropertyAdd;62022102,62022103,62022104,62022105,62022106;2;0.75@SkillPropertyAdd;62021102,62021103,62021104,62021105,62021106;2;0.75</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击波:技能伤害效果提升75%;精灵之击:技能伤害效果提升75%;魔法磁场: 技能伤害效果提升75%</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -11999,8 +12002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C45" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="F30" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12211,7 +12214,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12648,10 +12651,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12659,7 +12662,7 @@
         <v>20023</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E35" s="9">
         <v>20023</v>
@@ -12668,10 +12671,10 @@
         <v>28</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12679,7 +12682,7 @@
         <v>20031</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E36" s="9">
         <v>20031</v>
@@ -12688,10 +12691,10 @@
         <v>32</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12708,10 +12711,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12719,7 +12722,7 @@
         <v>20033</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E38" s="9">
         <v>20033</v>
@@ -12728,10 +12731,10 @@
         <v>32</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12739,7 +12742,7 @@
         <v>20041</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E39" s="9">
         <v>20041</v>
@@ -12748,10 +12751,10 @@
         <v>38</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12768,10 +12771,10 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12779,7 +12782,7 @@
         <v>20043</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E41" s="9">
         <v>20043</v>
@@ -12788,10 +12791,10 @@
         <v>38</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12799,7 +12802,7 @@
         <v>20051</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E42" s="9">
         <v>20051</v>
@@ -12808,10 +12811,10 @@
         <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12828,10 +12831,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12839,7 +12842,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -12848,10 +12851,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12868,10 +12871,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12879,7 +12882,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -12888,10 +12891,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12899,7 +12902,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -12908,10 +12911,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12928,10 +12931,10 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12939,7 +12942,7 @@
         <v>30002</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E49" s="9">
         <v>30002</v>
@@ -12948,10 +12951,10 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12968,10 +12971,10 @@
         <v>15</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12979,7 +12982,7 @@
         <v>30011</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E51" s="9">
         <v>30011</v>
@@ -12988,10 +12991,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12999,7 +13002,7 @@
         <v>30012</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E52" s="9">
         <v>30012</v>
@@ -13008,10 +13011,10 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13019,7 +13022,7 @@
         <v>30013</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E53" s="9">
         <v>30013</v>
@@ -13028,10 +13031,10 @@
         <v>22</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13039,7 +13042,7 @@
         <v>30021</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E54" s="9">
         <v>30021</v>
@@ -13048,10 +13051,10 @@
         <v>28</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13059,7 +13062,7 @@
         <v>30022</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E55" s="9">
         <v>30022</v>
@@ -13068,10 +13071,10 @@
         <v>28</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13088,10 +13091,10 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13099,7 +13102,7 @@
         <v>30031</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E57" s="9">
         <v>30031</v>
@@ -13108,10 +13111,10 @@
         <v>32</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13119,7 +13122,7 @@
         <v>30032</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E58" s="9">
         <v>30032</v>
@@ -13128,10 +13131,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13148,10 +13151,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13159,7 +13162,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13168,10 +13171,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13179,7 +13182,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13208,10 +13211,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13219,7 +13222,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13228,10 +13231,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13239,7 +13242,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13248,10 +13251,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13268,10 +13271,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13279,7 +13282,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13288,10 +13291,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13299,7 +13302,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13308,10 +13311,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13319,7 +13322,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13328,10 +13331,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13339,7 +13342,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13348,10 +13351,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13359,7 +13362,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13368,10 +13371,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13379,7 +13382,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13388,10 +13391,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13399,7 +13402,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13408,10 +13411,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13419,7 +13422,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13428,10 +13431,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13439,7 +13442,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13448,10 +13451,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13465,7 +13468,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13479,7 +13482,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13493,7 +13496,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13507,7 +13510,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13521,7 +13524,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13535,7 +13538,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13549,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13563,7 +13566,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13577,7 +13580,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13591,7 +13594,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13605,7 +13608,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13620,7 +13623,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13635,7 +13638,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13650,7 +13653,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13665,7 +13668,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13680,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13695,7 +13698,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13710,7 +13713,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13725,7 +13728,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13740,7 +13743,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13755,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13770,7 +13773,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -13785,7 +13788,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -13800,7 +13803,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O98" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F78DDF-6EF9-4DD2-A01E-AFA6F8DF670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7774B75E-D4A9-4D83-AA9A-80E27059EA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -871,10 +871,6 @@
     <t>使用弓箭普通攻击有20%概率回复自身最大生命的2%</t>
   </si>
   <si>
-    <t>BuffIdAdd;63012202,63012203,63012204,63012205,63012206;62000040</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillIdAdd;62000038</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -884,6 +880,10 @@
   </si>
   <si>
     <t>冲击波:技能伤害效果提升75%;精灵之击:技能伤害效果提升75%;魔法磁场: 技能伤害效果提升75%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;63012202,63012203,63012204,63012205,63012206;92000034</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12002,8 +12002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F30" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="E42" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12651,10 +12651,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13294,7 +13294,7 @@
         <v>167</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13314,7 +13314,7 @@
         <v>169</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7774B75E-D4A9-4D83-AA9A-80E27059EA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309AC96E-6BED-45E5-A4F8-13033FC7D002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -490,12 +490,6 @@
     <t>RolePropertyAdd;100402;0.05</t>
   </si>
   <si>
-    <t>元素护盾:护盾效果提升50%;爆焰燃烧:效果延长时间增加4秒;治愈之境:恢复效果额外提升3%</t>
-  </si>
-  <si>
-    <t>BuffPropertyAdd;90002001,90002002,90002003,90002004,90002005;1;0.2@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;5;4@BuffPropertyAdd;92032001;1;0.03</t>
-  </si>
-  <si>
     <t>坚韧之手</t>
   </si>
   <si>
@@ -716,9 +710,6 @@
     <t>爆炸射击</t>
   </si>
   <si>
-    <t>对目标发射散射攻击,散射攻击目标命中目标后会对附近单位造成200%范围伤害</t>
-  </si>
-  <si>
     <t>多重射击</t>
   </si>
   <si>
@@ -875,15 +866,27 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SkillPropertyAdd;62021202,62021203,62021204,62021205,62021206;2;0.75@SkillPropertyAdd;62022102,62022103,62022104,62022105,62022106;2;0.75@SkillPropertyAdd;62021102,62021103,62021104,62021105,62021106;2;0.75</t>
+    <t>BuffIdAdd;63012202,63012203,63012204,63012205,63012206;92000034</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>冲击波:技能伤害效果提升75%;精灵之击:技能伤害效果提升75%;魔法磁场: 技能伤害效果提升75%</t>
+    <t>对目标发射散射攻击,散射攻击目标命中目标后会对附近单位造成100%范围伤害</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>BuffIdAdd;63012202,63012203,63012204,63012205,63012206;92000034</t>
+    <t>SkillPropertyAdd;62021102,62021103,62021104,62021105,62021106;2;0.75@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;5;4@BuffPropertyAdd;92032001;1;0.03</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法磁场: 技能伤害效果提升75%;爆焰燃烧:效果延长时间增加4秒;治愈之境:恢复效果额外提升3%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击波:技能伤害效果提升75%;精灵之击:技能伤害效果提升75%;治愈之境: 技能伤害效果提升25%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62021202,62021203,62021204,62021205,62021206;2;0.75@SkillPropertyAdd;62022102,62022103,62022104,62022105,62022106;2;0.75@SkillPropertyAdd;62023202,62023203,62023204,62023205,62023206;2;0.25</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12002,8 +12005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E42" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="D24" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12214,7 +12217,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12654,7 +12657,7 @@
         <v>218</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12711,10 +12714,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>101</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12722,7 +12725,7 @@
         <v>20033</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E38" s="9">
         <v>20033</v>
@@ -12731,10 +12734,10 @@
         <v>32</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12742,7 +12745,7 @@
         <v>20041</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E39" s="9">
         <v>20041</v>
@@ -12751,10 +12754,10 @@
         <v>38</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12771,10 +12774,10 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12782,7 +12785,7 @@
         <v>20043</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E41" s="9">
         <v>20043</v>
@@ -12791,10 +12794,10 @@
         <v>38</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12802,7 +12805,7 @@
         <v>20051</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E42" s="9">
         <v>20051</v>
@@ -12811,10 +12814,10 @@
         <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12831,10 +12834,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12842,7 +12845,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -12851,10 +12854,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12871,10 +12874,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12882,7 +12885,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -12891,10 +12894,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12902,7 +12905,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -12911,10 +12914,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12931,10 +12934,10 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12942,7 +12945,7 @@
         <v>30002</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E49" s="9">
         <v>30002</v>
@@ -12951,10 +12954,10 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12971,10 +12974,10 @@
         <v>15</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12982,7 +12985,7 @@
         <v>30011</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E51" s="9">
         <v>30011</v>
@@ -12991,10 +12994,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13002,7 +13005,7 @@
         <v>30012</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E52" s="9">
         <v>30012</v>
@@ -13011,10 +13014,10 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13022,7 +13025,7 @@
         <v>30013</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E53" s="9">
         <v>30013</v>
@@ -13031,10 +13034,10 @@
         <v>22</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13042,7 +13045,7 @@
         <v>30021</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E54" s="9">
         <v>30021</v>
@@ -13051,10 +13054,10 @@
         <v>28</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13062,7 +13065,7 @@
         <v>30022</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E55" s="9">
         <v>30022</v>
@@ -13071,10 +13074,10 @@
         <v>28</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13091,10 +13094,10 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13102,7 +13105,7 @@
         <v>30031</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E57" s="9">
         <v>30031</v>
@@ -13111,10 +13114,10 @@
         <v>32</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13122,7 +13125,7 @@
         <v>30032</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E58" s="9">
         <v>30032</v>
@@ -13131,10 +13134,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13151,10 +13154,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13162,7 +13165,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13171,10 +13174,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13182,7 +13185,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13211,10 +13214,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13222,7 +13225,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13231,10 +13234,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13242,7 +13245,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13251,10 +13254,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13271,10 +13274,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13282,7 +13285,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13291,10 +13294,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13302,7 +13305,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13311,10 +13314,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13322,7 +13325,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13331,10 +13334,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13342,7 +13345,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13351,10 +13354,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13362,7 +13365,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13371,10 +13374,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13382,7 +13385,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13391,10 +13394,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13402,7 +13405,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13411,10 +13414,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13422,7 +13425,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13431,10 +13434,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13442,7 +13445,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13451,10 +13454,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13468,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13482,7 +13485,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13496,7 +13499,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13510,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13524,7 +13527,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13538,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13552,7 +13555,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13566,7 +13569,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13580,7 +13583,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13594,7 +13597,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13608,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13623,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13638,7 +13641,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13653,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13668,7 +13671,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13683,7 +13686,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13698,7 +13701,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13713,7 +13716,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13728,7 +13731,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13743,7 +13746,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13758,7 +13761,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13773,7 +13776,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -13788,7 +13791,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -13803,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O98" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309AC96E-6BED-45E5-A4F8-13033FC7D002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6192F69A-791B-4A9A-8F15-20E7E9E86333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,9 +619,6 @@
     <t>SkillIdAdd;62000035</t>
   </si>
   <si>
-    <t>冰冻陷阱: 冷却时间降低2秒       灼热之箭:伤害提升50%        野兽爆发:爆发状态延长3秒</t>
-  </si>
-  <si>
     <t>SkillPropertyAdd;63021102,63021103,63021104,63021105,63021106;4;3@SkillPropertyAdd;63022102,63022103,63022104,63022105,63022106;2;0.75@BuffPropertyAdd;92000022;2;3</t>
   </si>
   <si>
@@ -887,6 +884,10 @@
   </si>
   <si>
     <t>SkillPropertyAdd;62021202,62021203,62021204,62021205,62021206;2;0.75@SkillPropertyAdd;62022102,62022103,62022104,62022105,62022106;2;0.75@SkillPropertyAdd;62023202,62023203,62023204,62023205,62023206;2;0.25</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻陷阱: 冷却时间降低2秒;灼热之箭:伤害提升50%;野兽之力:爆发状态延长3秒</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12005,8 +12006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D24" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12217,7 +12218,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12654,10 +12655,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12714,10 +12715,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12774,7 +12775,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>106</v>
@@ -12934,7 +12935,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>126</v>
@@ -12954,7 +12955,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>128</v>
@@ -12994,10 +12995,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13017,7 +13018,7 @@
         <v>133</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13094,10 +13095,10 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H56" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="57" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13105,7 +13106,7 @@
         <v>30031</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E57" s="9">
         <v>30031</v>
@@ -13114,10 +13115,10 @@
         <v>32</v>
       </c>
       <c r="G57" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" s="16" t="s">
         <v>146</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="58" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13125,7 +13126,7 @@
         <v>30032</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E58" s="9">
         <v>30032</v>
@@ -13134,10 +13135,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13154,10 +13155,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H59" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13165,7 +13166,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13174,10 +13175,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13185,7 +13186,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13214,10 +13215,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13225,7 +13226,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13234,10 +13235,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H63" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13245,7 +13246,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13254,10 +13255,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13274,10 +13275,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H65" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13285,7 +13286,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13294,10 +13295,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13305,7 +13306,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13314,10 +13315,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13325,7 +13326,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13334,10 +13335,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13345,7 +13346,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13354,10 +13355,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H69" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13365,7 +13366,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13374,10 +13375,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H70" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13385,7 +13386,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13394,10 +13395,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H71" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13405,7 +13406,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13414,10 +13415,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13425,7 +13426,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13434,10 +13435,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H73" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13445,7 +13446,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13454,10 +13455,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H74" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13471,7 +13472,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13485,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13499,7 +13500,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13513,7 +13514,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13527,7 +13528,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13541,7 +13542,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13555,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13569,7 +13570,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13583,7 +13584,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13597,7 +13598,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13611,7 +13612,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13626,7 +13627,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13641,7 +13642,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13656,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13671,7 +13672,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13686,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13701,7 +13702,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13716,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13731,7 +13732,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13746,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13761,7 +13762,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13776,7 +13777,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -13791,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -13806,7 +13807,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O98" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6192F69A-791B-4A9A-8F15-20E7E9E86333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2669B6-C2ED-463B-94EC-CDFB0E2F73D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -840,10 +840,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>每次攻击会又概率在目标种下一颗爆炸种子,3秒后发生爆炸对范围内的敌人造成250%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>每次释放技能有一定概率恢复一定怒气值</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -888,6 +884,10 @@
   </si>
   <si>
     <t>冰冻陷阱: 冷却时间降低2秒;灼热之箭:伤害提升50%;野兽之力:爆发状态延长3秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击会又概率在目标种下一颗爆炸种子,1.5秒后发生爆炸对范围内的敌人造成250%伤害</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12006,8 +12006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="F36" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12655,10 +12655,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12715,10 +12715,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12935,7 +12935,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>126</v>
@@ -12995,10 +12995,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13018,7 +13018,7 @@
         <v>133</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13095,7 +13095,7 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>143</v>
@@ -13135,7 +13135,7 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H58" s="16" t="s">
         <v>148</v>
@@ -13298,7 +13298,7 @@
         <v>164</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13315,10 +13315,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2669B6-C2ED-463B-94EC-CDFB0E2F73D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDFB899-4953-469E-BC5C-41E5A046974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -673,15 +673,204 @@
     <t>怒气恢复</t>
   </si>
   <si>
+    <t>SkillPropertyAdd;63021402,63021403,63021404,63021405,63021406;4;5@BuffIdAdd;63022402,63022403,63022404,63022405,63022406;92000029@SkillPropertyAdd;70000006;2;0.25</t>
+  </si>
+  <si>
+    <t>攻击之力</t>
+  </si>
+  <si>
+    <t>每次攻击目标会有一定概率使其所有防御降低为0,持续5秒</t>
+  </si>
+  <si>
+    <t>爆炸射击</t>
+  </si>
+  <si>
+    <t>多重射击</t>
+  </si>
+  <si>
+    <t>攻击会对目标及附近的单位同时攻击</t>
+  </si>
+  <si>
+    <t>生命提升</t>
+  </si>
+  <si>
+    <t>攻击+10;攻击+20;攻击+30</t>
+  </si>
+  <si>
+    <t>RolePropertyAdd;100203;50</t>
+  </si>
+  <si>
+    <t>光环技能范围</t>
+  </si>
+  <si>
+    <t>旋风斩的技能伤害范围+1;旋风斩的技能伤害范围+2</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;80000013;1;10</t>
+  </si>
+  <si>
+    <t>元素法球附带给自身加血对敌人定身效果</t>
+  </si>
+  <si>
+    <t>前冲距离延长3码距离</t>
+  </si>
+  <si>
+    <t>BuffIdAdd;61021201;90001021@BuffInitIdAdd;61021201;90000005</t>
+  </si>
+  <si>
+    <t>技能元素爆冰更换为元素法球</t>
+  </si>
+  <si>
+    <t>使用审判时可以将目标减速30%,持续3秒;使用审判时可以将目标减速30%,持续5秒</t>
+  </si>
+  <si>
+    <t>新增技能光环</t>
+  </si>
+  <si>
+    <t>击杀怪物获得金币+1%;击杀怪物获得金币+2%;击杀怪物获得金币+3%;击杀怪物获得金币+4%;击杀怪物获得金币+5%</t>
+  </si>
+  <si>
+    <t>SkillIdAdd;80000013</t>
+  </si>
+  <si>
+    <t>延长速度降低的时间</t>
+  </si>
+  <si>
+    <t>基础移动速度+4%;基础移动速度+8%;基础移动速度+12%;基础移动速度+16%;基础移动速度+20%</t>
+  </si>
+  <si>
+    <t>BuffPropertyAdd;90001032;2;10</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;4;2</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62011102,62011103,62011104,62011105,62011106;2;0.5</t>
+  </si>
+  <si>
+    <t>BuffIdAdd;61011102,61011103,61011104,61011105,61011106;69000046</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;2;0.5</t>
+  </si>
+  <si>
+    <t>BuffIdAdd;62012302,62012303,62012304,62012305,62012306;69000047</t>
+  </si>
+  <si>
+    <t>BuffIdAdd;51011302,51011303,51011304,51011305,51011306;69000076</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62012202,62012203,62012204,62012205,62012206;4;2</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61011302,61011303,61011304,61011305,61011306;4;2</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012302,61012303,61012304,61012305,61012306;2;0.5</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62011202,62011203,62011204,62011205,62011206;2;0.5</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62011302,62011303,62011304,62011305,62011306;4;2</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62012102,62012103,62012104,62012105,62012106;2;0.25</t>
+  </si>
+  <si>
+    <t>RolePropertyAdd;200103;0.05</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击波: 对受到伤害的目标单位原地禁锢3秒,无法移动;灼烧轰击:效果延长时间增加4秒;心灵之击:伤害提升50%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61011302,61011303,61011304,61011305,61011306;4;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;61011102,61011103,61011104,61011105,61011106;69000046</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;313403;20@RolePropertyAdd;121103;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒气上限提升至120,怒气恢复每秒额外恢复2点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplaceSkillId;61021301;61021201</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplaceSkillId;60000501;60000505@ReplaceSkillId;60000502;60000505</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;61011302,61011302,61011302,61011302,61011302;69000072</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即提升己方和召唤兽的100%攻击速度,持续6秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次释放技能有一定概率恢复一定怒气值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000033</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000039</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用弓箭普通攻击有20%概率回复自身最大生命的2%</t>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000038</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;63012202,63012203,63012204,63012205,63012206;92000034</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标发射散射攻击,散射攻击目标命中目标后会对附近单位造成100%范围伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62021102,62021103,62021104,62021105,62021106;2;0.75@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;5;4@BuffPropertyAdd;92032001;1;0.03</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法磁场: 技能伤害效果提升75%;爆焰燃烧:效果延长时间增加4秒;治愈之境:恢复效果额外提升3%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击波:技能伤害效果提升75%;精灵之击:技能伤害效果提升75%;治愈之境: 技能伤害效果提升25%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62021202,62021203,62021204,62021205,62021206;2;0.75@SkillPropertyAdd;62022102,62022103,62022104,62022105,62022106;2;0.75@SkillPropertyAdd;62023202,62023203,62023204,62023205,62023206;2;0.25</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻陷阱: 冷却时间降低2秒;灼热之箭:伤害提升50%;野兽之力:爆发状态延长3秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击会又概率在目标种下一颗爆炸种子,1.5秒后发生爆炸对范围内的敌人造成250%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">火舌守卫：冷却时间降低5秒 剑气:技能会使目标的移动速度降低30% </t>
+      <t>火舌守卫：冷却时间降低5秒;剑气：技能会使目标的移动速度降低30%;</t>
     </r>
     <r>
       <rPr>
@@ -691,203 +880,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>野兽呼唤:怪物造成伤害提升25%</t>
+      <t>野兽呼唤:自身召唤的所有怪物造成伤害提升25%</t>
     </r>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;63021402,63021403,63021404,63021405,63021406;4;5@BuffIdAdd;63022402,63022403,63022404,63022405,63022406;92000029@SkillPropertyAdd;70000006;2;0.25</t>
-  </si>
-  <si>
-    <t>攻击之力</t>
-  </si>
-  <si>
-    <t>每次攻击目标会有一定概率使其所有防御降低为0,持续5秒</t>
-  </si>
-  <si>
-    <t>爆炸射击</t>
-  </si>
-  <si>
-    <t>多重射击</t>
-  </si>
-  <si>
-    <t>攻击会对目标及附近的单位同时攻击</t>
-  </si>
-  <si>
-    <t>生命提升</t>
-  </si>
-  <si>
-    <t>攻击+10;攻击+20;攻击+30</t>
-  </si>
-  <si>
-    <t>RolePropertyAdd;100203;50</t>
-  </si>
-  <si>
-    <t>光环技能范围</t>
-  </si>
-  <si>
-    <t>旋风斩的技能伤害范围+1;旋风斩的技能伤害范围+2</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;80000013;1;10</t>
-  </si>
-  <si>
-    <t>元素法球附带给自身加血对敌人定身效果</t>
-  </si>
-  <si>
-    <t>前冲距离延长3码距离</t>
-  </si>
-  <si>
-    <t>BuffIdAdd;61021201;90001021@BuffInitIdAdd;61021201;90000005</t>
-  </si>
-  <si>
-    <t>技能元素爆冰更换为元素法球</t>
-  </si>
-  <si>
-    <t>使用审判时可以将目标减速30%,持续3秒;使用审判时可以将目标减速30%,持续5秒</t>
-  </si>
-  <si>
-    <t>新增技能光环</t>
-  </si>
-  <si>
-    <t>击杀怪物获得金币+1%;击杀怪物获得金币+2%;击杀怪物获得金币+3%;击杀怪物获得金币+4%;击杀怪物获得金币+5%</t>
-  </si>
-  <si>
-    <t>SkillIdAdd;80000013</t>
-  </si>
-  <si>
-    <t>延长速度降低的时间</t>
-  </si>
-  <si>
-    <t>基础移动速度+4%;基础移动速度+8%;基础移动速度+12%;基础移动速度+16%;基础移动速度+20%</t>
-  </si>
-  <si>
-    <t>BuffPropertyAdd;90001032;2;10</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;4;2</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62011102,62011103,62011104,62011105,62011106;2;0.5</t>
-  </si>
-  <si>
-    <t>BuffIdAdd;61011102,61011103,61011104,61011105,61011106;69000046</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;2;0.5</t>
-  </si>
-  <si>
-    <t>BuffIdAdd;62012302,62012303,62012304,62012305,62012306;69000047</t>
-  </si>
-  <si>
-    <t>BuffIdAdd;51011302,51011303,51011304,51011305,51011306;69000076</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62012202,62012203,62012204,62012205,62012206;4;2</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61011302,61011303,61011304,61011305,61011306;4;2</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61012302,61012303,61012304,61012305,61012306;2;0.5</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62011202,62011203,62011204,62011205,62011206;2;0.5</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62011302,62011303,62011304,62011305,62011306;4;2</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62012102,62012103,62012104,62012105,62012106;2;0.25</t>
-  </si>
-  <si>
-    <t>RolePropertyAdd;200103;0.05</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲击波: 对受到伤害的目标单位原地禁锢3秒,无法移动;灼烧轰击:效果延长时间增加4秒;心灵之击:伤害提升50%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61011302,61011303,61011304,61011305,61011306;4;2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffIdAdd;61011102,61011103,61011104,61011105,61011106;69000046</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RolePropertyAdd;313403;20@RolePropertyAdd;121103;2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒气上限提升至120,怒气恢复每秒额外恢复2点</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReplaceSkillId;61021301;61021201</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReplaceSkillId;60000501;60000505@ReplaceSkillId;60000502;60000505</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffIdAdd;61011302,61011302,61011302,61011302,61011302;69000072</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即提升己方和召唤兽的100%攻击速度,持续6秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次释放技能有一定概率恢复一定怒气值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000033</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000039</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用弓箭普通攻击有20%概率回复自身最大生命的2%</t>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000038</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffIdAdd;63012202,63012203,63012204,63012205,63012206;92000034</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标发射散射攻击,散射攻击目标命中目标后会对附近单位造成100%范围伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62021102,62021103,62021104,62021105,62021106;2;0.75@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;5;4@BuffPropertyAdd;92032001;1;0.03</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法磁场: 技能伤害效果提升75%;爆焰燃烧:效果延长时间增加4秒;治愈之境:恢复效果额外提升3%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲击波:技能伤害效果提升75%;精灵之击:技能伤害效果提升75%;治愈之境: 技能伤害效果提升25%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62021202,62021203,62021204,62021205,62021206;2;0.75@SkillPropertyAdd;62022102,62022103,62022104,62022105,62022106;2;0.75@SkillPropertyAdd;62023202,62023203,62023204,62023205,62023206;2;0.25</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰冻陷阱: 冷却时间降低2秒;灼热之箭:伤害提升50%;野兽之力:爆发状态延长3秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次攻击会又概率在目标种下一颗爆炸种子,1.5秒后发生爆炸对范围内的敌人造成250%伤害</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12006,8 +12000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F36" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="F45" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12218,7 +12212,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12655,10 +12649,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12715,10 +12709,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12775,7 +12769,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>106</v>
@@ -12935,7 +12929,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>126</v>
@@ -12955,7 +12949,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>128</v>
@@ -12995,10 +12989,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13018,7 +13012,7 @@
         <v>133</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13095,7 +13089,7 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>143</v>
@@ -13135,7 +13129,7 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H58" s="16" t="s">
         <v>148</v>
@@ -13255,10 +13249,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13275,10 +13269,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H65" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13286,7 +13280,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13295,10 +13289,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13306,7 +13300,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13315,10 +13309,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13326,7 +13320,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13335,10 +13329,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13346,7 +13340,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13355,10 +13349,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H69" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13366,7 +13360,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13375,10 +13369,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H70" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13386,7 +13380,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13395,10 +13389,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H71" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13406,7 +13400,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13415,10 +13409,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13426,7 +13420,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13435,10 +13429,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H73" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13446,7 +13440,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13455,10 +13449,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H74" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13472,7 +13466,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13486,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13500,7 +13494,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13514,7 +13508,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13528,7 +13522,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13542,7 +13536,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13556,7 +13550,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13570,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13584,7 +13578,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13598,7 +13592,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13612,7 +13606,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13627,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13642,7 +13636,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13657,7 +13651,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13672,7 +13666,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13687,7 +13681,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13702,7 +13696,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13717,7 +13711,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13732,7 +13726,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13747,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13762,7 +13756,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13777,7 +13771,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -13792,7 +13786,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -13807,7 +13801,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O98" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDFB899-4953-469E-BC5C-41E5A046974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83A64D5-F2F1-4047-9E13-3F9D6C86269E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="221">
   <si>
     <t>Id</t>
   </si>
@@ -882,6 +882,10 @@
       </rPr>
       <t>野兽呼唤:自身召唤的所有怪物造成伤害提升25%</t>
     </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012302,61012303,61012304,61012305,61012306;2;0.5@SkillPropertyAdd;63012102,63012103,63012104,63012105,63012106;2;0.5</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -11998,10 +12002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O104"/>
+  <dimension ref="C1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F45" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13578,7 +13582,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13810,7 +13814,6 @@
     <row r="101" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="102" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="103" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83A64D5-F2F1-4047-9E13-3F9D6C86269E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB829A34-BE74-4207-868A-C034631724FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -634,9 +634,6 @@
     <t>怒气</t>
   </si>
   <si>
-    <t>SkillIdAdd;62000037</t>
-  </si>
-  <si>
     <t>爆炸陷阱:造成伤害后会对目标附加1秒眩晕   眩晕射击:技能伤害提升75%  狩猎标记:伤害提升10%</t>
   </si>
   <si>
@@ -671,9 +668,6 @@
   </si>
   <si>
     <t>怒气恢复</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;63021402,63021403,63021404,63021405,63021406;4;5@BuffIdAdd;63022402,63022403,63022404,63022405,63022406;92000029@SkillPropertyAdd;70000006;2;0.25</t>
   </si>
   <si>
     <t>攻击之力</t>
@@ -818,10 +812,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>每次释放技能有一定概率恢复一定怒气值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillIdAdd;62000033</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -866,6 +856,14 @@
   </si>
   <si>
     <t>每次攻击会又概率在目标种下一颗爆炸种子,1.5秒后发生爆炸对范围内的敌人造成250%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012302,61012303,61012304,61012305,61012306;2;0.5@SkillPropertyAdd;63012102,63012103,63012104,63012105,63012106;2;0.5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;63021402,63021403,63021404,63021405,63021406;4;5@BuffIdAdd;63022402,63022403,63022404,63022405,63022406;92000029@SkillIdAdd;62000042</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -880,12 +878,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>野兽呼唤:自身召唤的所有怪物造成伤害提升25%</t>
+      <t>野兽呼唤:自身召唤的所有怪物属性提升25%</t>
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SkillPropertyAdd;61012302,61012303,61012304,61012305,61012306;2;0.5@SkillPropertyAdd;63012102,63012103,63012104,63012105,63012106;2;0.5</t>
+    <t>SkillIdAdd;62000037</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击有一定概率恢复自身10点怒气值</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12004,8 +12006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="F45" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12216,7 +12218,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12653,10 +12655,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12713,10 +12715,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12773,7 +12775,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>106</v>
@@ -12933,7 +12935,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>126</v>
@@ -12953,7 +12955,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>128</v>
@@ -12993,10 +12995,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13016,7 +13018,7 @@
         <v>133</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13093,7 +13095,7 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>143</v>
@@ -13133,10 +13135,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13153,10 +13155,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H59" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13164,7 +13166,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13173,10 +13175,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13184,7 +13186,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13213,10 +13215,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H62" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13224,7 +13226,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13233,10 +13235,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H63" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13244,7 +13246,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13253,10 +13255,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13273,10 +13275,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13284,7 +13286,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13293,10 +13295,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13304,7 +13306,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13313,10 +13315,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13324,7 +13326,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13333,10 +13335,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13344,7 +13346,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13353,10 +13355,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13364,7 +13366,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13373,10 +13375,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13384,7 +13386,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13393,10 +13395,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13404,7 +13406,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13413,10 +13415,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13424,7 +13426,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13433,10 +13435,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13444,7 +13446,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13453,10 +13455,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13470,7 +13472,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13484,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13498,7 +13500,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13512,7 +13514,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13526,7 +13528,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13540,7 +13542,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13554,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13568,7 +13570,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13582,7 +13584,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13596,7 +13598,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13610,7 +13612,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13625,7 +13627,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13640,7 +13642,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13655,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13670,7 +13672,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13685,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13700,7 +13702,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13715,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13730,7 +13732,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13745,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13760,7 +13762,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13775,7 +13777,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -13790,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -13805,7 +13807,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O98" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB829A34-BE74-4207-868A-C034631724FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658D8402-CC6A-4434-A9D7-E7C320C9D89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12007,7 +12007,7 @@
   <dimension ref="C1:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F45" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658D8402-CC6A-4434-A9D7-E7C320C9D89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB980C4A-360B-4268-B5BB-D90EB7EF692F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -529,16 +529,7 @@
     <t>SkillIdAdd;62000108</t>
   </si>
   <si>
-    <t>熔岩大地: 伤害提升25%;爆裂燃烧冷却时间降低3秒;心灵治愈:技能治疗效果额外附加5%</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62021402,62021403,62021404,62021405,62021406;2;0.25@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;4;3@BuffPropertyAdd;92034001,92034002,92034003,92034004,92034005;1;0.05</t>
-  </si>
-  <si>
     <t>移动光球</t>
-  </si>
-  <si>
-    <t>新增技能: 魔法光球,对前方区域释放一个移动的光球,对触碰到的单位造成300%+2500点伤害,对触碰的目标移动速度降低50%,持续3秒</t>
   </si>
   <si>
     <t>SkillIdAdd;62000109</t>
@@ -888,6 +879,18 @@
   </si>
   <si>
     <t>每次攻击有一定概率恢复自身10点怒气值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能: 魔法光球,对前方区域释放一个移动的光球,对触碰到的单位造成350%+2500点伤害,对触碰的目标移动速度降低50%,持续3秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩大地: 伤害提升25%;爆裂燃烧冷却时间降低3秒;心灵之击:冷却时间缩减3秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62021402,62021403,62021404,62021405,62021406;2;0.25@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;4;3@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;4;3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12006,8 +12009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F45" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="F30" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12218,7 +12221,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12655,10 +12658,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12715,10 +12718,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12775,7 +12778,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>106</v>
@@ -12835,10 +12838,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12846,7 +12849,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -12855,10 +12858,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12875,10 +12878,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12886,7 +12889,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -12895,10 +12898,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12906,7 +12909,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -12915,10 +12918,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12935,10 +12938,10 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12946,7 +12949,7 @@
         <v>30002</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E49" s="9">
         <v>30002</v>
@@ -12955,10 +12958,10 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12975,10 +12978,10 @@
         <v>15</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12986,7 +12989,7 @@
         <v>30011</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E51" s="9">
         <v>30011</v>
@@ -12995,10 +12998,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13006,7 +13009,7 @@
         <v>30012</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E52" s="9">
         <v>30012</v>
@@ -13015,10 +13018,10 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13026,7 +13029,7 @@
         <v>30013</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E53" s="9">
         <v>30013</v>
@@ -13035,10 +13038,10 @@
         <v>22</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13046,7 +13049,7 @@
         <v>30021</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E54" s="9">
         <v>30021</v>
@@ -13055,10 +13058,10 @@
         <v>28</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13066,7 +13069,7 @@
         <v>30022</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E55" s="9">
         <v>30022</v>
@@ -13075,10 +13078,10 @@
         <v>28</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13095,10 +13098,10 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13106,7 +13109,7 @@
         <v>30031</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E57" s="9">
         <v>30031</v>
@@ -13115,10 +13118,10 @@
         <v>32</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13126,7 +13129,7 @@
         <v>30032</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E58" s="9">
         <v>30032</v>
@@ -13135,10 +13138,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13155,10 +13158,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13166,7 +13169,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13175,10 +13178,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13186,7 +13189,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13215,10 +13218,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13226,7 +13229,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13235,10 +13238,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13246,7 +13249,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13255,10 +13258,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13275,10 +13278,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13286,7 +13289,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13295,10 +13298,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13306,7 +13309,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13315,10 +13318,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13326,7 +13329,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13335,10 +13338,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13346,7 +13349,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13355,10 +13358,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13366,7 +13369,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13375,10 +13378,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13386,7 +13389,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13395,10 +13398,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13406,7 +13409,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13415,10 +13418,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13426,7 +13429,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13435,10 +13438,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13446,7 +13449,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13455,10 +13458,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13472,7 +13475,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13486,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13500,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13514,7 +13517,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13528,7 +13531,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13542,7 +13545,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13556,7 +13559,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13570,7 +13573,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13584,7 +13587,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13598,7 +13601,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13612,7 +13615,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13627,7 +13630,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13642,7 +13645,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13657,7 +13660,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13672,7 +13675,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13687,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13702,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13717,7 +13720,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13732,7 +13735,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13747,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13762,7 +13765,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13777,7 +13780,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -13792,7 +13795,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -13807,7 +13810,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O98" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB980C4A-360B-4268-B5BB-D90EB7EF692F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B651DA69-CB5D-4D01-971D-D940FDAB7DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>怒气</t>
   </si>
   <si>
-    <t>爆炸陷阱:造成伤害后会对目标附加1秒眩晕   眩晕射击:技能伤害提升75%  狩猎标记:伤害提升10%</t>
-  </si>
-  <si>
     <t>BuffIdAdd;63021202,63021203,63021204,63021205,63021206;92000028@SkillPropertyAdd;63022202,63022203,63022204,63022205,63022206;2;0.75@BuffPropertyAdd;92033003;1;0.1</t>
   </si>
   <si>
@@ -891,6 +888,10 @@
   </si>
   <si>
     <t>SkillPropertyAdd;62021402,62021403,62021404,62021405,62021406;2;0.25@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;4;3@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;4;3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸陷阱:造成伤害后会对目标附加1秒眩晕   灼烧旋风:技能伤害提升75%  狩猎标记:伤害提升10%</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12009,8 +12010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F30" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="F36" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12221,7 +12222,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12658,10 +12659,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12718,10 +12719,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12778,7 +12779,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>106</v>
@@ -12838,10 +12839,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12858,7 +12859,7 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>114</v>
@@ -12938,7 +12939,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>123</v>
@@ -12958,7 +12959,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>125</v>
@@ -12998,10 +12999,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13021,7 +13022,7 @@
         <v>130</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13098,7 +13099,7 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>140</v>
@@ -13138,10 +13139,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13158,10 +13159,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H59" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13169,7 +13170,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13178,10 +13179,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13189,7 +13190,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13218,10 +13219,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13229,7 +13230,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13238,10 +13239,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H63" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13249,7 +13250,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13258,10 +13259,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13278,10 +13279,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13289,7 +13290,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13298,10 +13299,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13309,7 +13310,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13318,10 +13319,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13329,7 +13330,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13338,10 +13339,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13349,7 +13350,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13358,10 +13359,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H69" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13369,7 +13370,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13378,10 +13379,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H70" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13389,7 +13390,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13398,10 +13399,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H71" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13409,7 +13410,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13418,10 +13419,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13429,7 +13430,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13438,10 +13439,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H73" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13449,7 +13450,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13458,10 +13459,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H74" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13475,7 +13476,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13489,7 +13490,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13503,7 +13504,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13517,7 +13518,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13531,7 +13532,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13545,7 +13546,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13559,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13573,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13587,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13601,7 +13602,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13615,7 +13616,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13630,7 +13631,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13645,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13660,7 +13661,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13675,7 +13676,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13690,7 +13691,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13705,7 +13706,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13720,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13735,7 +13736,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13750,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13765,7 +13766,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13780,7 +13781,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -13795,7 +13796,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -13810,7 +13811,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O98" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B651DA69-CB5D-4D01-971D-D940FDAB7DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BD895-D6C7-4494-AFDF-96553F8FD1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -792,10 +792,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>BuffIdAdd;61011302,61011302,61011302,61011302,61011302;69000072</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>立即提升己方和召唤兽的100%攻击速度,持续6秒</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -892,6 +888,10 @@
   </si>
   <si>
     <t>爆炸陷阱:造成伤害后会对目标附加1秒眩晕   灼烧旋风:技能伤害提升75%  狩猎标记:伤害提升10%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdAdd;61011302,61011303,61011304,61011305,61011306;69000072</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12010,8 +12010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F36" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="F75" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12659,10 +12659,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12719,10 +12719,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12839,10 +12839,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12859,7 +12859,7 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>114</v>
@@ -12939,7 +12939,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>123</v>
@@ -12959,7 +12959,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>125</v>
@@ -12999,10 +12999,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13022,7 +13022,7 @@
         <v>130</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13099,7 +13099,7 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>140</v>
@@ -13139,10 +13139,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13159,7 +13159,7 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>145</v>
@@ -13279,10 +13279,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13302,7 +13302,7 @@
         <v>157</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13319,10 +13319,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13588,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13676,7 +13676,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O89" s="9"/>
     </row>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F8DF42-C3FB-4E49-ABF7-E0B503645AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BE971C-7065-42A0-92AA-257290A5B243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -316,9 +316,6 @@
     <t>猛击</t>
   </si>
   <si>
-    <t>新增技能：猛击\n立即对目标造成300%伤害+1000点固定伤害,如果目标血量低于50%,伤害提升50%</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000006</t>
   </si>
   <si>
@@ -614,9 +611,6 @@
   </si>
   <si>
     <t>野兽强壮</t>
-  </si>
-  <si>
-    <t>召唤的野兽攻击和血量提升20%</t>
   </si>
   <si>
     <t>SkillIdAdd;62000039</t>
@@ -1066,6 +1060,12 @@
   <si>
     <t>SkillIdAdd;63304006</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能：猛击\n立即对目标造成300%伤害+1000点固定伤害,如果目标生命低于50%,伤害提升50%</t>
+  </si>
+  <si>
+    <t>召唤的野兽攻击和生命提升20%</t>
   </si>
 </sst>
 </file>
@@ -12219,10 +12219,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12373,7 +12373,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12510,10 +12510,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12521,7 +12521,7 @@
         <v>10033</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="9">
         <v>10033</v>
@@ -12530,10 +12530,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12541,7 +12541,7 @@
         <v>10041</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="9">
         <v>10041</v>
@@ -12550,10 +12550,10 @@
         <v>38</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12561,7 +12561,7 @@
         <v>10042</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="9">
         <v>10042</v>
@@ -12570,10 +12570,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12581,7 +12581,7 @@
         <v>10043</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="9">
         <v>10043</v>
@@ -12590,10 +12590,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12601,7 +12601,7 @@
         <v>10051</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="9">
         <v>10051</v>
@@ -12610,10 +12610,10 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12621,7 +12621,7 @@
         <v>10052</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="9">
         <v>10052</v>
@@ -12630,10 +12630,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12641,7 +12641,7 @@
         <v>10053</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="9">
         <v>10053</v>
@@ -12650,10 +12650,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12661,7 +12661,7 @@
         <v>10061</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="14">
         <v>10061</v>
@@ -12670,10 +12670,10 @@
         <v>52</v>
       </c>
       <c r="G24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12681,7 +12681,7 @@
         <v>10062</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="14">
         <v>10062</v>
@@ -12690,10 +12690,10 @@
         <v>52</v>
       </c>
       <c r="G25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12701,7 +12701,7 @@
         <v>10063</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="14">
         <v>10063</v>
@@ -12710,10 +12710,10 @@
         <v>52</v>
       </c>
       <c r="G26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12721,7 +12721,7 @@
         <v>20001</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="9">
         <v>20001</v>
@@ -12730,10 +12730,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12741,7 +12741,7 @@
         <v>20002</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="9">
         <v>20002</v>
@@ -12750,10 +12750,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12761,7 +12761,7 @@
         <v>20003</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" s="9">
         <v>20003</v>
@@ -12770,10 +12770,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12781,7 +12781,7 @@
         <v>20011</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="9">
         <v>20011</v>
@@ -12790,10 +12790,10 @@
         <v>22</v>
       </c>
       <c r="G30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12801,7 +12801,7 @@
         <v>20012</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="9">
         <v>20012</v>
@@ -12810,10 +12810,10 @@
         <v>22</v>
       </c>
       <c r="G31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12821,7 +12821,7 @@
         <v>20013</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32" s="9">
         <v>20013</v>
@@ -12830,10 +12830,10 @@
         <v>22</v>
       </c>
       <c r="G32" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12841,7 +12841,7 @@
         <v>20021</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="9">
         <v>20021</v>
@@ -12850,10 +12850,10 @@
         <v>28</v>
       </c>
       <c r="G33" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12870,10 +12870,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12881,7 +12881,7 @@
         <v>20023</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E35" s="9">
         <v>20023</v>
@@ -12890,10 +12890,10 @@
         <v>28</v>
       </c>
       <c r="G35" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12901,7 +12901,7 @@
         <v>20031</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" s="9">
         <v>20031</v>
@@ -12910,10 +12910,10 @@
         <v>32</v>
       </c>
       <c r="G36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12930,10 +12930,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12941,7 +12941,7 @@
         <v>20033</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" s="9">
         <v>20033</v>
@@ -12950,10 +12950,10 @@
         <v>32</v>
       </c>
       <c r="G38" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12961,7 +12961,7 @@
         <v>20041</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E39" s="9">
         <v>20041</v>
@@ -12970,10 +12970,10 @@
         <v>38</v>
       </c>
       <c r="G39" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12990,10 +12990,10 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13001,7 +13001,7 @@
         <v>20043</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E41" s="9">
         <v>20043</v>
@@ -13010,10 +13010,10 @@
         <v>38</v>
       </c>
       <c r="G41" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13021,7 +13021,7 @@
         <v>20051</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="9">
         <v>20051</v>
@@ -13030,10 +13030,10 @@
         <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13050,10 +13050,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13061,7 +13061,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -13070,10 +13070,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13081,7 +13081,7 @@
         <v>20061</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="9">
         <v>20061</v>
@@ -13090,10 +13090,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13101,7 +13101,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -13110,10 +13110,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13121,7 +13121,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -13130,10 +13130,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13150,10 +13150,10 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="49" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13161,7 +13161,7 @@
         <v>30002</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E49" s="9">
         <v>30002</v>
@@ -13170,10 +13170,10 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="50" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13190,10 +13190,10 @@
         <v>15</v>
       </c>
       <c r="G50" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="51" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13201,7 +13201,7 @@
         <v>30011</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E51" s="9">
         <v>30011</v>
@@ -13210,10 +13210,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13221,7 +13221,7 @@
         <v>30012</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E52" s="9">
         <v>30012</v>
@@ -13230,10 +13230,10 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>142</v>
+        <v>268</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13241,7 +13241,7 @@
         <v>30013</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E53" s="9">
         <v>30013</v>
@@ -13250,10 +13250,10 @@
         <v>22</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13261,7 +13261,7 @@
         <v>30021</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E54" s="9">
         <v>30021</v>
@@ -13270,10 +13270,10 @@
         <v>28</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13281,7 +13281,7 @@
         <v>30022</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E55" s="9">
         <v>30022</v>
@@ -13290,10 +13290,10 @@
         <v>28</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13310,10 +13310,10 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13321,7 +13321,7 @@
         <v>30031</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E57" s="9">
         <v>30031</v>
@@ -13330,10 +13330,10 @@
         <v>32</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13341,7 +13341,7 @@
         <v>30032</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E58" s="9">
         <v>30032</v>
@@ -13350,10 +13350,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13361,7 +13361,7 @@
         <v>30033</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E59" s="9">
         <v>30033</v>
@@ -13370,10 +13370,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13381,7 +13381,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13390,10 +13390,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13401,7 +13401,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13421,7 +13421,7 @@
         <v>30043</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E62" s="9">
         <v>30043</v>
@@ -13430,10 +13430,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13441,7 +13441,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13450,10 +13450,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13461,7 +13461,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13470,10 +13470,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13481,7 +13481,7 @@
         <v>30053</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E65" s="9">
         <v>30053</v>
@@ -13490,10 +13490,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13501,7 +13501,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13510,10 +13510,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13521,7 +13521,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13530,10 +13530,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13541,7 +13541,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13550,10 +13550,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13561,7 +13561,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13570,10 +13570,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13581,7 +13581,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13590,10 +13590,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13601,7 +13601,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13610,10 +13610,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13621,7 +13621,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13630,10 +13630,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13641,7 +13641,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13650,10 +13650,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13661,7 +13661,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13670,10 +13670,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13687,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13701,7 +13701,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13715,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13729,7 +13729,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13743,7 +13743,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13757,7 +13757,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13771,7 +13771,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13799,7 +13799,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13813,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13827,7 +13827,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13842,7 +13842,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13857,7 +13857,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13872,7 +13872,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13887,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13902,7 +13902,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13917,7 +13917,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13932,7 +13932,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13947,7 +13947,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13962,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13977,7 +13977,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13992,7 +13992,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -14007,7 +14007,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -14022,7 +14022,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O98" s="9"/>
     </row>
@@ -14031,7 +14031,7 @@
         <v>40001</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E99" s="14">
         <v>30001</v>
@@ -14040,10 +14040,10 @@
         <v>15</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14051,7 +14051,7 @@
         <v>40002</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E100" s="14">
         <v>30002</v>
@@ -14060,10 +14060,10 @@
         <v>15</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14071,7 +14071,7 @@
         <v>40003</v>
       </c>
       <c r="D101" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E101" s="33">
         <v>30003</v>
@@ -14080,10 +14080,10 @@
         <v>15</v>
       </c>
       <c r="G101" s="35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H101" s="36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14091,7 +14091,7 @@
         <v>40011</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E102" s="14">
         <v>30001</v>
@@ -14100,10 +14100,10 @@
         <v>15</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14111,7 +14111,7 @@
         <v>40012</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E103" s="14">
         <v>30002</v>
@@ -14120,10 +14120,10 @@
         <v>15</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14131,7 +14131,7 @@
         <v>40013</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E104" s="33">
         <v>30003</v>
@@ -14140,10 +14140,10 @@
         <v>15</v>
       </c>
       <c r="G104" s="35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H104" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14151,7 +14151,7 @@
         <v>40021</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E105" s="14">
         <v>30001</v>
@@ -14160,10 +14160,10 @@
         <v>15</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14171,7 +14171,7 @@
         <v>40022</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E106" s="14">
         <v>30002</v>
@@ -14180,10 +14180,10 @@
         <v>15</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14191,7 +14191,7 @@
         <v>40023</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E107" s="33">
         <v>30003</v>
@@ -14200,10 +14200,10 @@
         <v>15</v>
       </c>
       <c r="G107" s="35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H107" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14211,7 +14211,7 @@
         <v>40031</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E108" s="33">
         <v>30001</v>
@@ -14220,10 +14220,10 @@
         <v>15</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14231,7 +14231,7 @@
         <v>40032</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E109" s="33">
         <v>30002</v>
@@ -14240,10 +14240,10 @@
         <v>15</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H109" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14251,7 +14251,7 @@
         <v>40033</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E110" s="33">
         <v>30003</v>
@@ -14260,10 +14260,10 @@
         <v>15</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H110" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14271,7 +14271,7 @@
         <v>40041</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E111" s="33">
         <v>30001</v>
@@ -14280,10 +14280,10 @@
         <v>15</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14291,7 +14291,7 @@
         <v>40042</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E112" s="33">
         <v>30002</v>
@@ -14300,10 +14300,10 @@
         <v>15</v>
       </c>
       <c r="G112" s="39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H112" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14311,7 +14311,7 @@
         <v>40043</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E113" s="33">
         <v>30003</v>
@@ -14320,10 +14320,10 @@
         <v>15</v>
       </c>
       <c r="G113" s="35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H113" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14331,7 +14331,7 @@
         <v>40051</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E114" s="33">
         <v>30001</v>
@@ -14340,10 +14340,10 @@
         <v>15</v>
       </c>
       <c r="G114" s="39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H114" s="40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14351,7 +14351,7 @@
         <v>40052</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E115" s="33">
         <v>30002</v>
@@ -14360,10 +14360,10 @@
         <v>15</v>
       </c>
       <c r="G115" s="39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H115" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14371,7 +14371,7 @@
         <v>40053</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E116" s="33">
         <v>30003</v>
@@ -14380,10 +14380,10 @@
         <v>15</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H116" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14391,7 +14391,7 @@
         <v>40061</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E117" s="33">
         <v>30001</v>
@@ -14400,10 +14400,10 @@
         <v>15</v>
       </c>
       <c r="G117" s="39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H117" s="40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14411,7 +14411,7 @@
         <v>40062</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E118" s="33">
         <v>30002</v>
@@ -14420,10 +14420,10 @@
         <v>15</v>
       </c>
       <c r="G118" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H118" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14431,7 +14431,7 @@
         <v>40063</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E119" s="33">
         <v>30003</v>
@@ -14440,10 +14440,10 @@
         <v>15</v>
       </c>
       <c r="G119" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H119" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BE971C-7065-42A0-92AA-257290A5B243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52D2AFD-B61E-4FFF-8BB1-20D210CC27DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,12 +340,6 @@
     <t>绝地反击</t>
   </si>
   <si>
-    <t>当生命低于30%时,自身受到减免50%且攻击会恢复自身一定的生命值,持续8秒</t>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000008</t>
-  </si>
-  <si>
     <t>职业专精</t>
   </si>
   <si>
@@ -356,9 +350,6 @@
   </si>
   <si>
     <t>胜利希望</t>
-  </si>
-  <si>
-    <t>在生命值低于15%时,立即回复自身30%最大生命,并使自身受到伤害降低50%,持续6秒，90秒冷却时间</t>
   </si>
   <si>
     <t>SkillIdAdd;62000009</t>
@@ -1066,6 +1057,18 @@
   </si>
   <si>
     <t>召唤的野兽攻击和生命提升20%</t>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000008</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在生命值低于15%时,立即回复自身30%最大生命,并使自身造成伤害提升25%,持续6秒，90秒冷却时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当生命低于30%时,自身受到减免50%且攻击会恢复自身一定的生命值,持续6秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12219,10 +12222,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12373,7 +12376,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12510,7 +12513,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>42</v>
@@ -12570,10 +12573,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>51</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12581,7 +12584,7 @@
         <v>10043</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" s="9">
         <v>10043</v>
@@ -12590,10 +12593,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12601,7 +12604,7 @@
         <v>10051</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E21" s="9">
         <v>10051</v>
@@ -12610,10 +12613,10 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>56</v>
+        <v>267</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12621,7 +12624,7 @@
         <v>10052</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E22" s="9">
         <v>10052</v>
@@ -12630,10 +12633,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12641,7 +12644,7 @@
         <v>10053</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E23" s="9">
         <v>10053</v>
@@ -12650,10 +12653,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12661,7 +12664,7 @@
         <v>10061</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E24" s="14">
         <v>10061</v>
@@ -12670,10 +12673,10 @@
         <v>52</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12681,7 +12684,7 @@
         <v>10062</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" s="14">
         <v>10062</v>
@@ -12690,10 +12693,10 @@
         <v>52</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12701,7 +12704,7 @@
         <v>10063</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E26" s="14">
         <v>10063</v>
@@ -12710,10 +12713,10 @@
         <v>52</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12721,7 +12724,7 @@
         <v>20001</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E27" s="9">
         <v>20001</v>
@@ -12730,10 +12733,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12741,7 +12744,7 @@
         <v>20002</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E28" s="9">
         <v>20002</v>
@@ -12750,10 +12753,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12761,7 +12764,7 @@
         <v>20003</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E29" s="9">
         <v>20003</v>
@@ -12770,10 +12773,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12781,7 +12784,7 @@
         <v>20011</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E30" s="9">
         <v>20011</v>
@@ -12790,10 +12793,10 @@
         <v>22</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12801,7 +12804,7 @@
         <v>20012</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E31" s="9">
         <v>20012</v>
@@ -12810,10 +12813,10 @@
         <v>22</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12821,7 +12824,7 @@
         <v>20013</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E32" s="9">
         <v>20013</v>
@@ -12830,10 +12833,10 @@
         <v>22</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12841,7 +12844,7 @@
         <v>20021</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E33" s="9">
         <v>20021</v>
@@ -12850,10 +12853,10 @@
         <v>28</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12870,10 +12873,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12881,7 +12884,7 @@
         <v>20023</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E35" s="9">
         <v>20023</v>
@@ -12890,10 +12893,10 @@
         <v>28</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12901,7 +12904,7 @@
         <v>20031</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E36" s="9">
         <v>20031</v>
@@ -12910,10 +12913,10 @@
         <v>32</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12930,10 +12933,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12941,7 +12944,7 @@
         <v>20033</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E38" s="9">
         <v>20033</v>
@@ -12950,10 +12953,10 @@
         <v>32</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12961,7 +12964,7 @@
         <v>20041</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E39" s="9">
         <v>20041</v>
@@ -12970,10 +12973,10 @@
         <v>38</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12990,10 +12993,10 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13001,7 +13004,7 @@
         <v>20043</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E41" s="9">
         <v>20043</v>
@@ -13010,10 +13013,10 @@
         <v>38</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13021,7 +13024,7 @@
         <v>20051</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E42" s="9">
         <v>20051</v>
@@ -13030,10 +13033,10 @@
         <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13050,10 +13053,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13061,7 +13064,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -13070,10 +13073,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13081,7 +13084,7 @@
         <v>20061</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E45" s="9">
         <v>20061</v>
@@ -13090,10 +13093,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13101,7 +13104,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -13110,10 +13113,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13121,7 +13124,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -13130,10 +13133,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13150,10 +13153,10 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13161,7 +13164,7 @@
         <v>30002</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E49" s="9">
         <v>30002</v>
@@ -13170,10 +13173,10 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13190,10 +13193,10 @@
         <v>15</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13201,7 +13204,7 @@
         <v>30011</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E51" s="9">
         <v>30011</v>
@@ -13210,10 +13213,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13221,7 +13224,7 @@
         <v>30012</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E52" s="9">
         <v>30012</v>
@@ -13230,10 +13233,10 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13241,7 +13244,7 @@
         <v>30013</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E53" s="9">
         <v>30013</v>
@@ -13250,10 +13253,10 @@
         <v>22</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13261,7 +13264,7 @@
         <v>30021</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E54" s="9">
         <v>30021</v>
@@ -13270,10 +13273,10 @@
         <v>28</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13281,7 +13284,7 @@
         <v>30022</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E55" s="9">
         <v>30022</v>
@@ -13290,10 +13293,10 @@
         <v>28</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13310,10 +13313,10 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13321,7 +13324,7 @@
         <v>30031</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E57" s="9">
         <v>30031</v>
@@ -13330,10 +13333,10 @@
         <v>32</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13341,7 +13344,7 @@
         <v>30032</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E58" s="9">
         <v>30032</v>
@@ -13350,10 +13353,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13370,10 +13373,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13381,7 +13384,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13390,10 +13393,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13401,7 +13404,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13421,7 +13424,7 @@
         <v>30043</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E62" s="9">
         <v>30043</v>
@@ -13430,10 +13433,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13441,7 +13444,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13450,10 +13453,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13461,7 +13464,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13470,10 +13473,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13481,7 +13484,7 @@
         <v>30053</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E65" s="9">
         <v>30053</v>
@@ -13490,10 +13493,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13501,7 +13504,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13510,10 +13513,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13521,7 +13524,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13530,10 +13533,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13541,7 +13544,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13550,10 +13553,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13561,7 +13564,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13570,10 +13573,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13581,7 +13584,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13590,10 +13593,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13601,7 +13604,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13610,10 +13613,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13621,7 +13624,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13630,10 +13633,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13641,7 +13644,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13650,10 +13653,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13661,7 +13664,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13670,10 +13673,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13687,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13701,7 +13704,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13715,7 +13718,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13729,7 +13732,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13743,7 +13746,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13757,7 +13760,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13771,7 +13774,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13785,7 +13788,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13799,7 +13802,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13813,7 +13816,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13827,7 +13830,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13842,7 +13845,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13857,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13872,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13887,7 +13890,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13902,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13917,7 +13920,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13932,7 +13935,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13947,7 +13950,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13962,7 +13965,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13977,7 +13980,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13992,7 +13995,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -14007,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -14022,7 +14025,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O98" s="9"/>
     </row>
@@ -14031,7 +14034,7 @@
         <v>40001</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E99" s="14">
         <v>30001</v>
@@ -14040,10 +14043,10 @@
         <v>15</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14051,7 +14054,7 @@
         <v>40002</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E100" s="14">
         <v>30002</v>
@@ -14060,10 +14063,10 @@
         <v>15</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14071,7 +14074,7 @@
         <v>40003</v>
       </c>
       <c r="D101" s="34" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E101" s="33">
         <v>30003</v>
@@ -14080,10 +14083,10 @@
         <v>15</v>
       </c>
       <c r="G101" s="35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H101" s="36" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14091,7 +14094,7 @@
         <v>40011</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E102" s="14">
         <v>30001</v>
@@ -14100,10 +14103,10 @@
         <v>15</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14111,7 +14114,7 @@
         <v>40012</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E103" s="14">
         <v>30002</v>
@@ -14120,10 +14123,10 @@
         <v>15</v>
       </c>
       <c r="G103" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="H103" s="16" t="s">
         <v>259</v>
-      </c>
-      <c r="H103" s="16" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="104" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14131,7 +14134,7 @@
         <v>40013</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E104" s="33">
         <v>30003</v>
@@ -14140,10 +14143,10 @@
         <v>15</v>
       </c>
       <c r="G104" s="35" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H104" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14151,7 +14154,7 @@
         <v>40021</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E105" s="14">
         <v>30001</v>
@@ -14160,10 +14163,10 @@
         <v>15</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14171,7 +14174,7 @@
         <v>40022</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E106" s="14">
         <v>30002</v>
@@ -14180,10 +14183,10 @@
         <v>15</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14191,7 +14194,7 @@
         <v>40023</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E107" s="33">
         <v>30003</v>
@@ -14200,10 +14203,10 @@
         <v>15</v>
       </c>
       <c r="G107" s="35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H107" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14211,7 +14214,7 @@
         <v>40031</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E108" s="33">
         <v>30001</v>
@@ -14220,10 +14223,10 @@
         <v>15</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14231,7 +14234,7 @@
         <v>40032</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E109" s="33">
         <v>30002</v>
@@ -14240,10 +14243,10 @@
         <v>15</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H109" s="40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14251,7 +14254,7 @@
         <v>40033</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E110" s="33">
         <v>30003</v>
@@ -14260,10 +14263,10 @@
         <v>15</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H110" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14271,7 +14274,7 @@
         <v>40041</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E111" s="33">
         <v>30001</v>
@@ -14280,10 +14283,10 @@
         <v>15</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14291,7 +14294,7 @@
         <v>40042</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E112" s="33">
         <v>30002</v>
@@ -14300,10 +14303,10 @@
         <v>15</v>
       </c>
       <c r="G112" s="39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H112" s="40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14311,7 +14314,7 @@
         <v>40043</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E113" s="33">
         <v>30003</v>
@@ -14320,10 +14323,10 @@
         <v>15</v>
       </c>
       <c r="G113" s="35" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H113" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14331,7 +14334,7 @@
         <v>40051</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E114" s="33">
         <v>30001</v>
@@ -14340,10 +14343,10 @@
         <v>15</v>
       </c>
       <c r="G114" s="39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H114" s="40" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="115" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14351,7 +14354,7 @@
         <v>40052</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E115" s="33">
         <v>30002</v>
@@ -14360,10 +14363,10 @@
         <v>15</v>
       </c>
       <c r="G115" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H115" s="40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14371,7 +14374,7 @@
         <v>40053</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E116" s="33">
         <v>30003</v>
@@ -14380,10 +14383,10 @@
         <v>15</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H116" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14391,7 +14394,7 @@
         <v>40061</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E117" s="33">
         <v>30001</v>
@@ -14400,10 +14403,10 @@
         <v>15</v>
       </c>
       <c r="G117" s="39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H117" s="40" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14411,7 +14414,7 @@
         <v>40062</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E118" s="33">
         <v>30002</v>
@@ -14420,10 +14423,10 @@
         <v>15</v>
       </c>
       <c r="G118" s="39" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H118" s="40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14431,7 +14434,7 @@
         <v>40063</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E119" s="33">
         <v>30003</v>
@@ -14440,10 +14443,10 @@
         <v>15</v>
       </c>
       <c r="G119" s="35" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H119" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52D2AFD-B61E-4FFF-8BB1-20D210CC27DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C7AC87-4713-4AD0-B7CB-83D388F7B3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,16 +532,7 @@
     <t>SkillIdAdd;62000108</t>
   </si>
   <si>
-    <t>熔岩大地: 伤害提升25%;爆裂燃烧冷却时间降低3秒;心灵之击:冷却时间缩减3秒</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62021402,62021403,62021404,62021405,62021406;2;0.25@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;4;3@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;4;3</t>
-  </si>
-  <si>
     <t>移动光球</t>
-  </si>
-  <si>
-    <t>新增技能: 魔法光球,对前方区域释放一个移动的光球,对触碰到的单位造成350%+2500点伤害,对触碰的目标移动速度降低50%,持续3秒</t>
   </si>
   <si>
     <t>SkillIdAdd;62000109</t>
@@ -1068,6 +1059,18 @@
   </si>
   <si>
     <t>当生命低于30%时,自身受到减免50%且攻击会恢复自身一定的生命值,持续6秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能: 魔法光球,对前方区域释放一个移动的光球,对触碰到的单位造成350%+2500点伤害,对触碰的目标移动速度降低50%,持续3秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩大地: 伤害提升25%;爆裂燃烧冷却时间降低3秒;心灵之击:冷却时间缩减3秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62021302,62021303,62021304,62021305,62021306;2;0.25@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;4;3@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;4;3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12223,9 +12226,9 @@
   <dimension ref="C1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12376,7 +12379,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12513,7 +12516,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>42</v>
@@ -12573,10 +12576,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12613,7 +12616,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>54</v>
@@ -13053,10 +13056,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>114</v>
+        <v>267</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>115</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13064,7 +13067,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -13073,10 +13076,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>117</v>
+        <v>266</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13093,10 +13096,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13104,7 +13107,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -13113,10 +13116,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13124,7 +13127,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -13133,10 +13136,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13153,10 +13156,10 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13164,7 +13167,7 @@
         <v>30002</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E49" s="9">
         <v>30002</v>
@@ -13173,10 +13176,10 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13193,10 +13196,10 @@
         <v>15</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13204,7 +13207,7 @@
         <v>30011</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E51" s="9">
         <v>30011</v>
@@ -13213,10 +13216,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13224,7 +13227,7 @@
         <v>30012</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E52" s="9">
         <v>30012</v>
@@ -13233,10 +13236,10 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13244,7 +13247,7 @@
         <v>30013</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E53" s="9">
         <v>30013</v>
@@ -13253,10 +13256,10 @@
         <v>22</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13264,7 +13267,7 @@
         <v>30021</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E54" s="9">
         <v>30021</v>
@@ -13273,10 +13276,10 @@
         <v>28</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13284,7 +13287,7 @@
         <v>30022</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E55" s="9">
         <v>30022</v>
@@ -13293,10 +13296,10 @@
         <v>28</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13313,10 +13316,10 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13324,7 +13327,7 @@
         <v>30031</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E57" s="9">
         <v>30031</v>
@@ -13333,10 +13336,10 @@
         <v>32</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13344,7 +13347,7 @@
         <v>30032</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E58" s="9">
         <v>30032</v>
@@ -13353,10 +13356,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13373,10 +13376,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13384,7 +13387,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13393,10 +13396,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13404,7 +13407,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13433,10 +13436,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13444,7 +13447,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13453,10 +13456,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13464,7 +13467,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13473,10 +13476,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13493,10 +13496,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13504,7 +13507,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13513,10 +13516,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13524,7 +13527,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13533,10 +13536,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13544,7 +13547,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13553,10 +13556,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13564,7 +13567,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13573,10 +13576,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13584,7 +13587,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13593,10 +13596,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13604,7 +13607,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13613,10 +13616,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13624,7 +13627,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13633,10 +13636,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13644,7 +13647,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13653,10 +13656,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13664,7 +13667,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13673,10 +13676,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13690,7 +13693,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13704,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13718,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13732,7 +13735,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13746,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13760,7 +13763,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13774,7 +13777,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13788,7 +13791,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13802,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13816,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13830,7 +13833,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13845,7 +13848,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13860,7 +13863,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13875,7 +13878,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13890,7 +13893,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13905,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13920,7 +13923,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13935,7 +13938,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13950,7 +13953,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13965,7 +13968,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13980,7 +13983,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13995,7 +13998,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -14010,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -14025,7 +14028,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O98" s="9"/>
     </row>
@@ -14034,7 +14037,7 @@
         <v>40001</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E99" s="14">
         <v>30001</v>
@@ -14043,10 +14046,10 @@
         <v>15</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14054,7 +14057,7 @@
         <v>40002</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E100" s="14">
         <v>30002</v>
@@ -14063,10 +14066,10 @@
         <v>15</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14074,7 +14077,7 @@
         <v>40003</v>
       </c>
       <c r="D101" s="34" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E101" s="33">
         <v>30003</v>
@@ -14083,10 +14086,10 @@
         <v>15</v>
       </c>
       <c r="G101" s="35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H101" s="36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14094,7 +14097,7 @@
         <v>40011</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E102" s="14">
         <v>30001</v>
@@ -14103,10 +14106,10 @@
         <v>15</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14114,7 +14117,7 @@
         <v>40012</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E103" s="14">
         <v>30002</v>
@@ -14123,10 +14126,10 @@
         <v>15</v>
       </c>
       <c r="G103" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="H103" s="16" t="s">
         <v>256</v>
-      </c>
-      <c r="H103" s="16" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="104" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14134,7 +14137,7 @@
         <v>40013</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E104" s="33">
         <v>30003</v>
@@ -14143,10 +14146,10 @@
         <v>15</v>
       </c>
       <c r="G104" s="35" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H104" s="36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14154,7 +14157,7 @@
         <v>40021</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E105" s="14">
         <v>30001</v>
@@ -14163,10 +14166,10 @@
         <v>15</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14174,7 +14177,7 @@
         <v>40022</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E106" s="14">
         <v>30002</v>
@@ -14183,10 +14186,10 @@
         <v>15</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14194,7 +14197,7 @@
         <v>40023</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E107" s="33">
         <v>30003</v>
@@ -14203,10 +14206,10 @@
         <v>15</v>
       </c>
       <c r="G107" s="35" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H107" s="36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14214,7 +14217,7 @@
         <v>40031</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E108" s="33">
         <v>30001</v>
@@ -14223,10 +14226,10 @@
         <v>15</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14234,7 +14237,7 @@
         <v>40032</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E109" s="33">
         <v>30002</v>
@@ -14243,10 +14246,10 @@
         <v>15</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H109" s="40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14254,7 +14257,7 @@
         <v>40033</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E110" s="33">
         <v>30003</v>
@@ -14263,10 +14266,10 @@
         <v>15</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H110" s="36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14274,7 +14277,7 @@
         <v>40041</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E111" s="33">
         <v>30001</v>
@@ -14283,10 +14286,10 @@
         <v>15</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14294,7 +14297,7 @@
         <v>40042</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E112" s="33">
         <v>30002</v>
@@ -14303,10 +14306,10 @@
         <v>15</v>
       </c>
       <c r="G112" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H112" s="40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14314,7 +14317,7 @@
         <v>40043</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E113" s="33">
         <v>30003</v>
@@ -14323,10 +14326,10 @@
         <v>15</v>
       </c>
       <c r="G113" s="35" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H113" s="36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14334,7 +14337,7 @@
         <v>40051</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E114" s="33">
         <v>30001</v>
@@ -14343,10 +14346,10 @@
         <v>15</v>
       </c>
       <c r="G114" s="39" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H114" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14354,7 +14357,7 @@
         <v>40052</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E115" s="33">
         <v>30002</v>
@@ -14363,10 +14366,10 @@
         <v>15</v>
       </c>
       <c r="G115" s="39" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H115" s="40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14374,7 +14377,7 @@
         <v>40053</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E116" s="33">
         <v>30003</v>
@@ -14383,10 +14386,10 @@
         <v>15</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H116" s="36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14394,7 +14397,7 @@
         <v>40061</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E117" s="33">
         <v>30001</v>
@@ -14403,10 +14406,10 @@
         <v>15</v>
       </c>
       <c r="G117" s="39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H117" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14414,7 +14417,7 @@
         <v>40062</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E118" s="33">
         <v>30002</v>
@@ -14423,10 +14426,10 @@
         <v>15</v>
       </c>
       <c r="G118" s="39" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H118" s="40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14434,7 +14437,7 @@
         <v>40063</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E119" s="33">
         <v>30003</v>
@@ -14443,10 +14446,10 @@
         <v>15</v>
       </c>
       <c r="G119" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H119" s="36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C7AC87-4713-4AD0-B7CB-83D388F7B3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B054F76F-BA8A-40E2-B35E-BFFA5EF0966F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="271">
   <si>
     <t>Id</t>
   </si>
@@ -625,9 +625,6 @@
     <t>SkillIdAdd;62000035</t>
   </si>
   <si>
-    <t>冰冻陷阱: 冷却时间降低2秒;灼热之箭:伤害提升50%;野兽之力:爆发状态延长3秒</t>
-  </si>
-  <si>
     <t>SkillPropertyAdd;63021102,63021103,63021104,63021105,63021106;4;3@SkillPropertyAdd;63022102,63022103,63022104,63022105,63022106;2;0.75@BuffPropertyAdd;92000022;2;3</t>
   </si>
   <si>
@@ -662,9 +659,6 @@
   </si>
   <si>
     <t>SkillPropertyAdd;50000301,50000302;2;0.2</t>
-  </si>
-  <si>
-    <t>生命护盾</t>
   </si>
   <si>
     <t>冰封之地: 伤害提升25%  蓄力一击:伤害提升75% 野兽烈焰:伤害提升至75%</t>
@@ -1071,6 +1065,22 @@
   </si>
   <si>
     <t>SkillPropertyAdd;62021302,62021303,62021304,62021305,62021306;2;0.25@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;4;3@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;4;3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封陷阱: 冷却时间降低2秒;灼热之箭:伤害提升75%;野兽之力:爆发状态延长3秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害有概率给自己释放一个护盾,护盾可以抵抗50%伤害,最大承受生命的30%,持续20秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命之盾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业专精</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12226,9 +12236,9 @@
   <dimension ref="C1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12379,7 +12389,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12516,7 +12526,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>42</v>
@@ -12576,10 +12586,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12616,7 +12626,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>54</v>
@@ -13056,10 +13066,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13076,7 +13086,7 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>115</v>
@@ -13236,7 +13246,7 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>135</v>
@@ -13316,10 +13326,10 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H56" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="57" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13327,7 +13337,7 @@
         <v>30031</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E57" s="9">
         <v>30031</v>
@@ -13336,10 +13346,10 @@
         <v>32</v>
       </c>
       <c r="G57" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H57" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="58" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13347,7 +13357,7 @@
         <v>30032</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E58" s="9">
         <v>30032</v>
@@ -13356,10 +13366,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="H58" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13376,10 +13386,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H59" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13387,7 +13397,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13396,10 +13406,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13407,7 +13417,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13416,7 +13426,7 @@
         <v>38</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>40</v>
@@ -13427,7 +13437,7 @@
         <v>30043</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E62" s="9">
         <v>30043</v>
@@ -13436,10 +13446,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13447,7 +13457,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13456,10 +13466,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13467,7 +13477,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13476,10 +13486,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13496,10 +13506,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13507,7 +13517,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13516,10 +13526,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13527,7 +13537,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13536,10 +13546,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13547,7 +13557,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13556,10 +13566,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13567,7 +13577,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13576,10 +13586,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13587,7 +13597,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13596,10 +13606,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13607,7 +13617,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13616,10 +13626,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13627,7 +13637,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13636,10 +13646,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13647,7 +13657,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13656,10 +13666,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13667,7 +13677,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13676,10 +13686,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13693,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13707,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13721,7 +13731,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13735,7 +13745,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13749,7 +13759,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13763,7 +13773,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13777,7 +13787,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13791,7 +13801,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13805,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13819,7 +13829,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13833,7 +13843,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13848,7 +13858,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13863,7 +13873,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13878,7 +13888,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13893,7 +13903,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13908,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13923,7 +13933,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13938,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13953,7 +13963,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13968,7 +13978,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13983,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -13998,7 +14008,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -14013,7 +14023,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -14028,7 +14038,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O98" s="9"/>
     </row>
@@ -14037,7 +14047,7 @@
         <v>40001</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E99" s="14">
         <v>30001</v>
@@ -14046,10 +14056,10 @@
         <v>15</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14057,7 +14067,7 @@
         <v>40002</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E100" s="14">
         <v>30002</v>
@@ -14066,10 +14076,10 @@
         <v>15</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14077,7 +14087,7 @@
         <v>40003</v>
       </c>
       <c r="D101" s="34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E101" s="33">
         <v>30003</v>
@@ -14086,10 +14096,10 @@
         <v>15</v>
       </c>
       <c r="G101" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H101" s="36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14097,7 +14107,7 @@
         <v>40011</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E102" s="14">
         <v>30001</v>
@@ -14106,10 +14116,10 @@
         <v>15</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14117,7 +14127,7 @@
         <v>40012</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E103" s="14">
         <v>30002</v>
@@ -14126,10 +14136,10 @@
         <v>15</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14137,7 +14147,7 @@
         <v>40013</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E104" s="33">
         <v>30003</v>
@@ -14146,7 +14156,7 @@
         <v>15</v>
       </c>
       <c r="G104" s="35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H104" s="36" t="s">
         <v>130</v>
@@ -14157,7 +14167,7 @@
         <v>40021</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E105" s="14">
         <v>30001</v>
@@ -14166,10 +14176,10 @@
         <v>15</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14177,7 +14187,7 @@
         <v>40022</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E106" s="14">
         <v>30002</v>
@@ -14186,10 +14196,10 @@
         <v>15</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14197,7 +14207,7 @@
         <v>40023</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E107" s="33">
         <v>30003</v>
@@ -14206,7 +14216,7 @@
         <v>15</v>
       </c>
       <c r="G107" s="35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H107" s="36" t="s">
         <v>130</v>
@@ -14217,7 +14227,7 @@
         <v>40031</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E108" s="33">
         <v>30001</v>
@@ -14226,10 +14236,10 @@
         <v>15</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14237,7 +14247,7 @@
         <v>40032</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E109" s="33">
         <v>30002</v>
@@ -14246,7 +14256,7 @@
         <v>15</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H109" s="40" t="s">
         <v>128</v>
@@ -14257,7 +14267,7 @@
         <v>40033</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E110" s="33">
         <v>30003</v>
@@ -14266,7 +14276,7 @@
         <v>15</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H110" s="36" t="s">
         <v>130</v>
@@ -14277,7 +14287,7 @@
         <v>40041</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E111" s="33">
         <v>30001</v>
@@ -14286,10 +14296,10 @@
         <v>15</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14297,7 +14307,7 @@
         <v>40042</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E112" s="33">
         <v>30002</v>
@@ -14306,7 +14316,7 @@
         <v>15</v>
       </c>
       <c r="G112" s="39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H112" s="40" t="s">
         <v>128</v>
@@ -14317,7 +14327,7 @@
         <v>40043</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E113" s="33">
         <v>30003</v>
@@ -14326,7 +14336,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H113" s="36" t="s">
         <v>130</v>
@@ -14337,7 +14347,7 @@
         <v>40051</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E114" s="33">
         <v>30001</v>
@@ -14346,10 +14356,10 @@
         <v>15</v>
       </c>
       <c r="G114" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H114" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14357,7 +14367,7 @@
         <v>40052</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E115" s="33">
         <v>30002</v>
@@ -14366,7 +14376,7 @@
         <v>15</v>
       </c>
       <c r="G115" s="39" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H115" s="40" t="s">
         <v>128</v>
@@ -14377,7 +14387,7 @@
         <v>40053</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E116" s="33">
         <v>30003</v>
@@ -14386,7 +14396,7 @@
         <v>15</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H116" s="36" t="s">
         <v>130</v>
@@ -14397,7 +14407,7 @@
         <v>40061</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E117" s="33">
         <v>30001</v>
@@ -14406,10 +14416,10 @@
         <v>15</v>
       </c>
       <c r="G117" s="39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H117" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14417,7 +14427,7 @@
         <v>40062</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E118" s="33">
         <v>30002</v>
@@ -14426,7 +14436,7 @@
         <v>15</v>
       </c>
       <c r="G118" s="39" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H118" s="40" t="s">
         <v>128</v>
@@ -14437,7 +14447,7 @@
         <v>40063</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E119" s="33">
         <v>30003</v>
@@ -14446,7 +14456,7 @@
         <v>15</v>
       </c>
       <c r="G119" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H119" s="36" t="s">
         <v>130</v>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B054F76F-BA8A-40E2-B35E-BFFA5EF0966F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD55B6D1-E190-4D7F-8CA2-7269DAC34CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1048,10 +1048,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>在生命值低于15%时,立即回复自身30%最大生命,并使自身造成伤害提升25%,持续6秒，90秒冷却时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>当生命低于30%时,自身受到减免50%且攻击会恢复自身一定的生命值,持续6秒</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1081,6 +1077,10 @@
   </si>
   <si>
     <t>职业专精</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在生命值低于10%时,立即回复自身20%最大生命,并使自身造成伤害提升25%,持续6秒，120秒冷却时间</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12236,9 +12236,9 @@
   <dimension ref="C1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12586,7 +12586,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>261</v>
@@ -12626,7 +12626,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>54</v>
@@ -13066,10 +13066,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13086,7 +13086,7 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>115</v>
@@ -13326,7 +13326,7 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>145</v>
@@ -13417,7 +13417,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13426,7 +13426,7 @@
         <v>38</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>40</v>
@@ -13437,7 +13437,7 @@
         <v>30043</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E62" s="9">
         <v>30043</v>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD55B6D1-E190-4D7F-8CA2-7269DAC34CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DD4F56-7B49-4493-B5E8-7BA4BB68315A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -382,9 +382,6 @@
     <t>SkillIdAdd;62000011</t>
   </si>
   <si>
-    <t>元素引力波技能冷却时间降低4秒;光之击冷却时间降低5秒;能量之地附加的攻击效果提升10%</t>
-  </si>
-  <si>
     <t>SkillPropertyAdd;61021402,61021403,61021404,61021405,61021406;4;4@SkillPropertyAdd;61022402,61022403,61022404,61022405,61022406;4;5@BuffPropertyAdd;92011001,92011002,92011003,92011004,92011005;1;0.2</t>
   </si>
   <si>
@@ -677,9 +674,6 @@
   </si>
   <si>
     <t>怒气恢复</t>
-  </si>
-  <si>
-    <t>怒气上限提升至120,怒气恢复每秒额外恢复2点</t>
   </si>
   <si>
     <t>RolePropertyAdd;313403;20@RolePropertyAdd;121103;2</t>
@@ -1081,6 +1075,14 @@
   </si>
   <si>
     <t>在生命值低于10%时,立即回复自身20%最大生命,并使自身造成伤害提升25%,持续6秒，120秒冷却时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素引力波技能冷却时间降低4秒;光之击冷却时间降低5秒;能量之地附加的攻击效果提升10%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒气上限提升至120,怒气恢复每秒额外恢复2点</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12236,9 +12238,9 @@
   <dimension ref="C1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G32:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12389,7 +12391,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12526,7 +12528,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>42</v>
@@ -12586,10 +12588,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12626,7 +12628,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>54</v>
@@ -12706,10 +12708,10 @@
         <v>52</v>
       </c>
       <c r="G25" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12717,7 +12719,7 @@
         <v>10063</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="14">
         <v>10063</v>
@@ -12726,10 +12728,10 @@
         <v>52</v>
       </c>
       <c r="G26" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12737,7 +12739,7 @@
         <v>20001</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="9">
         <v>20001</v>
@@ -12746,10 +12748,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12757,7 +12759,7 @@
         <v>20002</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="9">
         <v>20002</v>
@@ -12766,10 +12768,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12777,7 +12779,7 @@
         <v>20003</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="9">
         <v>20003</v>
@@ -12786,10 +12788,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12797,7 +12799,7 @@
         <v>20011</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="9">
         <v>20011</v>
@@ -12806,10 +12808,10 @@
         <v>22</v>
       </c>
       <c r="G30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12817,7 +12819,7 @@
         <v>20012</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="9">
         <v>20012</v>
@@ -12826,10 +12828,10 @@
         <v>22</v>
       </c>
       <c r="G31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12837,7 +12839,7 @@
         <v>20013</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32" s="9">
         <v>20013</v>
@@ -12846,10 +12848,10 @@
         <v>22</v>
       </c>
       <c r="G32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12857,7 +12859,7 @@
         <v>20021</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="9">
         <v>20021</v>
@@ -12866,10 +12868,10 @@
         <v>28</v>
       </c>
       <c r="G33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12886,10 +12888,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12897,7 +12899,7 @@
         <v>20023</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35" s="9">
         <v>20023</v>
@@ -12906,10 +12908,10 @@
         <v>28</v>
       </c>
       <c r="G35" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12917,7 +12919,7 @@
         <v>20031</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E36" s="9">
         <v>20031</v>
@@ -12926,10 +12928,10 @@
         <v>32</v>
       </c>
       <c r="G36" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12946,10 +12948,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12957,7 +12959,7 @@
         <v>20033</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" s="9">
         <v>20033</v>
@@ -12966,10 +12968,10 @@
         <v>32</v>
       </c>
       <c r="G38" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12977,7 +12979,7 @@
         <v>20041</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E39" s="9">
         <v>20041</v>
@@ -12986,10 +12988,10 @@
         <v>38</v>
       </c>
       <c r="G39" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13006,10 +13008,10 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13017,7 +13019,7 @@
         <v>20043</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="9">
         <v>20043</v>
@@ -13026,10 +13028,10 @@
         <v>38</v>
       </c>
       <c r="G41" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13037,7 +13039,7 @@
         <v>20051</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E42" s="9">
         <v>20051</v>
@@ -13046,10 +13048,10 @@
         <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13066,10 +13068,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13077,7 +13079,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -13086,10 +13088,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13106,10 +13108,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13117,7 +13119,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -13126,10 +13128,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H46" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13137,7 +13139,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -13146,10 +13148,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H47" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13166,10 +13168,10 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="49" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13177,7 +13179,7 @@
         <v>30002</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E49" s="9">
         <v>30002</v>
@@ -13186,10 +13188,10 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="50" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13206,10 +13208,10 @@
         <v>15</v>
       </c>
       <c r="G50" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="51" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13217,7 +13219,7 @@
         <v>30011</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E51" s="9">
         <v>30011</v>
@@ -13226,10 +13228,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H51" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13237,7 +13239,7 @@
         <v>30012</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E52" s="9">
         <v>30012</v>
@@ -13246,10 +13248,10 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13257,7 +13259,7 @@
         <v>30013</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E53" s="9">
         <v>30013</v>
@@ -13266,10 +13268,10 @@
         <v>22</v>
       </c>
       <c r="G53" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="54" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13277,7 +13279,7 @@
         <v>30021</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E54" s="9">
         <v>30021</v>
@@ -13286,10 +13288,10 @@
         <v>28</v>
       </c>
       <c r="G54" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H54" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="55" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13297,7 +13299,7 @@
         <v>30022</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E55" s="9">
         <v>30022</v>
@@ -13306,10 +13308,10 @@
         <v>28</v>
       </c>
       <c r="G55" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H55" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="56" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13326,10 +13328,10 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13337,7 +13339,7 @@
         <v>30031</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E57" s="9">
         <v>30031</v>
@@ -13346,10 +13348,10 @@
         <v>32</v>
       </c>
       <c r="G57" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H57" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="58" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13357,7 +13359,7 @@
         <v>30032</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E58" s="9">
         <v>30032</v>
@@ -13366,10 +13368,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H58" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13386,10 +13388,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H59" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13397,7 +13399,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13406,10 +13408,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13417,7 +13419,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13426,7 +13428,7 @@
         <v>38</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>40</v>
@@ -13437,7 +13439,7 @@
         <v>30043</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E62" s="9">
         <v>30043</v>
@@ -13446,10 +13448,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H62" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13457,7 +13459,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13466,10 +13468,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H63" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13477,7 +13479,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13486,10 +13488,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13506,10 +13508,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13517,7 +13519,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13526,10 +13528,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13537,7 +13539,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13546,10 +13548,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13557,7 +13559,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13566,10 +13568,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13577,7 +13579,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13586,10 +13588,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13597,7 +13599,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13606,10 +13608,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13617,7 +13619,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13626,10 +13628,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13637,7 +13639,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13646,10 +13648,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13657,7 +13659,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13666,10 +13668,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13677,7 +13679,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13686,10 +13688,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13703,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13717,7 +13719,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13731,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13745,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13759,7 +13761,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13773,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13787,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13801,7 +13803,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13815,7 +13817,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13829,7 +13831,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13843,7 +13845,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13858,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13873,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13888,7 +13890,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13903,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13918,7 +13920,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13933,7 +13935,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13948,7 +13950,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13963,7 +13965,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13978,7 +13980,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13993,7 +13995,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -14008,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -14023,7 +14025,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -14038,7 +14040,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O98" s="9"/>
     </row>
@@ -14047,7 +14049,7 @@
         <v>40001</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E99" s="14">
         <v>30001</v>
@@ -14056,10 +14058,10 @@
         <v>15</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14067,7 +14069,7 @@
         <v>40002</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E100" s="14">
         <v>30002</v>
@@ -14076,10 +14078,10 @@
         <v>15</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14087,7 +14089,7 @@
         <v>40003</v>
       </c>
       <c r="D101" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E101" s="33">
         <v>30003</v>
@@ -14096,10 +14098,10 @@
         <v>15</v>
       </c>
       <c r="G101" s="35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H101" s="36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14107,7 +14109,7 @@
         <v>40011</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E102" s="14">
         <v>30001</v>
@@ -14116,10 +14118,10 @@
         <v>15</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14127,7 +14129,7 @@
         <v>40012</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E103" s="14">
         <v>30002</v>
@@ -14136,10 +14138,10 @@
         <v>15</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14147,7 +14149,7 @@
         <v>40013</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E104" s="33">
         <v>30003</v>
@@ -14156,10 +14158,10 @@
         <v>15</v>
       </c>
       <c r="G104" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H104" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14167,7 +14169,7 @@
         <v>40021</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E105" s="14">
         <v>30001</v>
@@ -14176,10 +14178,10 @@
         <v>15</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14187,7 +14189,7 @@
         <v>40022</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E106" s="14">
         <v>30002</v>
@@ -14196,10 +14198,10 @@
         <v>15</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14207,7 +14209,7 @@
         <v>40023</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E107" s="33">
         <v>30003</v>
@@ -14216,10 +14218,10 @@
         <v>15</v>
       </c>
       <c r="G107" s="35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H107" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14227,7 +14229,7 @@
         <v>40031</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E108" s="33">
         <v>30001</v>
@@ -14236,10 +14238,10 @@
         <v>15</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14247,7 +14249,7 @@
         <v>40032</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E109" s="33">
         <v>30002</v>
@@ -14256,10 +14258,10 @@
         <v>15</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H109" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14267,7 +14269,7 @@
         <v>40033</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E110" s="33">
         <v>30003</v>
@@ -14276,10 +14278,10 @@
         <v>15</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H110" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14287,7 +14289,7 @@
         <v>40041</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E111" s="33">
         <v>30001</v>
@@ -14296,10 +14298,10 @@
         <v>15</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14307,7 +14309,7 @@
         <v>40042</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E112" s="33">
         <v>30002</v>
@@ -14316,10 +14318,10 @@
         <v>15</v>
       </c>
       <c r="G112" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H112" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14327,7 +14329,7 @@
         <v>40043</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E113" s="33">
         <v>30003</v>
@@ -14336,10 +14338,10 @@
         <v>15</v>
       </c>
       <c r="G113" s="35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H113" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14347,7 +14349,7 @@
         <v>40051</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E114" s="33">
         <v>30001</v>
@@ -14356,10 +14358,10 @@
         <v>15</v>
       </c>
       <c r="G114" s="39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H114" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14367,7 +14369,7 @@
         <v>40052</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E115" s="33">
         <v>30002</v>
@@ -14376,10 +14378,10 @@
         <v>15</v>
       </c>
       <c r="G115" s="39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H115" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14387,7 +14389,7 @@
         <v>40053</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E116" s="33">
         <v>30003</v>
@@ -14396,10 +14398,10 @@
         <v>15</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H116" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14407,7 +14409,7 @@
         <v>40061</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E117" s="33">
         <v>30001</v>
@@ -14416,10 +14418,10 @@
         <v>15</v>
       </c>
       <c r="G117" s="39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H117" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14427,7 +14429,7 @@
         <v>40062</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E118" s="33">
         <v>30002</v>
@@ -14436,10 +14438,10 @@
         <v>15</v>
       </c>
       <c r="G118" s="39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H118" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14447,7 +14449,7 @@
         <v>40063</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E119" s="33">
         <v>30003</v>
@@ -14456,10 +14458,10 @@
         <v>15</v>
       </c>
       <c r="G119" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H119" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DD4F56-7B49-4493-B5E8-7BA4BB68315A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981BA4CF-D5D7-4EE8-A8B4-93F47C0FC1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,9 +217,6 @@
     <t>talentDes</t>
   </si>
   <si>
-    <t>AddPropreListStr</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -229,21 +226,9 @@
     <t>生命恢复</t>
   </si>
   <si>
-    <t>新增技能生命恢复,可以立即回复自身20%生命</t>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000001</t>
-  </si>
-  <si>
     <t>强击</t>
   </si>
   <si>
-    <t>新增强击技能,立即对目标造成300%伤害</t>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000002</t>
-  </si>
-  <si>
     <t>伤害上升</t>
   </si>
   <si>
@@ -262,9 +247,6 @@
     <t>进退自由</t>
   </si>
   <si>
-    <t>跳跃斩和冲锋斩会对目标区域伤害提升75%</t>
-  </si>
-  <si>
     <t>SkillPropertyAdd;61011302,61011303,61011304,61011305,61011306;2;0.75@SkillPropertyAdd;61012302,61012303,61012304,61012305,61012306;2;0.75</t>
   </si>
   <si>
@@ -331,9 +313,6 @@
     <t>攻击恢复</t>
   </si>
   <si>
-    <t>普通攻击有20%概率回复自身最大生命的2%</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000007</t>
   </si>
   <si>
@@ -376,9 +355,6 @@
     <t>以眼还眼</t>
   </si>
   <si>
-    <t>每次闪避目标攻击将对目标造成100%攻击伤害</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000011</t>
   </si>
   <si>
@@ -404,9 +380,6 @@
   </si>
   <si>
     <t>轰击</t>
-  </si>
-  <si>
-    <t>新增技能:轰击 立即对目标及其范围造成250%伤害</t>
   </si>
   <si>
     <t>SkillIdAdd;62000101</t>
@@ -1083,6 +1056,42 @@
   </si>
   <si>
     <t>怒气上限提升至120,怒气恢复每秒额外恢复2点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增强击技能,立即对目标造成400%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能:轰击 立即对目标及其范围造成350%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃斩和冲锋斩会对目标区域伤害提升75%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddPropreListStr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次闪避目标攻击将对目标造成100%攻击伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击有20%概率回复自身最大生命的4%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增被动技能生命恢复,受到伤害有一定概率恢复自身最大生命值的5%</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12237,10 +12246,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G32:G42"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12291,27 +12300,27 @@
         <v>8</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>9</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12319,7 +12328,7 @@
         <v>10001</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="9">
         <v>10001</v>
@@ -12328,10 +12337,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12339,7 +12348,7 @@
         <v>10002</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" s="9">
         <v>10002</v>
@@ -12348,10 +12357,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12359,7 +12368,7 @@
         <v>10003</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8" s="9">
         <v>10003</v>
@@ -12368,10 +12377,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12379,7 +12388,7 @@
         <v>10011</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9">
         <v>10011</v>
@@ -12388,10 +12397,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12399,7 +12408,7 @@
         <v>10012</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E10" s="9">
         <v>10012</v>
@@ -12408,10 +12417,10 @@
         <v>22</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12419,7 +12428,7 @@
         <v>10013</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11" s="9">
         <v>10013</v>
@@ -12428,10 +12437,10 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12439,7 +12448,7 @@
         <v>10021</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E12" s="9">
         <v>10021</v>
@@ -12448,10 +12457,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12459,7 +12468,7 @@
         <v>10022</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E13" s="9">
         <v>10022</v>
@@ -12468,10 +12477,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12479,7 +12488,7 @@
         <v>10023</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E14" s="9">
         <v>10023</v>
@@ -12488,10 +12497,10 @@
         <v>28</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12499,7 +12508,7 @@
         <v>10031</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E15" s="9">
         <v>10031</v>
@@ -12508,10 +12517,10 @@
         <v>32</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12519,7 +12528,7 @@
         <v>10032</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E16" s="9">
         <v>10032</v>
@@ -12528,10 +12537,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12539,7 +12548,7 @@
         <v>10033</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E17" s="9">
         <v>10033</v>
@@ -12548,10 +12557,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12559,7 +12568,7 @@
         <v>10041</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E18" s="9">
         <v>10041</v>
@@ -12568,10 +12577,10 @@
         <v>38</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>47</v>
+        <v>269</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12579,7 +12588,7 @@
         <v>10042</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E19" s="9">
         <v>10042</v>
@@ -12588,10 +12597,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12599,7 +12608,7 @@
         <v>10043</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E20" s="9">
         <v>10043</v>
@@ -12608,10 +12617,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12619,7 +12628,7 @@
         <v>10051</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E21" s="9">
         <v>10051</v>
@@ -12628,10 +12637,10 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12639,7 +12648,7 @@
         <v>10052</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E22" s="9">
         <v>10052</v>
@@ -12648,10 +12657,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12659,7 +12668,7 @@
         <v>10053</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E23" s="9">
         <v>10053</v>
@@ -12668,10 +12677,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12679,7 +12688,7 @@
         <v>10061</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E24" s="14">
         <v>10061</v>
@@ -12688,10 +12697,10 @@
         <v>52</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>62</v>
+        <v>268</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12699,7 +12708,7 @@
         <v>10062</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E25" s="14">
         <v>10062</v>
@@ -12708,10 +12717,10 @@
         <v>52</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12719,7 +12728,7 @@
         <v>10063</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E26" s="14">
         <v>10063</v>
@@ -12728,10 +12737,10 @@
         <v>52</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12739,7 +12748,7 @@
         <v>20001</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E27" s="9">
         <v>20001</v>
@@ -12748,10 +12757,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12759,7 +12768,7 @@
         <v>20002</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E28" s="9">
         <v>20002</v>
@@ -12768,10 +12777,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12779,7 +12788,7 @@
         <v>20003</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E29" s="9">
         <v>20003</v>
@@ -12788,10 +12797,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12799,7 +12808,7 @@
         <v>20011</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E30" s="9">
         <v>20011</v>
@@ -12808,10 +12817,10 @@
         <v>22</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12819,7 +12828,7 @@
         <v>20012</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E31" s="9">
         <v>20012</v>
@@ -12828,10 +12837,10 @@
         <v>22</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12839,7 +12848,7 @@
         <v>20013</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E32" s="9">
         <v>20013</v>
@@ -12848,10 +12857,10 @@
         <v>22</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12859,7 +12868,7 @@
         <v>20021</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E33" s="9">
         <v>20021</v>
@@ -12868,10 +12877,10 @@
         <v>28</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12879,7 +12888,7 @@
         <v>20022</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E34" s="9">
         <v>20022</v>
@@ -12888,10 +12897,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12899,7 +12908,7 @@
         <v>20023</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E35" s="9">
         <v>20023</v>
@@ -12908,10 +12917,10 @@
         <v>28</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12919,7 +12928,7 @@
         <v>20031</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E36" s="9">
         <v>20031</v>
@@ -12928,10 +12937,10 @@
         <v>32</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12939,7 +12948,7 @@
         <v>20032</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E37" s="9">
         <v>20032</v>
@@ -12948,10 +12957,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12959,7 +12968,7 @@
         <v>20033</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E38" s="9">
         <v>20033</v>
@@ -12968,10 +12977,10 @@
         <v>32</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12979,7 +12988,7 @@
         <v>20041</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E39" s="9">
         <v>20041</v>
@@ -12988,10 +12997,10 @@
         <v>38</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12999,7 +13008,7 @@
         <v>20042</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E40" s="9">
         <v>20042</v>
@@ -13008,10 +13017,10 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13019,7 +13028,7 @@
         <v>20043</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E41" s="9">
         <v>20043</v>
@@ -13028,10 +13037,10 @@
         <v>38</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13039,7 +13048,7 @@
         <v>20051</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E42" s="9">
         <v>20051</v>
@@ -13048,10 +13057,10 @@
         <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13059,7 +13068,7 @@
         <v>20052</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E43" s="9">
         <v>20052</v>
@@ -13068,10 +13077,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13079,7 +13088,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -13088,10 +13097,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13099,7 +13108,7 @@
         <v>20061</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E45" s="9">
         <v>20061</v>
@@ -13108,10 +13117,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13119,7 +13128,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -13128,10 +13137,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13139,7 +13148,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -13148,10 +13157,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13159,7 +13168,7 @@
         <v>30001</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" s="9">
         <v>30001</v>
@@ -13168,10 +13177,10 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13179,7 +13188,7 @@
         <v>30002</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E49" s="9">
         <v>30002</v>
@@ -13188,10 +13197,10 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13199,7 +13208,7 @@
         <v>30003</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E50" s="9">
         <v>30003</v>
@@ -13208,10 +13217,10 @@
         <v>15</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13219,7 +13228,7 @@
         <v>30011</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E51" s="9">
         <v>30011</v>
@@ -13228,10 +13237,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13239,7 +13248,7 @@
         <v>30012</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E52" s="9">
         <v>30012</v>
@@ -13248,10 +13257,10 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13259,7 +13268,7 @@
         <v>30013</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E53" s="9">
         <v>30013</v>
@@ -13268,10 +13277,10 @@
         <v>22</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13279,7 +13288,7 @@
         <v>30021</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E54" s="9">
         <v>30021</v>
@@ -13288,10 +13297,10 @@
         <v>28</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13299,7 +13308,7 @@
         <v>30022</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E55" s="9">
         <v>30022</v>
@@ -13308,10 +13317,10 @@
         <v>28</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13319,7 +13328,7 @@
         <v>30023</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E56" s="9">
         <v>30023</v>
@@ -13328,10 +13337,10 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13339,7 +13348,7 @@
         <v>30031</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E57" s="9">
         <v>30031</v>
@@ -13348,10 +13357,10 @@
         <v>32</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13359,7 +13368,7 @@
         <v>30032</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E58" s="9">
         <v>30032</v>
@@ -13368,10 +13377,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13379,7 +13388,7 @@
         <v>30033</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E59" s="9">
         <v>30033</v>
@@ -13388,10 +13397,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13399,7 +13408,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13408,10 +13417,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13419,7 +13428,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13428,10 +13437,10 @@
         <v>38</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13439,7 +13448,7 @@
         <v>30043</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E62" s="9">
         <v>30043</v>
@@ -13448,10 +13457,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13459,7 +13468,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13468,10 +13477,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13479,7 +13488,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13488,10 +13497,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13499,7 +13508,7 @@
         <v>30053</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E65" s="9">
         <v>30053</v>
@@ -13508,10 +13517,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13519,7 +13528,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13528,10 +13537,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13539,7 +13548,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13548,10 +13557,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13559,7 +13568,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13568,10 +13577,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13579,7 +13588,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13588,10 +13597,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13599,7 +13608,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13608,10 +13617,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13619,7 +13628,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13628,10 +13637,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13639,7 +13648,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13648,10 +13657,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13659,7 +13668,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13668,10 +13677,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13679,7 +13688,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13688,10 +13697,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13705,7 +13714,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13719,7 +13728,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13733,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13747,7 +13756,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13761,7 +13770,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13775,7 +13784,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13789,7 +13798,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13803,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13817,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13831,7 +13840,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13845,7 +13854,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13860,7 +13869,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13875,7 +13884,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13890,7 +13899,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13905,7 +13914,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13920,7 +13929,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13935,7 +13944,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13950,7 +13959,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13965,7 +13974,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13980,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -13995,7 +14004,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -14010,7 +14019,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -14025,7 +14034,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -14040,7 +14049,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="O98" s="9"/>
     </row>
@@ -14049,7 +14058,7 @@
         <v>40001</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E99" s="14">
         <v>30001</v>
@@ -14058,10 +14067,10 @@
         <v>15</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14069,7 +14078,7 @@
         <v>40002</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E100" s="14">
         <v>30002</v>
@@ -14078,10 +14087,10 @@
         <v>15</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14089,7 +14098,7 @@
         <v>40003</v>
       </c>
       <c r="D101" s="34" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E101" s="33">
         <v>30003</v>
@@ -14098,10 +14107,10 @@
         <v>15</v>
       </c>
       <c r="G101" s="35" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H101" s="36" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14109,7 +14118,7 @@
         <v>40011</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E102" s="14">
         <v>30001</v>
@@ -14118,10 +14127,10 @@
         <v>15</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14129,7 +14138,7 @@
         <v>40012</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E103" s="14">
         <v>30002</v>
@@ -14138,10 +14147,10 @@
         <v>15</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14149,7 +14158,7 @@
         <v>40013</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E104" s="33">
         <v>30003</v>
@@ -14158,10 +14167,10 @@
         <v>15</v>
       </c>
       <c r="G104" s="35" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H104" s="36" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14169,7 +14178,7 @@
         <v>40021</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E105" s="14">
         <v>30001</v>
@@ -14178,10 +14187,10 @@
         <v>15</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14189,7 +14198,7 @@
         <v>40022</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E106" s="14">
         <v>30002</v>
@@ -14198,10 +14207,10 @@
         <v>15</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14209,7 +14218,7 @@
         <v>40023</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E107" s="33">
         <v>30003</v>
@@ -14218,10 +14227,10 @@
         <v>15</v>
       </c>
       <c r="G107" s="35" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H107" s="36" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14229,7 +14238,7 @@
         <v>40031</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E108" s="33">
         <v>30001</v>
@@ -14238,10 +14247,10 @@
         <v>15</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14249,7 +14258,7 @@
         <v>40032</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E109" s="33">
         <v>30002</v>
@@ -14258,10 +14267,10 @@
         <v>15</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H109" s="40" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14269,7 +14278,7 @@
         <v>40033</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E110" s="33">
         <v>30003</v>
@@ -14278,10 +14287,10 @@
         <v>15</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H110" s="36" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14289,7 +14298,7 @@
         <v>40041</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E111" s="33">
         <v>30001</v>
@@ -14298,10 +14307,10 @@
         <v>15</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14309,7 +14318,7 @@
         <v>40042</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E112" s="33">
         <v>30002</v>
@@ -14318,10 +14327,10 @@
         <v>15</v>
       </c>
       <c r="G112" s="39" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H112" s="40" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14329,7 +14338,7 @@
         <v>40043</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E113" s="33">
         <v>30003</v>
@@ -14338,10 +14347,10 @@
         <v>15</v>
       </c>
       <c r="G113" s="35" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H113" s="36" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14349,7 +14358,7 @@
         <v>40051</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E114" s="33">
         <v>30001</v>
@@ -14358,10 +14367,10 @@
         <v>15</v>
       </c>
       <c r="G114" s="39" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H114" s="40" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14369,7 +14378,7 @@
         <v>40052</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E115" s="33">
         <v>30002</v>
@@ -14378,10 +14387,10 @@
         <v>15</v>
       </c>
       <c r="G115" s="39" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H115" s="40" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14389,7 +14398,7 @@
         <v>40053</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E116" s="33">
         <v>30003</v>
@@ -14398,10 +14407,10 @@
         <v>15</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H116" s="36" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14409,7 +14418,7 @@
         <v>40061</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E117" s="33">
         <v>30001</v>
@@ -14418,10 +14427,10 @@
         <v>15</v>
       </c>
       <c r="G117" s="39" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H117" s="40" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14429,7 +14438,7 @@
         <v>40062</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E118" s="33">
         <v>30002</v>
@@ -14438,10 +14447,10 @@
         <v>15</v>
       </c>
       <c r="G118" s="39" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H118" s="40" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14449,7 +14458,7 @@
         <v>40063</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E119" s="33">
         <v>30003</v>
@@ -14458,10 +14467,10 @@
         <v>15</v>
       </c>
       <c r="G119" s="35" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H119" s="36" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981BA4CF-D5D7-4EE8-A8B4-93F47C0FC1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A06E692-9C35-4F02-BABE-DDE3E0B2BA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -628,9 +628,6 @@
     <t>弓箭普通攻击对目标造成伤害提升20%</t>
   </si>
   <si>
-    <t>SkillPropertyAdd;50000301,50000302;2;0.2</t>
-  </si>
-  <si>
     <t>冰封之地: 伤害提升25%  蓄力一击:伤害提升75% 野兽烈焰:伤害提升至75%</t>
   </si>
   <si>
@@ -1092,6 +1089,10 @@
   </si>
   <si>
     <t>新增被动技能生命恢复,受到伤害有一定概率恢复自身最大生命值的5%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;60000501,60000502;2;0.2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12246,10 +12247,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12300,7 +12301,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12337,10 +12338,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12357,10 +12358,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12400,7 +12401,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12417,7 +12418,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>19</v>
@@ -12537,7 +12538,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>36</v>
@@ -12577,7 +12578,7 @@
         <v>38</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>41</v>
@@ -12597,10 +12598,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12637,7 +12638,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>47</v>
@@ -12697,7 +12698,7 @@
         <v>52</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>55</v>
@@ -12717,7 +12718,7 @@
         <v>52</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>56</v>
@@ -12777,7 +12778,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>64</v>
@@ -13077,10 +13078,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13097,7 +13098,7 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>105</v>
@@ -13257,7 +13258,7 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>125</v>
@@ -13337,7 +13338,7 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>135</v>
@@ -13420,7 +13421,7 @@
         <v>145</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>146</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13428,7 +13429,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13437,7 +13438,7 @@
         <v>38</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>34</v>
@@ -13448,7 +13449,7 @@
         <v>30043</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E62" s="9">
         <v>30043</v>
@@ -13457,10 +13458,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H62" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13468,7 +13469,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13477,10 +13478,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H63" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13488,7 +13489,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13497,10 +13498,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13517,10 +13518,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H65" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13528,7 +13529,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13537,10 +13538,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H66" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13548,7 +13549,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13557,10 +13558,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="H67" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13568,7 +13569,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13577,10 +13578,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13588,7 +13589,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13597,10 +13598,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H69" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13608,7 +13609,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13617,10 +13618,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H70" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13628,7 +13629,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13637,10 +13638,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H71" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13648,7 +13649,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13657,10 +13658,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H72" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13668,7 +13669,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13677,10 +13678,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H73" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13688,7 +13689,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13697,10 +13698,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H74" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13714,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13728,7 +13729,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13742,7 +13743,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13756,7 +13757,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13770,7 +13771,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13784,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13798,7 +13799,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13812,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13826,7 +13827,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13840,7 +13841,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13854,7 +13855,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13869,7 +13870,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13884,7 +13885,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13899,7 +13900,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13914,7 +13915,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13929,7 +13930,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13944,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13959,7 +13960,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13974,7 +13975,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13989,7 +13990,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -14004,7 +14005,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -14019,7 +14020,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -14034,7 +14035,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -14049,7 +14050,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O98" s="9"/>
     </row>
@@ -14058,7 +14059,7 @@
         <v>40001</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E99" s="14">
         <v>30001</v>
@@ -14067,10 +14068,10 @@
         <v>15</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14078,7 +14079,7 @@
         <v>40002</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E100" s="14">
         <v>30002</v>
@@ -14087,10 +14088,10 @@
         <v>15</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14098,7 +14099,7 @@
         <v>40003</v>
       </c>
       <c r="D101" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E101" s="33">
         <v>30003</v>
@@ -14107,10 +14108,10 @@
         <v>15</v>
       </c>
       <c r="G101" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H101" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14118,7 +14119,7 @@
         <v>40011</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E102" s="14">
         <v>30001</v>
@@ -14127,10 +14128,10 @@
         <v>15</v>
       </c>
       <c r="G102" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="H102" s="16" t="s">
         <v>241</v>
-      </c>
-      <c r="H102" s="16" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="103" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14138,7 +14139,7 @@
         <v>40012</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E103" s="14">
         <v>30002</v>
@@ -14147,10 +14148,10 @@
         <v>15</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14158,7 +14159,7 @@
         <v>40013</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E104" s="33">
         <v>30003</v>
@@ -14167,7 +14168,7 @@
         <v>15</v>
       </c>
       <c r="G104" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H104" s="36" t="s">
         <v>120</v>
@@ -14178,7 +14179,7 @@
         <v>40021</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E105" s="14">
         <v>30001</v>
@@ -14187,10 +14188,10 @@
         <v>15</v>
       </c>
       <c r="G105" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="H105" s="16" t="s">
         <v>244</v>
-      </c>
-      <c r="H105" s="16" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="106" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14198,7 +14199,7 @@
         <v>40022</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E106" s="14">
         <v>30002</v>
@@ -14207,10 +14208,10 @@
         <v>15</v>
       </c>
       <c r="G106" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="H106" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="H106" s="16" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="107" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14218,7 +14219,7 @@
         <v>40023</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E107" s="33">
         <v>30003</v>
@@ -14227,7 +14228,7 @@
         <v>15</v>
       </c>
       <c r="G107" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H107" s="36" t="s">
         <v>120</v>
@@ -14238,7 +14239,7 @@
         <v>40031</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E108" s="33">
         <v>30001</v>
@@ -14247,10 +14248,10 @@
         <v>15</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14258,7 +14259,7 @@
         <v>40032</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E109" s="33">
         <v>30002</v>
@@ -14267,7 +14268,7 @@
         <v>15</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H109" s="40" t="s">
         <v>118</v>
@@ -14278,7 +14279,7 @@
         <v>40033</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E110" s="33">
         <v>30003</v>
@@ -14287,7 +14288,7 @@
         <v>15</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H110" s="36" t="s">
         <v>120</v>
@@ -14298,7 +14299,7 @@
         <v>40041</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E111" s="33">
         <v>30001</v>
@@ -14307,10 +14308,10 @@
         <v>15</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14318,7 +14319,7 @@
         <v>40042</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E112" s="33">
         <v>30002</v>
@@ -14327,7 +14328,7 @@
         <v>15</v>
       </c>
       <c r="G112" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H112" s="40" t="s">
         <v>118</v>
@@ -14338,7 +14339,7 @@
         <v>40043</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E113" s="33">
         <v>30003</v>
@@ -14347,7 +14348,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H113" s="36" t="s">
         <v>120</v>
@@ -14358,7 +14359,7 @@
         <v>40051</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E114" s="33">
         <v>30001</v>
@@ -14367,10 +14368,10 @@
         <v>15</v>
       </c>
       <c r="G114" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H114" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14378,7 +14379,7 @@
         <v>40052</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E115" s="33">
         <v>30002</v>
@@ -14387,7 +14388,7 @@
         <v>15</v>
       </c>
       <c r="G115" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H115" s="40" t="s">
         <v>118</v>
@@ -14398,7 +14399,7 @@
         <v>40053</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E116" s="33">
         <v>30003</v>
@@ -14407,7 +14408,7 @@
         <v>15</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H116" s="36" t="s">
         <v>120</v>
@@ -14418,7 +14419,7 @@
         <v>40061</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E117" s="33">
         <v>30001</v>
@@ -14427,10 +14428,10 @@
         <v>15</v>
       </c>
       <c r="G117" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H117" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14438,7 +14439,7 @@
         <v>40062</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E118" s="33">
         <v>30002</v>
@@ -14447,7 +14448,7 @@
         <v>15</v>
       </c>
       <c r="G118" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H118" s="40" t="s">
         <v>118</v>
@@ -14458,7 +14459,7 @@
         <v>40063</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E119" s="33">
         <v>30003</v>
@@ -14467,7 +14468,7 @@
         <v>15</v>
       </c>
       <c r="G119" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H119" s="36" t="s">
         <v>120</v>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A06E692-9C35-4F02-BABE-DDE3E0B2BA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF94D9B-5023-4EFB-94F4-04DDD730A476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="271">
   <si>
     <t>Id</t>
   </si>
@@ -637,27 +637,448 @@
     <t>射击穿透</t>
   </si>
   <si>
-    <t>物理穿透提升10%</t>
-  </si>
-  <si>
-    <t>RolePropertyAdd;202203;0.1</t>
-  </si>
-  <si>
     <t>怒气恢复</t>
   </si>
   <si>
-    <t>RolePropertyAdd;313403;20@RolePropertyAdd;121103;2</t>
+    <t>SkillPropertyAdd;63021402,63021403,63021404,63021405,63021406;4;5@BuffIdAdd;63022402,63022403,63022404,63022405,63022406;92000029@SkillIdAdd;62000042</t>
+  </si>
+  <si>
+    <t>攻击之力</t>
+  </si>
+  <si>
+    <t>每次攻击目标会有一定概率使其所有防御降低为0,持续5秒</t>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000038</t>
+  </si>
+  <si>
+    <t>爆炸射击</t>
+  </si>
+  <si>
+    <t>对目标发射散射攻击,散射攻击目标命中目标后会对附近单位造成100%范围伤害</t>
+  </si>
+  <si>
+    <t>BuffIdAdd;63012202,63012203,63012204,63012205,63012206;92000034</t>
+  </si>
+  <si>
+    <t>多重射击</t>
+  </si>
+  <si>
+    <t>攻击会对目标及附近的单位同时攻击</t>
+  </si>
+  <si>
+    <t>生命提升</t>
+  </si>
+  <si>
+    <t>攻击+10;攻击+20;攻击+30</t>
+  </si>
+  <si>
+    <t>RolePropertyAdd;100203;50</t>
+  </si>
+  <si>
+    <t>光环技能范围</t>
+  </si>
+  <si>
+    <t>旋风斩的技能伤害范围+1;旋风斩的技能伤害范围+2</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;80000013;1;10</t>
+  </si>
+  <si>
+    <t>元素法球附带给自身加血对敌人定身效果</t>
+  </si>
+  <si>
+    <t>前冲距离延长3码距离</t>
+  </si>
+  <si>
+    <t>BuffIdAdd;61021201;90001021@BuffInitIdAdd;61021201;90000005</t>
+  </si>
+  <si>
+    <t>技能元素爆冰更换为元素法球</t>
+  </si>
+  <si>
+    <t>使用审判时可以将目标减速30%,持续3秒;使用审判时可以将目标减速30%,持续5秒</t>
+  </si>
+  <si>
+    <t>ReplaceSkillId;61021301;61021201</t>
+  </si>
+  <si>
+    <t>新增技能光环</t>
+  </si>
+  <si>
+    <t>击杀怪物获得金币+1%;击杀怪物获得金币+2%;击杀怪物获得金币+3%;击杀怪物获得金币+4%;击杀怪物获得金币+5%</t>
+  </si>
+  <si>
+    <t>SkillIdAdd;80000013</t>
+  </si>
+  <si>
+    <t>延长速度降低的时间</t>
+  </si>
+  <si>
+    <t>基础移动速度+4%;基础移动速度+8%;基础移动速度+12%;基础移动速度+16%;基础移动速度+20%</t>
+  </si>
+  <si>
+    <t>BuffPropertyAdd;90001032;2;10</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;4;2</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62011102,62011103,62011104,62011105,62011106;2;0.5</t>
+  </si>
+  <si>
+    <t>BuffIdAdd;61011102,61011103,61011104,61011105,61011106;69000046</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;2;0.5</t>
+  </si>
+  <si>
+    <t>BuffIdAdd;62012302,62012303,62012304,62012305,62012306;69000047</t>
+  </si>
+  <si>
+    <t>BuffIdAdd;51011302,51011303,51011304,51011305,51011306;69000076</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62012202,62012203,62012204,62012205,62012206;4;2</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61011302,61011303,61011304,61011305,61011306;4;2</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012302,61012303,61012304,61012305,61012306;2;0.5@SkillPropertyAdd;63012102,63012103,63012104,63012105,63012106;2;0.5</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62011202,62011203,62011204,62011205,62011206;2;0.5</t>
+  </si>
+  <si>
+    <t>BuffIdAdd;61011302,61011303,61011304,61011305,61011306;69000072</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012302,61012303,61012304,61012305,61012306;2;0.5</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62011302,62011303,62011304,62011305,62011306;4;2</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62012102,62012103,62012104,62012105,62012106;2;0.25</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;4;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次普攻有30%几率获得2秒霸体效果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸体</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓速</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5次普攻降低敌人40%移动速度持续2秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤术</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗召唤分身加一</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000003</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;77010001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂怒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤强化</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗召唤师召唤的仆从获得30%技能减伤效果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>减免</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>急速</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤提升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗侵袭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗侵蚀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗夜娃娃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>影分身</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>随影</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾风</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争怒吼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影刺客释放暗影顺闪技能和暗影之刃技能时暗影分身会跟随自身释放该技能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾风审判技能伤害增加30%并且命中敌人3次对敌人造成1秒禁锢效果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗召唤师召唤的契约者生命值低于30%时将对敌人立即发动一次冲锋斩，冲向敌人位置对范围内敌人造成100%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗召唤的分身消失后恢复自身8%最大生命值，黑暗召唤师仆从被击败后自身恢复3%最大生命值，暗影刺客幻影分身消失后恢复自身5%最大生命值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次受到攻击有15%几率召唤一个影分身顺闪至敌方身后对敌人造成150%伤害随后消失</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能造成的伤害击杀目标时立即刷新该技能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即召唤一个暗夜娃娃，暗夜娃娃将嘲讽敌人对齐进行攻击并且每次受到伤害有20%几率会对周围射出毒刺对敌人造成50%伤害，暗夜娃娃存在时间6秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每4次普攻强化下一次普攻附带挥斩对敌人造成200%伤害和1秒沉默效果，并且立即对敌人附加1层黑暗印记</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值低于20%时立即恢复至满血并且获得60%减伤效果持续5秒，该技能有100秒冷却</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在当前位置生成一个暗影卫并对周围敌人造成2秒禁锢效果并位移至指定位置（暗影卫无法选中且无法移动会对周围敌人持续进行普攻暗影卫属性来源于自身且攻击速度提升100%），持续10秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗影卫</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次受到攻击有30%几率对攻击者附带一层黑暗印记并且立即眩晕敌方1秒，该效果有5秒冷却</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每层黑暗印记使敌人造成的伤害降低5%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗召唤师仆从召唤上限提升5个</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;63304001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;63304002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplaceSkillId;60000501;60000505@ReplaceSkillId;60000502;60000505</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身普攻伤害提升30%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值低于30%时立即获得狂怒效果每隔4秒会对自身周围形成一个光柱对敌人造成120%伤害和1秒禁锢效果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;63304003</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;63304004</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身获得30%免伤效果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;63304005</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次普攻提升5%攻击速度和移动速度，最多可叠10层</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;63304006</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能：猛击\n立即对目标造成300%伤害+1000点固定伤害,如果目标生命低于50%,伤害提升50%</t>
+  </si>
+  <si>
+    <t>召唤的野兽攻击和生命提升20%</t>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000008</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当生命低于30%时,自身受到减免50%且攻击会恢复自身一定的生命值,持续6秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能: 魔法光球,对前方区域释放一个移动的光球,对触碰到的单位造成350%+2500点伤害,对触碰的目标移动速度降低50%,持续3秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩大地: 伤害提升25%;爆裂燃烧冷却时间降低3秒;心灵之击:冷却时间缩减3秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;62021302,62021303,62021304,62021305,62021306;2;0.25@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;4;3@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;4;3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封陷阱: 冷却时间降低2秒;灼热之箭:伤害提升75%;野兽之力:爆发状态延长3秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害有概率给自己释放一个护盾,护盾可以抵抗50%伤害,最大承受生命的30%,持续20秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命之盾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业专精</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在生命值低于10%时,立即回复自身20%最大生命,并使自身造成伤害提升25%,持续6秒，120秒冷却时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素引力波技能冷却时间降低4秒;光之击冷却时间降低5秒;能量之地附加的攻击效果提升10%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增强击技能,立即对目标造成400%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能:轰击 立即对目标及其范围造成350%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃斩和冲锋斩会对目标区域伤害提升75%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddPropreListStr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次闪避目标攻击将对目标造成100%攻击伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击有20%概率回复自身最大生命的4%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增被动技能生命恢复,受到伤害有一定概率恢复自身最大生命值的5%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;60000501,60000502;2;0.2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;200903;0.05</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害加成提升5%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒气上限提升至150,怒气恢复每秒额外恢复3点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;313403;50@RolePropertyAdd;121103;3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>火舌守卫：冷却时间降低5秒;剑气：技能会使目标的移动速度降低30%;</t>
+      <t>火舌守卫：冷却时间降低5秒;疾风箭域：技能会使目标的移动速度降低30%;</t>
     </r>
     <r>
       <rPr>
@@ -669,430 +1090,6 @@
       </rPr>
       <t>野兽呼唤:自身召唤的所有怪物属性提升25%</t>
     </r>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;63021402,63021403,63021404,63021405,63021406;4;5@BuffIdAdd;63022402,63022403,63022404,63022405,63022406;92000029@SkillIdAdd;62000042</t>
-  </si>
-  <si>
-    <t>攻击之力</t>
-  </si>
-  <si>
-    <t>每次攻击目标会有一定概率使其所有防御降低为0,持续5秒</t>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000038</t>
-  </si>
-  <si>
-    <t>爆炸射击</t>
-  </si>
-  <si>
-    <t>对目标发射散射攻击,散射攻击目标命中目标后会对附近单位造成100%范围伤害</t>
-  </si>
-  <si>
-    <t>BuffIdAdd;63012202,63012203,63012204,63012205,63012206;92000034</t>
-  </si>
-  <si>
-    <t>多重射击</t>
-  </si>
-  <si>
-    <t>攻击会对目标及附近的单位同时攻击</t>
-  </si>
-  <si>
-    <t>生命提升</t>
-  </si>
-  <si>
-    <t>攻击+10;攻击+20;攻击+30</t>
-  </si>
-  <si>
-    <t>RolePropertyAdd;100203;50</t>
-  </si>
-  <si>
-    <t>光环技能范围</t>
-  </si>
-  <si>
-    <t>旋风斩的技能伤害范围+1;旋风斩的技能伤害范围+2</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;80000013;1;10</t>
-  </si>
-  <si>
-    <t>元素法球附带给自身加血对敌人定身效果</t>
-  </si>
-  <si>
-    <t>前冲距离延长3码距离</t>
-  </si>
-  <si>
-    <t>BuffIdAdd;61021201;90001021@BuffInitIdAdd;61021201;90000005</t>
-  </si>
-  <si>
-    <t>技能元素爆冰更换为元素法球</t>
-  </si>
-  <si>
-    <t>使用审判时可以将目标减速30%,持续3秒;使用审判时可以将目标减速30%,持续5秒</t>
-  </si>
-  <si>
-    <t>ReplaceSkillId;61021301;61021201</t>
-  </si>
-  <si>
-    <t>新增技能光环</t>
-  </si>
-  <si>
-    <t>击杀怪物获得金币+1%;击杀怪物获得金币+2%;击杀怪物获得金币+3%;击杀怪物获得金币+4%;击杀怪物获得金币+5%</t>
-  </si>
-  <si>
-    <t>SkillIdAdd;80000013</t>
-  </si>
-  <si>
-    <t>延长速度降低的时间</t>
-  </si>
-  <si>
-    <t>基础移动速度+4%;基础移动速度+8%;基础移动速度+12%;基础移动速度+16%;基础移动速度+20%</t>
-  </si>
-  <si>
-    <t>BuffPropertyAdd;90001032;2;10</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;4;2</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62011102,62011103,62011104,62011105,62011106;2;0.5</t>
-  </si>
-  <si>
-    <t>BuffIdAdd;61011102,61011103,61011104,61011105,61011106;69000046</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;2;0.5</t>
-  </si>
-  <si>
-    <t>BuffIdAdd;62012302,62012303,62012304,62012305,62012306;69000047</t>
-  </si>
-  <si>
-    <t>BuffIdAdd;51011302,51011303,51011304,51011305,51011306;69000076</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62012202,62012203,62012204,62012205,62012206;4;2</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61011302,61011303,61011304,61011305,61011306;4;2</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61012302,61012303,61012304,61012305,61012306;2;0.5@SkillPropertyAdd;63012102,63012103,63012104,63012105,63012106;2;0.5</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62011202,62011203,62011204,62011205,62011206;2;0.5</t>
-  </si>
-  <si>
-    <t>BuffIdAdd;61011302,61011303,61011304,61011305,61011306;69000072</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61012302,61012303,61012304,61012305,61012306;2;0.5</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62011302,62011303,62011304,62011305,62011306;4;2</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62012102,62012103,62012104,62012105,62012106;2;0.25</t>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;61012102,61012103,61012104,61012105,61012106;4;2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次普攻有30%几率获得2秒霸体效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>霸体</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓速</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每5次普攻降低敌人40%移动速度持续2秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤术</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗召唤分身加一</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000003</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;77010001</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂怒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>增伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤强化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗召唤师召唤的仆从获得30%技能减伤效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>减免</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>急速</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤提升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗侵袭</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗侵蚀</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>再生</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗夜娃娃</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>影分身</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>回归</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>随影</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾风</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战争怒吼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗影刺客释放暗影顺闪技能和暗影之刃技能时暗影分身会跟随自身释放该技能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾风审判技能伤害增加30%并且命中敌人3次对敌人造成1秒禁锢效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗召唤师召唤的契约者生命值低于30%时将对敌人立即发动一次冲锋斩，冲向敌人位置对范围内敌人造成100%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗召唤的分身消失后恢复自身8%最大生命值，黑暗召唤师仆从被击败后自身恢复3%最大生命值，暗影刺客幻影分身消失后恢复自身5%最大生命值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次受到攻击有15%几率召唤一个影分身顺闪至敌方身后对敌人造成150%伤害随后消失</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能造成的伤害击杀目标时立即刷新该技能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即召唤一个暗夜娃娃，暗夜娃娃将嘲讽敌人对齐进行攻击并且每次受到伤害有20%几率会对周围射出毒刺对敌人造成50%伤害，暗夜娃娃存在时间6秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每4次普攻强化下一次普攻附带挥斩对敌人造成200%伤害和1秒沉默效果，并且立即对敌人附加1层黑暗印记</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值低于20%时立即恢复至满血并且获得60%减伤效果持续5秒，该技能有100秒冷却</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在当前位置生成一个暗影卫并对周围敌人造成2秒禁锢效果并位移至指定位置（暗影卫无法选中且无法移动会对周围敌人持续进行普攻暗影卫属性来源于自身且攻击速度提升100%），持续10秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗影卫</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次受到攻击有30%几率对攻击者附带一层黑暗印记并且立即眩晕敌方1秒，该效果有5秒冷却</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每层黑暗印记使敌人造成的伤害降低5%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗召唤师仆从召唤上限提升5个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;63304001</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;63304002</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReplaceSkillId;60000501;60000505@ReplaceSkillId;60000502;60000505</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身普攻伤害提升30%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值低于30%时立即获得狂怒效果每隔4秒会对自身周围形成一个光柱对敌人造成120%伤害和1秒禁锢效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;63304003</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;63304004</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身获得30%免伤效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;63304005</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次普攻提升5%攻击速度和移动速度，最多可叠10层</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;63304006</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增技能：猛击\n立即对目标造成300%伤害+1000点固定伤害,如果目标生命低于50%,伤害提升50%</t>
-  </si>
-  <si>
-    <t>召唤的野兽攻击和生命提升20%</t>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000008</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>当生命低于30%时,自身受到减免50%且攻击会恢复自身一定的生命值,持续6秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增技能: 魔法光球,对前方区域释放一个移动的光球,对触碰到的单位造成350%+2500点伤害,对触碰的目标移动速度降低50%,持续3秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩大地: 伤害提升25%;爆裂燃烧冷却时间降低3秒;心灵之击:冷却时间缩减3秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;62021302,62021303,62021304,62021305,62021306;2;0.25@SkillPropertyAdd;62022202,62022203,62022204,62022205,62022206;4;3@SkillPropertyAdd;62023302,62023303,62023304,62023305,62023306;4;3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰封陷阱: 冷却时间降低2秒;灼热之箭:伤害提升75%;野兽之力:爆发状态延长3秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到伤害有概率给自己释放一个护盾,护盾可以抵抗50%伤害,最大承受生命的30%,持续20秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命之盾</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业专精</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在生命值低于10%时,立即回复自身20%最大生命,并使自身造成伤害提升25%,持续6秒，120秒冷却时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素引力波技能冷却时间降低4秒;光之击冷却时间降低5秒;能量之地附加的攻击效果提升10%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒气上限提升至120,怒气恢复每秒额外恢复2点</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增强击技能,立即对目标造成400%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增技能:轰击 立即对目标及其范围造成350%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跃斩和冲锋斩会对目标区域伤害提升75%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000001</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddPropreListStr</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;62000002</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次闪避目标攻击将对目标造成100%攻击伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击有20%概率回复自身最大生命的4%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增被动技能生命恢复,受到伤害有一定概率恢复自身最大生命值的5%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;60000501,60000502;2;0.2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12247,10 +12244,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12301,7 +12298,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12338,10 +12335,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12358,10 +12355,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="8" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12401,7 +12398,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12418,7 +12415,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>19</v>
@@ -12538,7 +12535,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>36</v>
@@ -12578,7 +12575,7 @@
         <v>38</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>41</v>
@@ -12598,10 +12595,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12638,7 +12635,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>47</v>
@@ -12698,7 +12695,7 @@
         <v>52</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>55</v>
@@ -12718,7 +12715,7 @@
         <v>52</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>56</v>
@@ -12778,7 +12775,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>64</v>
@@ -13078,10 +13075,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13098,7 +13095,7 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>105</v>
@@ -13258,7 +13255,7 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>125</v>
@@ -13338,7 +13335,7 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>135</v>
@@ -13421,7 +13418,7 @@
         <v>145</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13429,7 +13426,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13438,7 +13435,7 @@
         <v>38</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>34</v>
@@ -13449,7 +13446,7 @@
         <v>30043</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E62" s="9">
         <v>30043</v>
@@ -13478,10 +13475,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13489,7 +13486,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13498,10 +13495,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>152</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13518,10 +13515,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>153</v>
+        <v>270</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13529,7 +13526,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13538,10 +13535,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13549,7 +13546,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13558,10 +13555,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13569,7 +13566,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13578,10 +13575,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13589,7 +13586,7 @@
         <v>90001</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E69" s="9">
         <v>60010100</v>
@@ -13598,10 +13595,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13609,7 +13606,7 @@
         <v>90002</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E70" s="9">
         <v>60010200</v>
@@ -13618,10 +13615,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13629,7 +13626,7 @@
         <v>90003</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E71" s="9">
         <v>60010300</v>
@@ -13638,10 +13635,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13649,7 +13646,7 @@
         <v>90004</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E72" s="9">
         <v>60010400</v>
@@ -13658,10 +13655,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13669,7 +13666,7 @@
         <v>90005</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E73" s="9">
         <v>60010500</v>
@@ -13678,10 +13675,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13689,7 +13686,7 @@
         <v>90006</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E74" s="9">
         <v>60010600</v>
@@ -13698,10 +13695,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13715,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13729,7 +13726,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13743,7 +13740,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13757,7 +13754,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13771,7 +13768,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13785,7 +13782,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13799,7 +13796,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13813,7 +13810,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13827,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13841,7 +13838,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13855,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O85" s="9"/>
     </row>
@@ -13870,7 +13867,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -13885,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O87" s="9"/>
     </row>
@@ -13900,7 +13897,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O88" s="9"/>
     </row>
@@ -13915,7 +13912,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -13930,7 +13927,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O90" s="9"/>
     </row>
@@ -13945,7 +13942,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -13960,7 +13957,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O92" s="9"/>
     </row>
@@ -13975,7 +13972,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -13990,7 +13987,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O94" s="9"/>
     </row>
@@ -14005,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -14020,7 +14017,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O96" s="9"/>
     </row>
@@ -14035,7 +14032,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -14050,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O98" s="9"/>
     </row>
@@ -14059,7 +14056,7 @@
         <v>40001</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E99" s="14">
         <v>30001</v>
@@ -14068,10 +14065,10 @@
         <v>15</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14079,7 +14076,7 @@
         <v>40002</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E100" s="14">
         <v>30002</v>
@@ -14088,10 +14085,10 @@
         <v>15</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14099,7 +14096,7 @@
         <v>40003</v>
       </c>
       <c r="D101" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E101" s="33">
         <v>30003</v>
@@ -14108,10 +14105,10 @@
         <v>15</v>
       </c>
       <c r="G101" s="35" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H101" s="36" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14119,7 +14116,7 @@
         <v>40011</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E102" s="14">
         <v>30001</v>
@@ -14128,10 +14125,10 @@
         <v>15</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14139,7 +14136,7 @@
         <v>40012</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E103" s="14">
         <v>30002</v>
@@ -14148,10 +14145,10 @@
         <v>15</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14159,7 +14156,7 @@
         <v>40013</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E104" s="33">
         <v>30003</v>
@@ -14168,7 +14165,7 @@
         <v>15</v>
       </c>
       <c r="G104" s="35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H104" s="36" t="s">
         <v>120</v>
@@ -14179,7 +14176,7 @@
         <v>40021</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E105" s="14">
         <v>30001</v>
@@ -14188,10 +14185,10 @@
         <v>15</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14199,7 +14196,7 @@
         <v>40022</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E106" s="14">
         <v>30002</v>
@@ -14208,10 +14205,10 @@
         <v>15</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14219,7 +14216,7 @@
         <v>40023</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E107" s="33">
         <v>30003</v>
@@ -14228,7 +14225,7 @@
         <v>15</v>
       </c>
       <c r="G107" s="35" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H107" s="36" t="s">
         <v>120</v>
@@ -14239,7 +14236,7 @@
         <v>40031</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E108" s="33">
         <v>30001</v>
@@ -14248,10 +14245,10 @@
         <v>15</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14259,7 +14256,7 @@
         <v>40032</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E109" s="33">
         <v>30002</v>
@@ -14268,7 +14265,7 @@
         <v>15</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H109" s="40" t="s">
         <v>118</v>
@@ -14279,7 +14276,7 @@
         <v>40033</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E110" s="33">
         <v>30003</v>
@@ -14288,7 +14285,7 @@
         <v>15</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H110" s="36" t="s">
         <v>120</v>
@@ -14299,7 +14296,7 @@
         <v>40041</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E111" s="33">
         <v>30001</v>
@@ -14308,10 +14305,10 @@
         <v>15</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14319,7 +14316,7 @@
         <v>40042</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E112" s="33">
         <v>30002</v>
@@ -14328,7 +14325,7 @@
         <v>15</v>
       </c>
       <c r="G112" s="39" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H112" s="40" t="s">
         <v>118</v>
@@ -14339,7 +14336,7 @@
         <v>40043</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E113" s="33">
         <v>30003</v>
@@ -14348,7 +14345,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="35" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H113" s="36" t="s">
         <v>120</v>
@@ -14359,7 +14356,7 @@
         <v>40051</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E114" s="33">
         <v>30001</v>
@@ -14368,10 +14365,10 @@
         <v>15</v>
       </c>
       <c r="G114" s="39" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H114" s="40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14379,7 +14376,7 @@
         <v>40052</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E115" s="33">
         <v>30002</v>
@@ -14388,7 +14385,7 @@
         <v>15</v>
       </c>
       <c r="G115" s="39" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H115" s="40" t="s">
         <v>118</v>
@@ -14399,7 +14396,7 @@
         <v>40053</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E116" s="33">
         <v>30003</v>
@@ -14408,7 +14405,7 @@
         <v>15</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H116" s="36" t="s">
         <v>120</v>
@@ -14419,7 +14416,7 @@
         <v>40061</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E117" s="33">
         <v>30001</v>
@@ -14428,10 +14425,10 @@
         <v>15</v>
       </c>
       <c r="G117" s="39" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H117" s="40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="118" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14439,7 +14436,7 @@
         <v>40062</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E118" s="33">
         <v>30002</v>
@@ -14448,7 +14445,7 @@
         <v>15</v>
       </c>
       <c r="G118" s="39" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H118" s="40" t="s">
         <v>118</v>
@@ -14459,7 +14456,7 @@
         <v>40063</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E119" s="33">
         <v>30003</v>
@@ -14468,7 +14465,7 @@
         <v>15</v>
       </c>
       <c r="G119" s="35" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H119" s="36" t="s">
         <v>120</v>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF94D9B-5023-4EFB-94F4-04DDD730A476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83268079-D103-486D-A079-38AB8F45D4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="278">
   <si>
     <t>Id</t>
   </si>
@@ -767,214 +767,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>每次普攻有30%几率获得2秒霸体效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>霸体</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓速</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每5次普攻降低敌人40%移动速度持续2秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤术</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗召唤分身加一</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillIdAdd;62000003</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SkillIdAdd;77010001</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂怒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>增伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤强化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗召唤师召唤的仆从获得30%技能减伤效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>减免</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>急速</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤提升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗侵袭</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗侵蚀</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>再生</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗夜娃娃</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>影分身</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>回归</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>随影</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾风</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战争怒吼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗影刺客释放暗影顺闪技能和暗影之刃技能时暗影分身会跟随自身释放该技能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾风审判技能伤害增加30%并且命中敌人3次对敌人造成1秒禁锢效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗召唤师召唤的契约者生命值低于30%时将对敌人立即发动一次冲锋斩，冲向敌人位置对范围内敌人造成100%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗召唤的分身消失后恢复自身8%最大生命值，黑暗召唤师仆从被击败后自身恢复3%最大生命值，暗影刺客幻影分身消失后恢复自身5%最大生命值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次受到攻击有15%几率召唤一个影分身顺闪至敌方身后对敌人造成150%伤害随后消失</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能造成的伤害击杀目标时立即刷新该技能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即召唤一个暗夜娃娃，暗夜娃娃将嘲讽敌人对齐进行攻击并且每次受到伤害有20%几率会对周围射出毒刺对敌人造成50%伤害，暗夜娃娃存在时间6秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每4次普攻强化下一次普攻附带挥斩对敌人造成200%伤害和1秒沉默效果，并且立即对敌人附加1层黑暗印记</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值低于20%时立即恢复至满血并且获得60%减伤效果持续5秒，该技能有100秒冷却</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在当前位置生成一个暗影卫并对周围敌人造成2秒禁锢效果并位移至指定位置（暗影卫无法选中且无法移动会对周围敌人持续进行普攻暗影卫属性来源于自身且攻击速度提升100%），持续10秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗影卫</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次受到攻击有30%几率对攻击者附带一层黑暗印记并且立即眩晕敌方1秒，该效果有5秒冷却</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每层黑暗印记使敌人造成的伤害降低5%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗召唤师仆从召唤上限提升5个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;63304001</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;63304002</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>ReplaceSkillId;60000501;60000505@ReplaceSkillId;60000502;60000505</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>自身普攻伤害提升30%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值低于30%时立即获得狂怒效果每隔4秒会对自身周围形成一个光柱对敌人造成120%伤害和1秒禁锢效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;63304003</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;63304004</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身获得30%免伤效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;63304005</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次普攻提升5%攻击速度和移动速度，最多可叠10层</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdAdd;63304006</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>新增技能：猛击\n立即对目标造成300%伤害+1000点固定伤害,如果目标生命低于50%,伤害提升50%</t>
-  </si>
-  <si>
-    <t>召唤的野兽攻击和生命提升20%</t>
   </si>
   <si>
     <t>SkillIdAdd;62000008</t>
@@ -1090,6 +891,233 @@
       </rPr>
       <t>野兽呼唤:自身召唤的所有怪物属性提升25%</t>
     </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤的野兽攻击和生命提升20%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000061</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增魔法之击技能,立即对目标造成400%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法洗礼和魔法轰炸伤害提升75%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;64011202,64011203,64011204,64011205,64011206;2;0.75@SkillPropertyAdd;64012202,64012203,64012204,64012205,64012206;2;0.75</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次使用技能有一定概率恢复自身的一定生命值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000062</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000063</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击有概率为目标附加1层魔法印记</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增防御守护技能,受到伤害有一定概率立即对自身范围内的怪物造成350%攻击伤害+2000,并击退周围附近敌方目标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000064</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000065</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增防御之击技能,立即恢复自身10%血量,受到伤害有一定概率立即对自身范围内的怪物造成350%攻击伤害+2000,并对造成2秒眩晕</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身普攻伤害提升20%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;60000601,60000602,60000701,60000702;2;0.2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次普攻提升5%攻击速度和移动速度，最多可叠5层</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000066</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔闪之击冷却时间降低1秒，燃烧魔球伤害提升75%，契约之地伤害提升25%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害提升5%</t>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;64013102,64013103,64013104,64013105,64013106;4;1@SkillPropertyAdd;64014202,64014203,64014204,64014205,64014206;2;0.75@SkillPropertyAdd;64015102,64015103,64015104,64015105,64015106;2;0.25</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffPropertyAdd;95100001;1;0.1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;64013202,64013203,64013204,64013205,64013206;4;1@SkillPropertyAdd;64014202,64014203,64014204,64014205,64014206;4;1@SkillPropertyAdd;64015202,64015203,64015204,64015205,64015206;4;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;100902;0.15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;64013302,64013303,64013304,64013305,64013306;2;0.75@SkillPropertyAdd;64014302,64014303,64014304,64014305,64014106;4;1@SkillPropertyAdd;64015302,64015303,64015304,64015305,64015306;2;0.75</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000067</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000068</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;203603;0.05</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;64013402,64013403,64013404,64013405,64013406;2;0.75@SkillPropertyAdd;64014451,64014452,64014453,64014454,64014455;2;0.3@SkillPropertyAdd;64015402,64015403,64015404,64015405,64015406;4;5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000069</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;204103;0.1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000070</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次使用技能会有概率额外召唤一个仪式怪物协助自身战斗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能有10%的概率造成原始伤害的200%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰旋风技能伤害提升30%，风神之女普攻伤害提升30%， 恶魔契约冷却时间降低5秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能冷却时间降低5%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度提升15%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动技能:雷鸣之力,立即对自身周围范围的6个区域造成350%闪电伤害，并造成1秒眩晕</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>极速轰炸技能伤害提升75%，疾风烈焰技能冷却时间降低2秒，黑暗魔爆伤害提升75%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影投掷冷却时间降低1秒，燃烧魔球冷却时间降低1秒,雷鸣之力冷却时间降低3秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法之击</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能专精</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复之手</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法印记</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇猛之力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾风光环</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害上升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每层魔法印记造成的伤害提升10%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法之力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤之力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷鸣之力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅捷移动</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成暴击后会额外提升自身15%攻击,持续10秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击之力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间掌握</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤仪式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御守护</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>技之能力</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9296,9 +9324,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9308,6 +9333,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12244,10 +12272,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12298,7 +12326,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12335,10 +12363,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12355,10 +12383,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12398,7 +12426,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12415,7 +12443,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>19</v>
@@ -12535,7 +12563,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>36</v>
@@ -12575,7 +12603,7 @@
         <v>38</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>41</v>
@@ -12595,10 +12623,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12635,7 +12663,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>47</v>
@@ -12695,7 +12723,7 @@
         <v>52</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>55</v>
@@ -12715,7 +12743,7 @@
         <v>52</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>56</v>
@@ -12775,7 +12803,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>64</v>
@@ -13075,10 +13103,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13095,7 +13123,7 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>105</v>
@@ -13255,7 +13283,7 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>125</v>
@@ -13335,7 +13363,7 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>135</v>
@@ -13418,7 +13446,7 @@
         <v>145</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13426,7 +13454,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13435,7 +13463,7 @@
         <v>38</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>34</v>
@@ -13446,7 +13474,7 @@
         <v>30043</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="E62" s="9">
         <v>30043</v>
@@ -13475,10 +13503,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13495,10 +13523,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13515,7 +13543,7 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>150</v>
@@ -13578,437 +13606,552 @@
         <v>158</v>
       </c>
       <c r="H68" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="14">
+        <v>40001</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E69" s="14">
+        <v>40001</v>
+      </c>
+      <c r="F69" s="9">
+        <v>15</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="14">
+        <v>40002</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="E70" s="14">
+        <v>40002</v>
+      </c>
+      <c r="F70" s="9">
+        <v>15</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="33">
+        <v>40003</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="E71" s="33">
+        <v>40003</v>
+      </c>
+      <c r="F71" s="9">
+        <v>15</v>
+      </c>
+      <c r="G71" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="14">
+        <v>40011</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="E72" s="14">
+        <v>40011</v>
+      </c>
+      <c r="F72" s="9">
+        <v>22</v>
+      </c>
+      <c r="G72" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="14">
+        <v>40012</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" s="14">
+        <v>40012</v>
+      </c>
+      <c r="F73" s="9">
+        <v>22</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="33">
+        <v>40013</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="E74" s="33">
+        <v>40013</v>
+      </c>
+      <c r="F74" s="9">
+        <v>22</v>
+      </c>
+      <c r="G74" s="35" t="s">
         <v>234</v>
       </c>
+      <c r="H74" s="40" t="s">
+        <v>235</v>
+      </c>
     </row>
-    <row r="69" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="9">
+    <row r="75" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="14">
+        <v>40021</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="E75" s="14">
+        <v>40021</v>
+      </c>
+      <c r="F75" s="9">
+        <v>28</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="14">
+        <v>40022</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E76" s="14">
+        <v>40022</v>
+      </c>
+      <c r="F76" s="9">
+        <v>28</v>
+      </c>
+      <c r="G76" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="33">
+        <v>40023</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="E77" s="33">
+        <v>40023</v>
+      </c>
+      <c r="F77" s="9">
+        <v>28</v>
+      </c>
+      <c r="G77" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="33">
+        <v>40031</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E78" s="33">
+        <v>40031</v>
+      </c>
+      <c r="F78" s="9">
+        <v>32</v>
+      </c>
+      <c r="G78" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="H78" s="39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="33">
+        <v>40032</v>
+      </c>
+      <c r="D79" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" s="33">
+        <v>40032</v>
+      </c>
+      <c r="F79" s="9">
+        <v>32</v>
+      </c>
+      <c r="G79" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="33">
+        <v>40033</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="E80" s="33">
+        <v>40033</v>
+      </c>
+      <c r="F80" s="9">
+        <v>32</v>
+      </c>
+      <c r="G80" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="33">
+        <v>40041</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" s="33">
+        <v>40041</v>
+      </c>
+      <c r="F81" s="9">
+        <v>38</v>
+      </c>
+      <c r="G81" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="33">
+        <v>40042</v>
+      </c>
+      <c r="D82" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E82" s="33">
+        <v>40042</v>
+      </c>
+      <c r="F82" s="9">
+        <v>38</v>
+      </c>
+      <c r="G82" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="H82" s="39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="33">
+        <v>40043</v>
+      </c>
+      <c r="D83" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="E83" s="33">
+        <v>40043</v>
+      </c>
+      <c r="F83" s="9">
+        <v>38</v>
+      </c>
+      <c r="G83" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="33">
+        <v>40051</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="E84" s="33">
+        <v>40051</v>
+      </c>
+      <c r="F84" s="9">
+        <v>42</v>
+      </c>
+      <c r="G84" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="H84" s="39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="33">
+        <v>40052</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="E85" s="33">
+        <v>40052</v>
+      </c>
+      <c r="F85" s="9">
+        <v>42</v>
+      </c>
+      <c r="G85" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="33">
+        <v>40053</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="E86" s="33">
+        <v>40053</v>
+      </c>
+      <c r="F86" s="9">
+        <v>42</v>
+      </c>
+      <c r="G86" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="33">
+        <v>40061</v>
+      </c>
+      <c r="D87" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="E87" s="33">
+        <v>40061</v>
+      </c>
+      <c r="F87" s="14">
+        <v>52</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="H87" s="39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="33">
+        <v>40062</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E88" s="33">
+        <v>40062</v>
+      </c>
+      <c r="F88" s="14">
+        <v>52</v>
+      </c>
+      <c r="G88" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="33">
+        <v>40063</v>
+      </c>
+      <c r="D89" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="E89" s="33">
+        <v>40063</v>
+      </c>
+      <c r="F89" s="14">
+        <v>52</v>
+      </c>
+      <c r="G89" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="9">
         <v>90001</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D90" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E90" s="9">
         <v>60010100</v>
-      </c>
-      <c r="F69" s="9">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="9">
-        <v>90002</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E70" s="9">
-        <v>60010200</v>
-      </c>
-      <c r="F70" s="9">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="9">
-        <v>90003</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E71" s="9">
-        <v>60010300</v>
-      </c>
-      <c r="F71" s="9">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="9">
-        <v>90004</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E72" s="9">
-        <v>60010400</v>
-      </c>
-      <c r="F72" s="9">
-        <v>2</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="9">
-        <v>90005</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E73" s="9">
-        <v>60010500</v>
-      </c>
-      <c r="F73" s="9">
-        <v>2</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="74" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="9">
-        <v>90006</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E74" s="9">
-        <v>60010600</v>
-      </c>
-      <c r="F74" s="9">
-        <v>2</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="9">
-        <v>100001</v>
-      </c>
-      <c r="E75" s="9">
-        <v>0</v>
-      </c>
-      <c r="F75" s="9">
-        <v>1</v>
-      </c>
-      <c r="H75" s="30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="9">
-        <v>100002</v>
-      </c>
-      <c r="E76" s="9">
-        <v>0</v>
-      </c>
-      <c r="F76" s="9">
-        <v>1</v>
-      </c>
-      <c r="H76" s="30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="9">
-        <v>100003</v>
-      </c>
-      <c r="E77" s="9">
-        <v>0</v>
-      </c>
-      <c r="F77" s="9">
-        <v>1</v>
-      </c>
-      <c r="H77" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="9">
-        <v>100004</v>
-      </c>
-      <c r="E78" s="9">
-        <v>0</v>
-      </c>
-      <c r="F78" s="9">
-        <v>1</v>
-      </c>
-      <c r="H78" s="30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="9">
-        <v>100005</v>
-      </c>
-      <c r="E79" s="9">
-        <v>0</v>
-      </c>
-      <c r="F79" s="9">
-        <v>1</v>
-      </c>
-      <c r="H79" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="9">
-        <v>100006</v>
-      </c>
-      <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="F80" s="9">
-        <v>1</v>
-      </c>
-      <c r="H80" s="30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="9">
-        <v>100007</v>
-      </c>
-      <c r="E81" s="9">
-        <v>0</v>
-      </c>
-      <c r="F81" s="9">
-        <v>1</v>
-      </c>
-      <c r="H81" s="30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="9">
-        <v>100008</v>
-      </c>
-      <c r="E82" s="9">
-        <v>0</v>
-      </c>
-      <c r="F82" s="9">
-        <v>1</v>
-      </c>
-      <c r="H82" s="30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="83" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="9">
-        <v>100009</v>
-      </c>
-      <c r="E83" s="9">
-        <v>0</v>
-      </c>
-      <c r="F83" s="9">
-        <v>1</v>
-      </c>
-      <c r="H83" s="30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="9">
-        <v>100010</v>
-      </c>
-      <c r="E84" s="9">
-        <v>0</v>
-      </c>
-      <c r="F84" s="9">
-        <v>1</v>
-      </c>
-      <c r="H84" s="30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="85" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="9">
-        <v>200001</v>
-      </c>
-      <c r="E85" s="9">
-        <v>0</v>
-      </c>
-      <c r="F85" s="9">
-        <v>1</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="O85" s="9"/>
-    </row>
-    <row r="86" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="9">
-        <v>200002</v>
-      </c>
-      <c r="E86" s="9">
-        <v>0</v>
-      </c>
-      <c r="F86" s="9">
-        <v>1</v>
-      </c>
-      <c r="H86" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="O86" s="9"/>
-    </row>
-    <row r="87" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="9">
-        <v>200003</v>
-      </c>
-      <c r="E87" s="9">
-        <v>0</v>
-      </c>
-      <c r="F87" s="9">
-        <v>1</v>
-      </c>
-      <c r="H87" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="O87" s="9"/>
-    </row>
-    <row r="88" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="9">
-        <v>200004</v>
-      </c>
-      <c r="E88" s="9">
-        <v>0</v>
-      </c>
-      <c r="F88" s="9">
-        <v>1</v>
-      </c>
-      <c r="H88" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="O88" s="9"/>
-    </row>
-    <row r="89" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="9">
-        <v>200005</v>
-      </c>
-      <c r="E89" s="9">
-        <v>0</v>
-      </c>
-      <c r="F89" s="9">
-        <v>1</v>
-      </c>
-      <c r="H89" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="O89" s="9"/>
-    </row>
-    <row r="90" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="9">
-        <v>200006</v>
-      </c>
-      <c r="E90" s="9">
-        <v>0</v>
       </c>
       <c r="F90" s="9">
         <v>1</v>
       </c>
-      <c r="H90" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="O90" s="9"/>
+      <c r="G90" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="91" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="9">
-        <v>200007</v>
+        <v>90002</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="E91" s="9">
-        <v>0</v>
+        <v>60010200</v>
       </c>
       <c r="F91" s="9">
         <v>1</v>
       </c>
-      <c r="H91" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="O91" s="9"/>
+      <c r="G91" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="92" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="9">
-        <v>200008</v>
+        <v>90003</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E92" s="9">
-        <v>0</v>
+        <v>60010300</v>
       </c>
       <c r="F92" s="9">
         <v>1</v>
       </c>
-      <c r="H92" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="O92" s="9"/>
+      <c r="G92" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="93" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="9">
-        <v>200009</v>
+        <v>90004</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E93" s="9">
-        <v>0</v>
+        <v>60010400</v>
       </c>
       <c r="F93" s="9">
-        <v>1</v>
-      </c>
-      <c r="H93" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="O93" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="94" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="9">
-        <v>200010</v>
+        <v>90005</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="E94" s="9">
-        <v>0</v>
+        <v>60010500</v>
       </c>
       <c r="F94" s="9">
-        <v>1</v>
-      </c>
-      <c r="H94" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="O94" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="95" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="9">
-        <v>200011</v>
+        <v>90006</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="E95" s="9">
-        <v>0</v>
+        <v>60010600</v>
       </c>
       <c r="F95" s="9">
-        <v>1</v>
-      </c>
-      <c r="H95" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="O95" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="96" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C96" s="9">
-        <v>200012</v>
+        <v>100001</v>
       </c>
       <c r="E96" s="9">
         <v>0</v>
@@ -14017,13 +14160,12 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="O96" s="9"/>
+        <v>191</v>
+      </c>
     </row>
     <row r="97" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="9">
-        <v>200013</v>
+        <v>100002</v>
       </c>
       <c r="E97" s="9">
         <v>0</v>
@@ -14032,13 +14174,12 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="O97" s="9"/>
+        <v>178</v>
+      </c>
     </row>
     <row r="98" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="9">
-        <v>200014</v>
+        <v>100003</v>
       </c>
       <c r="E98" s="9">
         <v>0</v>
@@ -14047,429 +14188,316 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="9">
+        <v>100004</v>
+      </c>
+      <c r="E99" s="9">
+        <v>0</v>
+      </c>
+      <c r="F99" s="9">
+        <v>1</v>
+      </c>
+      <c r="H99" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="9">
+        <v>100005</v>
+      </c>
+      <c r="E100" s="9">
+        <v>0</v>
+      </c>
+      <c r="F100" s="9">
+        <v>1</v>
+      </c>
+      <c r="H100" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="9">
+        <v>100006</v>
+      </c>
+      <c r="E101" s="9">
+        <v>0</v>
+      </c>
+      <c r="F101" s="9">
+        <v>1</v>
+      </c>
+      <c r="H101" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="9">
+        <v>100007</v>
+      </c>
+      <c r="E102" s="9">
+        <v>0</v>
+      </c>
+      <c r="F102" s="9">
+        <v>1</v>
+      </c>
+      <c r="H102" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="9">
+        <v>100008</v>
+      </c>
+      <c r="E103" s="9">
+        <v>0</v>
+      </c>
+      <c r="F103" s="9">
+        <v>1</v>
+      </c>
+      <c r="H103" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="9">
+        <v>100009</v>
+      </c>
+      <c r="E104" s="9">
+        <v>0</v>
+      </c>
+      <c r="F104" s="9">
+        <v>1</v>
+      </c>
+      <c r="H104" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="9">
+        <v>100010</v>
+      </c>
+      <c r="E105" s="9">
+        <v>0</v>
+      </c>
+      <c r="F105" s="9">
+        <v>1</v>
+      </c>
+      <c r="H105" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="9">
+        <v>200001</v>
+      </c>
+      <c r="E106" s="9">
+        <v>0</v>
+      </c>
+      <c r="F106" s="9">
+        <v>1</v>
+      </c>
+      <c r="H106" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="O106" s="9"/>
+    </row>
+    <row r="107" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="9">
+        <v>200002</v>
+      </c>
+      <c r="E107" s="9">
+        <v>0</v>
+      </c>
+      <c r="F107" s="9">
+        <v>1</v>
+      </c>
+      <c r="H107" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="O107" s="9"/>
+    </row>
+    <row r="108" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="9">
+        <v>200003</v>
+      </c>
+      <c r="E108" s="9">
+        <v>0</v>
+      </c>
+      <c r="F108" s="9">
+        <v>1</v>
+      </c>
+      <c r="H108" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="O108" s="9"/>
+    </row>
+    <row r="109" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="9">
+        <v>200004</v>
+      </c>
+      <c r="E109" s="9">
+        <v>0</v>
+      </c>
+      <c r="F109" s="9">
+        <v>1</v>
+      </c>
+      <c r="H109" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="O109" s="9"/>
+    </row>
+    <row r="110" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="9">
+        <v>200005</v>
+      </c>
+      <c r="E110" s="9">
+        <v>0</v>
+      </c>
+      <c r="F110" s="9">
+        <v>1</v>
+      </c>
+      <c r="H110" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="O110" s="9"/>
+    </row>
+    <row r="111" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="9">
+        <v>200006</v>
+      </c>
+      <c r="E111" s="9">
+        <v>0</v>
+      </c>
+      <c r="F111" s="9">
+        <v>1</v>
+      </c>
+      <c r="H111" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="O111" s="9"/>
+    </row>
+    <row r="112" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="9">
+        <v>200007</v>
+      </c>
+      <c r="E112" s="9">
+        <v>0</v>
+      </c>
+      <c r="F112" s="9">
+        <v>1</v>
+      </c>
+      <c r="H112" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O112" s="9"/>
+    </row>
+    <row r="113" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="9">
+        <v>200008</v>
+      </c>
+      <c r="E113" s="9">
+        <v>0</v>
+      </c>
+      <c r="F113" s="9">
+        <v>1</v>
+      </c>
+      <c r="H113" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O113" s="9"/>
+    </row>
+    <row r="114" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="9">
+        <v>200009</v>
+      </c>
+      <c r="E114" s="9">
+        <v>0</v>
+      </c>
+      <c r="F114" s="9">
+        <v>1</v>
+      </c>
+      <c r="H114" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="O114" s="9"/>
+    </row>
+    <row r="115" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="9">
+        <v>200010</v>
+      </c>
+      <c r="E115" s="9">
+        <v>0</v>
+      </c>
+      <c r="F115" s="9">
+        <v>1</v>
+      </c>
+      <c r="H115" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="O115" s="9"/>
+    </row>
+    <row r="116" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="9">
+        <v>200011</v>
+      </c>
+      <c r="E116" s="9">
+        <v>0</v>
+      </c>
+      <c r="F116" s="9">
+        <v>1</v>
+      </c>
+      <c r="H116" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="O116" s="9"/>
+    </row>
+    <row r="117" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="9">
+        <v>200012</v>
+      </c>
+      <c r="E117" s="9">
+        <v>0</v>
+      </c>
+      <c r="F117" s="9">
+        <v>1</v>
+      </c>
+      <c r="H117" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="O117" s="9"/>
+    </row>
+    <row r="118" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="9">
+        <v>200013</v>
+      </c>
+      <c r="E118" s="9">
+        <v>0</v>
+      </c>
+      <c r="F118" s="9">
+        <v>1</v>
+      </c>
+      <c r="H118" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="O118" s="9"/>
+    </row>
+    <row r="119" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="9">
+        <v>200014</v>
+      </c>
+      <c r="E119" s="9">
+        <v>0</v>
+      </c>
+      <c r="F119" s="9">
+        <v>1</v>
+      </c>
+      <c r="H119" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="O98" s="9"/>
-    </row>
-    <row r="99" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="14">
-        <v>40001</v>
-      </c>
-      <c r="D99" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="E99" s="14">
-        <v>30001</v>
-      </c>
-      <c r="F99" s="14">
-        <v>15</v>
-      </c>
-      <c r="G99" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="H99" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="100" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="14">
-        <v>40002</v>
-      </c>
-      <c r="D100" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E100" s="14">
-        <v>30002</v>
-      </c>
-      <c r="F100" s="14">
-        <v>15</v>
-      </c>
-      <c r="G100" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="H100" s="16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="33">
-        <v>40003</v>
-      </c>
-      <c r="D101" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="E101" s="33">
-        <v>30003</v>
-      </c>
-      <c r="F101" s="33">
-        <v>15</v>
-      </c>
-      <c r="G101" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="H101" s="36" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="14">
-        <v>40011</v>
-      </c>
-      <c r="D102" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="14">
-        <v>30001</v>
-      </c>
-      <c r="F102" s="14">
-        <v>15</v>
-      </c>
-      <c r="G102" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="H102" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="103" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="14">
-        <v>40012</v>
-      </c>
-      <c r="D103" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="E103" s="14">
-        <v>30002</v>
-      </c>
-      <c r="F103" s="14">
-        <v>15</v>
-      </c>
-      <c r="G103" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="H103" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="104" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="33">
-        <v>40013</v>
-      </c>
-      <c r="D104" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="E104" s="33">
-        <v>30003</v>
-      </c>
-      <c r="F104" s="33">
-        <v>15</v>
-      </c>
-      <c r="G104" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="H104" s="36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="3:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="14">
-        <v>40021</v>
-      </c>
-      <c r="D105" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="E105" s="14">
-        <v>30001</v>
-      </c>
-      <c r="F105" s="14">
-        <v>15</v>
-      </c>
-      <c r="G105" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="H105" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="106" spans="3:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="14">
-        <v>40022</v>
-      </c>
-      <c r="D106" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="E106" s="14">
-        <v>30002</v>
-      </c>
-      <c r="F106" s="14">
-        <v>15</v>
-      </c>
-      <c r="G106" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="H106" s="16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="107" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="33">
-        <v>40023</v>
-      </c>
-      <c r="D107" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="E107" s="33">
-        <v>30003</v>
-      </c>
-      <c r="F107" s="33">
-        <v>15</v>
-      </c>
-      <c r="G107" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="H107" s="36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="33">
-        <v>40031</v>
-      </c>
-      <c r="D108" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="E108" s="33">
-        <v>30001</v>
-      </c>
-      <c r="F108" s="33">
-        <v>15</v>
-      </c>
-      <c r="G108" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="H108" s="40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="109" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="33">
-        <v>40032</v>
-      </c>
-      <c r="D109" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="E109" s="33">
-        <v>30002</v>
-      </c>
-      <c r="F109" s="33">
-        <v>15</v>
-      </c>
-      <c r="G109" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="H109" s="40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="110" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="33">
-        <v>40033</v>
-      </c>
-      <c r="D110" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="E110" s="33">
-        <v>30003</v>
-      </c>
-      <c r="F110" s="33">
-        <v>15</v>
-      </c>
-      <c r="G110" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="H110" s="36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="3:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="33">
-        <v>40041</v>
-      </c>
-      <c r="D111" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="E111" s="33">
-        <v>30001</v>
-      </c>
-      <c r="F111" s="33">
-        <v>15</v>
-      </c>
-      <c r="G111" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="H111" s="40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="112" spans="3:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="33">
-        <v>40042</v>
-      </c>
-      <c r="D112" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E112" s="33">
-        <v>30002</v>
-      </c>
-      <c r="F112" s="33">
-        <v>15</v>
-      </c>
-      <c r="G112" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="H112" s="40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="113" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="33">
-        <v>40043</v>
-      </c>
-      <c r="D113" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="E113" s="33">
-        <v>30003</v>
-      </c>
-      <c r="F113" s="33">
-        <v>15</v>
-      </c>
-      <c r="G113" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="H113" s="36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="114" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="33">
-        <v>40051</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="E114" s="33">
-        <v>30001</v>
-      </c>
-      <c r="F114" s="33">
-        <v>15</v>
-      </c>
-      <c r="G114" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="H114" s="40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="115" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="33">
-        <v>40052</v>
-      </c>
-      <c r="D115" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="E115" s="33">
-        <v>30002</v>
-      </c>
-      <c r="F115" s="33">
-        <v>15</v>
-      </c>
-      <c r="G115" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="H115" s="40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="33">
-        <v>40053</v>
-      </c>
-      <c r="D116" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="E116" s="33">
-        <v>30003</v>
-      </c>
-      <c r="F116" s="33">
-        <v>15</v>
-      </c>
-      <c r="G116" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="H116" s="36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="117" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="33">
-        <v>40061</v>
-      </c>
-      <c r="D117" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="E117" s="33">
-        <v>30001</v>
-      </c>
-      <c r="F117" s="33">
-        <v>15</v>
-      </c>
-      <c r="G117" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="H117" s="40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="118" spans="3:8" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="33">
-        <v>40062</v>
-      </c>
-      <c r="D118" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="E118" s="33">
-        <v>30002</v>
-      </c>
-      <c r="F118" s="33">
-        <v>15</v>
-      </c>
-      <c r="G118" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="H118" s="40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="119" spans="3:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="33">
-        <v>40063</v>
-      </c>
-      <c r="D119" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="E119" s="33">
-        <v>30003</v>
-      </c>
-      <c r="F119" s="33">
-        <v>15</v>
-      </c>
-      <c r="G119" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="H119" s="36" t="s">
-        <v>120</v>
-      </c>
+      <c r="O119" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83268079-D103-486D-A079-38AB8F45D4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492D2A7A-DBD6-4EFA-8318-6AB8CCC25C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -1021,14 +1021,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>技能有10%的概率造成原始伤害的200%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰旋风技能伤害提升30%，风神之女普攻伤害提升30%， 恶魔契约冷却时间降低5秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>技能冷却时间降低5%</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1041,14 +1033,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>极速轰炸技能伤害提升75%，疾风烈焰技能冷却时间降低2秒，黑暗魔爆伤害提升75%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗影投掷冷却时间降低1秒，燃烧魔球冷却时间降低1秒,雷鸣之力冷却时间降低3秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法之击</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1118,6 +1102,22 @@
   </si>
   <si>
     <t>技之能力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影投掷冷却时间降低1秒;燃烧魔球冷却时间降低1秒;雷鸣之力冷却时间降低3秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>极速轰炸技能伤害提升75%;疾风烈焰技能冷却时间降低2秒;黑暗魔爆伤害提升75%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰旋风技能伤害提升30%;风神之女普攻伤害提升30%;恶魔契约冷却时间降低5秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能有10%的概率造成技能伤害的双倍伤害</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12273,9 +12273,9 @@
   <dimension ref="C1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
+      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13614,7 +13614,7 @@
         <v>40001</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E69" s="14">
         <v>40001</v>
@@ -13634,7 +13634,7 @@
         <v>40002</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E70" s="14">
         <v>40002</v>
@@ -13654,7 +13654,7 @@
         <v>40003</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E71" s="33">
         <v>40003</v>
@@ -13674,7 +13674,7 @@
         <v>40011</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E72" s="14">
         <v>40011</v>
@@ -13714,7 +13714,7 @@
         <v>40013</v>
       </c>
       <c r="D74" s="34" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E74" s="33">
         <v>40013</v>
@@ -13734,7 +13734,7 @@
         <v>40021</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E75" s="14">
         <v>40021</v>
@@ -13774,7 +13774,7 @@
         <v>40023</v>
       </c>
       <c r="D77" s="34" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E77" s="33">
         <v>40023</v>
@@ -13794,7 +13794,7 @@
         <v>40031</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E78" s="33">
         <v>40031</v>
@@ -13803,7 +13803,7 @@
         <v>32</v>
       </c>
       <c r="G78" s="38" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H78" s="39" t="s">
         <v>241</v>
@@ -13823,7 +13823,7 @@
         <v>32</v>
       </c>
       <c r="G79" s="38" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H79" s="12" t="s">
         <v>242</v>
@@ -13834,7 +13834,7 @@
         <v>40033</v>
       </c>
       <c r="D80" s="34" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E80" s="33">
         <v>40033</v>
@@ -13863,7 +13863,7 @@
         <v>38</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>244</v>
@@ -13874,7 +13874,7 @@
         <v>40042</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E82" s="33">
         <v>40042</v>
@@ -13883,7 +13883,7 @@
         <v>38</v>
       </c>
       <c r="G82" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H82" s="39" t="s">
         <v>245</v>
@@ -13894,7 +13894,7 @@
         <v>40043</v>
       </c>
       <c r="D83" s="34" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E83" s="33">
         <v>40043</v>
@@ -13903,7 +13903,7 @@
         <v>38</v>
       </c>
       <c r="G83" s="35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>243</v>
@@ -13914,7 +13914,7 @@
         <v>40051</v>
       </c>
       <c r="D84" s="37" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E84" s="33">
         <v>40051</v>
@@ -13923,7 +13923,7 @@
         <v>42</v>
       </c>
       <c r="G84" s="38" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H84" s="39" t="s">
         <v>249</v>
@@ -13934,7 +13934,7 @@
         <v>40052</v>
       </c>
       <c r="D85" s="37" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E85" s="33">
         <v>40052</v>
@@ -13943,7 +13943,7 @@
         <v>42</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>248</v>
@@ -13954,7 +13954,7 @@
         <v>40053</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E86" s="33">
         <v>40053</v>
@@ -13963,7 +13963,7 @@
         <v>42</v>
       </c>
       <c r="G86" s="35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H86" s="17" t="s">
         <v>247</v>
@@ -13974,7 +13974,7 @@
         <v>40061</v>
       </c>
       <c r="D87" s="37" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E87" s="33">
         <v>40061</v>
@@ -13994,7 +13994,7 @@
         <v>40062</v>
       </c>
       <c r="D88" s="37" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E88" s="33">
         <v>40062</v>
@@ -14014,7 +14014,7 @@
         <v>40063</v>
       </c>
       <c r="D89" s="34" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E89" s="33">
         <v>40063</v>
@@ -14023,7 +14023,7 @@
         <v>52</v>
       </c>
       <c r="G89" s="35" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="H89" s="17" t="s">
         <v>250</v>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492D2A7A-DBD6-4EFA-8318-6AB8CCC25C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F1D026-E774-483E-ACD4-742FC38934C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -946,14 +946,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>自身普攻伤害提升20%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillPropertyAdd;60000601,60000602,60000701,60000702;2;0.2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>每次普攻提升5%攻击速度和移动速度，最多可叠5层</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1001,10 +993,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SkillPropertyAdd;64013402,64013403,64013404,64013405,64013406;2;0.75@SkillPropertyAdd;64014451,64014452,64014453,64014454,64014455;2;0.3@SkillPropertyAdd;64015402,64015403,64015404,64015405,64015406;4;5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillIdAdd;62000069</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1113,11 +1101,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>火焰旋风技能伤害提升30%;风神之女普攻伤害提升30%;恶魔契约冷却时间降低5秒</t>
+    <t>释放技能有10%的概率造成技能伤害的双倍伤害</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>释放技能有10%的概率造成技能伤害的双倍伤害</t>
+    <t>SkillPropertyAdd;64013402,64013403,64013404,64013405,64013406;2;0.75@SkillPropertyAdd;64014451,64014452,64014453,64014454,64014455;2;0.5@SkillPropertyAdd;64015402,64015403,64015404,64015405,64015406;4;5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰旋风技能伤害提升75%;风神之女普攻伤害提升50%;恶魔契约冷却时间降低5秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身普攻伤害提升25%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;60000601,60000602,60000701,60000702;2;0.25</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12272,10 +12272,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
+      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13614,7 +13614,7 @@
         <v>40001</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E69" s="14">
         <v>40001</v>
@@ -13634,7 +13634,7 @@
         <v>40002</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E70" s="14">
         <v>40002</v>
@@ -13654,7 +13654,7 @@
         <v>40003</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E71" s="33">
         <v>40003</v>
@@ -13674,7 +13674,7 @@
         <v>40011</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E72" s="14">
         <v>40011</v>
@@ -13714,7 +13714,7 @@
         <v>40013</v>
       </c>
       <c r="D74" s="34" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E74" s="33">
         <v>40013</v>
@@ -13723,10 +13723,10 @@
         <v>22</v>
       </c>
       <c r="G74" s="35" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="H74" s="40" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13734,7 +13734,7 @@
         <v>40021</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E75" s="14">
         <v>40021</v>
@@ -13743,10 +13743,10 @@
         <v>28</v>
       </c>
       <c r="G75" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="3:8" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13763,10 +13763,10 @@
         <v>28</v>
       </c>
       <c r="G76" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="H76" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="77" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13774,7 +13774,7 @@
         <v>40023</v>
       </c>
       <c r="D77" s="34" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E77" s="33">
         <v>40023</v>
@@ -13783,7 +13783,7 @@
         <v>28</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>216</v>
@@ -13794,7 +13794,7 @@
         <v>40031</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E78" s="33">
         <v>40031</v>
@@ -13803,10 +13803,10 @@
         <v>32</v>
       </c>
       <c r="G78" s="38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H78" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="3:8" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13823,10 +13823,10 @@
         <v>32</v>
       </c>
       <c r="G79" s="38" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13834,7 +13834,7 @@
         <v>40033</v>
       </c>
       <c r="D80" s="34" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E80" s="33">
         <v>40033</v>
@@ -13846,7 +13846,7 @@
         <v>221</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13863,10 +13863,10 @@
         <v>38</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="3:8" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13874,7 +13874,7 @@
         <v>40042</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E82" s="33">
         <v>40042</v>
@@ -13883,10 +13883,10 @@
         <v>38</v>
       </c>
       <c r="G82" s="38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H82" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13894,7 +13894,7 @@
         <v>40043</v>
       </c>
       <c r="D83" s="34" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E83" s="33">
         <v>40043</v>
@@ -13903,10 +13903,10 @@
         <v>38</v>
       </c>
       <c r="G83" s="35" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13914,7 +13914,7 @@
         <v>40051</v>
       </c>
       <c r="D84" s="37" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E84" s="33">
         <v>40051</v>
@@ -13923,10 +13923,10 @@
         <v>42</v>
       </c>
       <c r="G84" s="38" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H84" s="39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="3:8" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13934,7 +13934,7 @@
         <v>40052</v>
       </c>
       <c r="D85" s="37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E85" s="33">
         <v>40052</v>
@@ -13943,10 +13943,10 @@
         <v>42</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13954,7 +13954,7 @@
         <v>40053</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E86" s="33">
         <v>40053</v>
@@ -13963,10 +13963,10 @@
         <v>42</v>
       </c>
       <c r="G86" s="35" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13974,7 +13974,7 @@
         <v>40061</v>
       </c>
       <c r="D87" s="37" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E87" s="33">
         <v>40061</v>
@@ -13983,10 +13983,10 @@
         <v>52</v>
       </c>
       <c r="G87" s="38" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H87" s="39" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="3:8" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13994,7 +13994,7 @@
         <v>40062</v>
       </c>
       <c r="D88" s="37" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E88" s="33">
         <v>40062</v>
@@ -14014,7 +14014,7 @@
         <v>40063</v>
       </c>
       <c r="D89" s="34" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E89" s="33">
         <v>40063</v>
@@ -14023,10 +14023,10 @@
         <v>52</v>
       </c>
       <c r="G89" s="35" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F1D026-E774-483E-ACD4-742FC38934C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55A004C-1888-4D12-8C82-DFD861D458A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -337,9 +337,6 @@
     <t>爆裂轰炸</t>
   </si>
   <si>
-    <t>新增技能:爆裂轰炸\n对自身范围内每秒持续造成120%伤害,持续6秒</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000010</t>
   </si>
   <si>
@@ -404,9 +401,6 @@
   </si>
   <si>
     <t>冰冻击</t>
-  </si>
-  <si>
-    <t>新增技能:冰冻击 蓄力1秒,立即对前方矩形范围的目标造成325%伤害,并使目标禁锢3秒</t>
   </si>
   <si>
     <t>SkillIdAdd;62000103</t>
@@ -1118,6 +1112,14 @@
   </si>
   <si>
     <t>SkillPropertyAdd;60000601,60000602,60000701,60000702;2;0.25</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能:爆裂轰炸\n对自身范围内每秒持续造成150%伤害,持续6秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能:冰冻击 蓄力1秒,立即对前方矩形范围的目标造成350%伤害,并使目标禁锢2秒</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12272,10 +12274,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12326,7 +12328,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12363,10 +12365,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12383,10 +12385,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12426,7 +12428,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12443,7 +12445,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>19</v>
@@ -12563,7 +12565,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>36</v>
@@ -12603,7 +12605,7 @@
         <v>38</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>41</v>
@@ -12623,10 +12625,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12663,7 +12665,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>47</v>
@@ -12683,10 +12685,10 @@
         <v>42</v>
       </c>
       <c r="G22" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12694,7 +12696,7 @@
         <v>10053</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="9">
         <v>10053</v>
@@ -12703,10 +12705,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12714,7 +12716,7 @@
         <v>10061</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="14">
         <v>10061</v>
@@ -12723,10 +12725,10 @@
         <v>52</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12743,10 +12745,10 @@
         <v>52</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12754,7 +12756,7 @@
         <v>10063</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="14">
         <v>10063</v>
@@ -12763,10 +12765,10 @@
         <v>52</v>
       </c>
       <c r="G26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12774,7 +12776,7 @@
         <v>20001</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="9">
         <v>20001</v>
@@ -12783,10 +12785,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12794,7 +12796,7 @@
         <v>20002</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="9">
         <v>20002</v>
@@ -12803,10 +12805,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12814,7 +12816,7 @@
         <v>20003</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="9">
         <v>20003</v>
@@ -12823,10 +12825,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="30" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12834,7 +12836,7 @@
         <v>20011</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" s="9">
         <v>20011</v>
@@ -12843,10 +12845,10 @@
         <v>22</v>
       </c>
       <c r="G30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="31" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12854,7 +12856,7 @@
         <v>20012</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" s="9">
         <v>20012</v>
@@ -12863,10 +12865,10 @@
         <v>22</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>72</v>
+        <v>277</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12874,7 +12876,7 @@
         <v>20013</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32" s="9">
         <v>20013</v>
@@ -12883,10 +12885,10 @@
         <v>22</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12894,7 +12896,7 @@
         <v>20021</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E33" s="9">
         <v>20021</v>
@@ -12903,10 +12905,10 @@
         <v>28</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12923,10 +12925,10 @@
         <v>28</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12934,7 +12936,7 @@
         <v>20023</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E35" s="9">
         <v>20023</v>
@@ -12943,10 +12945,10 @@
         <v>28</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12954,7 +12956,7 @@
         <v>20031</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E36" s="9">
         <v>20031</v>
@@ -12963,10 +12965,10 @@
         <v>32</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12983,10 +12985,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12994,7 +12996,7 @@
         <v>20033</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E38" s="9">
         <v>20033</v>
@@ -13003,10 +13005,10 @@
         <v>32</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13014,7 +13016,7 @@
         <v>20041</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E39" s="9">
         <v>20041</v>
@@ -13023,10 +13025,10 @@
         <v>38</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13043,10 +13045,10 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13054,7 +13056,7 @@
         <v>20043</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E41" s="9">
         <v>20043</v>
@@ -13063,10 +13065,10 @@
         <v>38</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13074,7 +13076,7 @@
         <v>20051</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E42" s="9">
         <v>20051</v>
@@ -13083,10 +13085,10 @@
         <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13103,10 +13105,10 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13114,7 +13116,7 @@
         <v>20053</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E44" s="9">
         <v>20053</v>
@@ -13123,10 +13125,10 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13143,10 +13145,10 @@
         <v>52</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13154,7 +13156,7 @@
         <v>20062</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E46" s="9">
         <v>20062</v>
@@ -13163,10 +13165,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13174,7 +13176,7 @@
         <v>20063</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E47" s="9">
         <v>20063</v>
@@ -13183,10 +13185,10 @@
         <v>52</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13203,10 +13205,10 @@
         <v>15</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13214,7 +13216,7 @@
         <v>30002</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E49" s="9">
         <v>30002</v>
@@ -13223,10 +13225,10 @@
         <v>15</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13243,10 +13245,10 @@
         <v>15</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13254,7 +13256,7 @@
         <v>30011</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E51" s="9">
         <v>30011</v>
@@ -13263,10 +13265,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13274,7 +13276,7 @@
         <v>30012</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E52" s="9">
         <v>30012</v>
@@ -13283,10 +13285,10 @@
         <v>22</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13294,7 +13296,7 @@
         <v>30013</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E53" s="9">
         <v>30013</v>
@@ -13303,10 +13305,10 @@
         <v>22</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13314,7 +13316,7 @@
         <v>30021</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E54" s="9">
         <v>30021</v>
@@ -13323,10 +13325,10 @@
         <v>28</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13334,7 +13336,7 @@
         <v>30022</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E55" s="9">
         <v>30022</v>
@@ -13343,10 +13345,10 @@
         <v>28</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13363,10 +13365,10 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13374,7 +13376,7 @@
         <v>30031</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E57" s="9">
         <v>30031</v>
@@ -13383,10 +13385,10 @@
         <v>32</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13394,7 +13396,7 @@
         <v>30032</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E58" s="9">
         <v>30032</v>
@@ -13403,10 +13405,10 @@
         <v>32</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13423,10 +13425,10 @@
         <v>32</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13434,7 +13436,7 @@
         <v>30041</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E60" s="9">
         <v>30041</v>
@@ -13443,10 +13445,10 @@
         <v>38</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13454,7 +13456,7 @@
         <v>30042</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E61" s="9">
         <v>30042</v>
@@ -13463,7 +13465,7 @@
         <v>38</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>34</v>
@@ -13474,7 +13476,7 @@
         <v>30043</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E62" s="9">
         <v>30043</v>
@@ -13483,10 +13485,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13494,7 +13496,7 @@
         <v>30051</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E63" s="9">
         <v>30051</v>
@@ -13503,10 +13505,10 @@
         <v>42</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13514,7 +13516,7 @@
         <v>30052</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E64" s="9">
         <v>30052</v>
@@ -13523,10 +13525,10 @@
         <v>42</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13534,7 +13536,7 @@
         <v>30053</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E65" s="9">
         <v>30053</v>
@@ -13543,10 +13545,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13554,7 +13556,7 @@
         <v>30061</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E66" s="9">
         <v>30061</v>
@@ -13563,10 +13565,10 @@
         <v>52</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13574,7 +13576,7 @@
         <v>30062</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E67" s="9">
         <v>30062</v>
@@ -13583,10 +13585,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13594,7 +13596,7 @@
         <v>30063</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E68" s="9">
         <v>30063</v>
@@ -13603,10 +13605,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13614,7 +13616,7 @@
         <v>40001</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E69" s="14">
         <v>40001</v>
@@ -13623,10 +13625,10 @@
         <v>15</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="3:8" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13634,7 +13636,7 @@
         <v>40002</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E70" s="14">
         <v>40002</v>
@@ -13643,10 +13645,10 @@
         <v>15</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13654,7 +13656,7 @@
         <v>40003</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E71" s="33">
         <v>40003</v>
@@ -13663,10 +13665,10 @@
         <v>15</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13674,7 +13676,7 @@
         <v>40011</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E72" s="14">
         <v>40011</v>
@@ -13683,10 +13685,10 @@
         <v>22</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="3:8" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13694,7 +13696,7 @@
         <v>40012</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E73" s="14">
         <v>40012</v>
@@ -13703,10 +13705,10 @@
         <v>22</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13714,7 +13716,7 @@
         <v>40013</v>
       </c>
       <c r="D74" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E74" s="33">
         <v>40013</v>
@@ -13723,10 +13725,10 @@
         <v>22</v>
       </c>
       <c r="G74" s="35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H74" s="40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13734,7 +13736,7 @@
         <v>40021</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E75" s="14">
         <v>40021</v>
@@ -13743,10 +13745,10 @@
         <v>28</v>
       </c>
       <c r="G75" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="3:8" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13754,7 +13756,7 @@
         <v>40022</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E76" s="14">
         <v>40022</v>
@@ -13763,10 +13765,10 @@
         <v>28</v>
       </c>
       <c r="G76" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="H76" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="77" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13774,7 +13776,7 @@
         <v>40023</v>
       </c>
       <c r="D77" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E77" s="33">
         <v>40023</v>
@@ -13783,10 +13785,10 @@
         <v>28</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13794,7 +13796,7 @@
         <v>40031</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E78" s="33">
         <v>40031</v>
@@ -13803,10 +13805,10 @@
         <v>32</v>
       </c>
       <c r="G78" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H78" s="39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="3:8" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13814,7 +13816,7 @@
         <v>40032</v>
       </c>
       <c r="D79" s="37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E79" s="33">
         <v>40032</v>
@@ -13823,10 +13825,10 @@
         <v>32</v>
       </c>
       <c r="G79" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13834,7 +13836,7 @@
         <v>40033</v>
       </c>
       <c r="D80" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E80" s="33">
         <v>40033</v>
@@ -13843,10 +13845,10 @@
         <v>32</v>
       </c>
       <c r="G80" s="35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13854,7 +13856,7 @@
         <v>40041</v>
       </c>
       <c r="D81" s="37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E81" s="33">
         <v>40041</v>
@@ -13863,10 +13865,10 @@
         <v>38</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="3:8" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13874,7 +13876,7 @@
         <v>40042</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E82" s="33">
         <v>40042</v>
@@ -13883,10 +13885,10 @@
         <v>38</v>
       </c>
       <c r="G82" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H82" s="39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13894,7 +13896,7 @@
         <v>40043</v>
       </c>
       <c r="D83" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E83" s="33">
         <v>40043</v>
@@ -13903,10 +13905,10 @@
         <v>38</v>
       </c>
       <c r="G83" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13914,7 +13916,7 @@
         <v>40051</v>
       </c>
       <c r="D84" s="37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E84" s="33">
         <v>40051</v>
@@ -13923,10 +13925,10 @@
         <v>42</v>
       </c>
       <c r="G84" s="38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H84" s="39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="3:8" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13934,7 +13936,7 @@
         <v>40052</v>
       </c>
       <c r="D85" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E85" s="33">
         <v>40052</v>
@@ -13943,10 +13945,10 @@
         <v>42</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13954,7 +13956,7 @@
         <v>40053</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E86" s="33">
         <v>40053</v>
@@ -13963,10 +13965,10 @@
         <v>42</v>
       </c>
       <c r="G86" s="35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13974,7 +13976,7 @@
         <v>40061</v>
       </c>
       <c r="D87" s="37" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E87" s="33">
         <v>40061</v>
@@ -13983,10 +13985,10 @@
         <v>52</v>
       </c>
       <c r="G87" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H87" s="39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="3:8" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13994,7 +13996,7 @@
         <v>40062</v>
       </c>
       <c r="D88" s="37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E88" s="33">
         <v>40062</v>
@@ -14003,10 +14005,10 @@
         <v>52</v>
       </c>
       <c r="G88" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="3:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14014,7 +14016,7 @@
         <v>40063</v>
       </c>
       <c r="D89" s="34" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E89" s="33">
         <v>40063</v>
@@ -14023,10 +14025,10 @@
         <v>52</v>
       </c>
       <c r="G89" s="35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14034,7 +14036,7 @@
         <v>90001</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E90" s="9">
         <v>60010100</v>
@@ -14043,10 +14045,10 @@
         <v>1</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14054,7 +14056,7 @@
         <v>90002</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E91" s="9">
         <v>60010200</v>
@@ -14063,10 +14065,10 @@
         <v>1</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14074,7 +14076,7 @@
         <v>90003</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E92" s="9">
         <v>60010300</v>
@@ -14083,10 +14085,10 @@
         <v>1</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14094,7 +14096,7 @@
         <v>90004</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E93" s="9">
         <v>60010400</v>
@@ -14103,10 +14105,10 @@
         <v>2</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14114,7 +14116,7 @@
         <v>90005</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E94" s="9">
         <v>60010500</v>
@@ -14123,10 +14125,10 @@
         <v>2</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="3:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14134,7 +14136,7 @@
         <v>90006</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E95" s="9">
         <v>60010600</v>
@@ -14143,10 +14145,10 @@
         <v>2</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14160,7 +14162,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14174,7 +14176,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14188,7 +14190,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14202,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14216,7 +14218,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14230,7 +14232,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14244,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="H102" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14258,7 +14260,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14272,7 +14274,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14286,7 +14288,7 @@
         <v>1</v>
       </c>
       <c r="H105" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14300,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="H106" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O106" s="9"/>
     </row>
@@ -14315,7 +14317,7 @@
         <v>1</v>
       </c>
       <c r="H107" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O107" s="9"/>
     </row>
@@ -14330,7 +14332,7 @@
         <v>1</v>
       </c>
       <c r="H108" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O108" s="9"/>
     </row>
@@ -14345,7 +14347,7 @@
         <v>1</v>
       </c>
       <c r="H109" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O109" s="9"/>
     </row>
@@ -14360,7 +14362,7 @@
         <v>1</v>
       </c>
       <c r="H110" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O110" s="9"/>
     </row>
@@ -14375,7 +14377,7 @@
         <v>1</v>
       </c>
       <c r="H111" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O111" s="9"/>
     </row>
@@ -14390,7 +14392,7 @@
         <v>1</v>
       </c>
       <c r="H112" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O112" s="9"/>
     </row>
@@ -14405,7 +14407,7 @@
         <v>1</v>
       </c>
       <c r="H113" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O113" s="9"/>
     </row>
@@ -14420,7 +14422,7 @@
         <v>1</v>
       </c>
       <c r="H114" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O114" s="9"/>
     </row>
@@ -14435,7 +14437,7 @@
         <v>1</v>
       </c>
       <c r="H115" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O115" s="9"/>
     </row>
@@ -14450,7 +14452,7 @@
         <v>1</v>
       </c>
       <c r="H116" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O116" s="9"/>
     </row>
@@ -14465,7 +14467,7 @@
         <v>1</v>
       </c>
       <c r="H117" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O117" s="9"/>
     </row>
@@ -14480,7 +14482,7 @@
         <v>1</v>
       </c>
       <c r="H118" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O118" s="9"/>
     </row>
@@ -14495,7 +14497,7 @@
         <v>1</v>
       </c>
       <c r="H119" s="30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O119" s="9"/>
     </row>
